--- a/taks.xlsx
+++ b/taks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaha\Projects\Python Projects\TAKAutomator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B25ED80-A4AC-4F78-9C06-F1536B222B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7DB7DB-D96D-45FC-8AE4-ABDED43DAD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="70">
   <si>
     <t>TYPE</t>
   </si>
@@ -209,12 +209,6 @@
     <t>["Severe hypoglycemia", "Hypoglycemia", "Low glucose", "Normal glucose", "High glucose", "Hyperglycemia"]</t>
   </si>
   <si>
-    <t>GOOD_BEFORE_UNIT</t>
-  </si>
-  <si>
-    <t>GOOD_AFTER_UNIT</t>
-  </si>
-  <si>
     <t>hours</t>
   </si>
   <si>
@@ -266,22 +260,22 @@
     <t>seconds</t>
   </si>
   <si>
-    <t>PERSISTENCE_BEHAVIOR</t>
-  </si>
-  <si>
     <t>pos-pos</t>
-  </si>
-  <si>
-    <t>INTERPOLATION_ROWS</t>
-  </si>
-  <si>
-    <t>GLOBAL_PERSISTENCE</t>
   </si>
   <si>
     <t>OUTPUT_TYPES</t>
   </si>
   <si>
     <t>ordinal</t>
+  </si>
+  <si>
+    <t>GOOD_BEFORE_GRANULARITY</t>
+  </si>
+  <si>
+    <t>GOOD_AFTER_GRANULARITY</t>
+  </si>
+  <si>
+    <t>GLOBAL_BEHAVIOUR</t>
   </si>
 </sst>
 </file>
@@ -671,9 +665,9 @@
   </sheetPr>
   <dimension ref="A1:W908"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -701,13 +695,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>28</v>
@@ -728,13 +722,13 @@
         <v>41</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>42</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>15</v>
@@ -755,7 +749,7 @@
         <v>35</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>36</v>
@@ -769,36 +763,36 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="str" cm="1">
         <f t="array" ref="D2">INDEX(_xlfn.TEXTSPLIT(C2, "-"), 1)</f>
         <v>nominal</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L2" s="3">
         <v>0</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N2" s="3">
         <v>0</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P2" s="2" t="b">
         <v>1</v>
@@ -829,36 +823,36 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="str" cm="1">
         <f t="array" ref="D3">INDEX(_xlfn.TEXTSPLIT(C3, "-"), 1)</f>
         <v>nominal</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L3" s="3">
         <v>0</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N3" s="3">
         <v>0</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P3" s="2" t="b">
         <v>1</v>
@@ -889,36 +883,36 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="str" cm="1">
         <f t="array" ref="D4">INDEX(_xlfn.TEXTSPLIT(C4, "-"), 1)</f>
         <v>nominal</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L4" s="3">
         <v>0</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N4" s="3">
         <v>0</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P4" s="2" t="b">
         <v>1</v>
@@ -949,36 +943,36 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="str" cm="1">
         <f t="array" ref="D5">INDEX(_xlfn.TEXTSPLIT(C5, "-"), 1)</f>
         <v>nominal</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L5" s="3">
         <v>0</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N5" s="3">
         <v>0</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P5" s="2" t="b">
         <v>1</v>
@@ -1009,17 +1003,17 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="str" cm="1">
         <f t="array" ref="D6">INDEX(_xlfn.TEXTSPLIT(C6, "-"), 1)</f>
         <v>numeric</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G6" s="2">
         <v>20</v>
@@ -1038,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N6" s="3">
         <v>6</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P6" s="2" t="b">
         <v>1</v>
@@ -1075,17 +1069,17 @@
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="str" cm="1">
         <f t="array" ref="D7">INDEX(_xlfn.TEXTSPLIT(C7, "-"), 1)</f>
         <v>numeric</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G7" s="2">
         <v>20</v>
@@ -1104,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P7" s="2" t="b">
         <v>1</v>
@@ -1141,36 +1135,36 @@
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="str" cm="1">
         <f t="array" ref="D8">INDEX(_xlfn.TEXTSPLIT(C8, "-"), 1)</f>
         <v>nominal</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N8" s="3">
         <v>50</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P8" s="2" t="b">
         <v>1</v>
@@ -1201,17 +1195,17 @@
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="str" cm="1">
         <f t="array" ref="D9">INDEX(_xlfn.TEXTSPLIT(C9, "-"), 1)</f>
         <v>numeric</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -1230,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P9" s="2" t="b">
         <v>1</v>
@@ -1267,36 +1261,36 @@
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2" t="str" cm="1">
         <f t="array" ref="D10">INDEX(_xlfn.TEXTSPLIT(C10, "-"), 1)</f>
         <v>nominal</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P10" s="2" t="b">
         <v>1</v>
@@ -1327,17 +1321,17 @@
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="str" cm="1">
         <f t="array" ref="D11">INDEX(_xlfn.TEXTSPLIT(C11, "-"), 1)</f>
         <v>numeric</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -1356,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N11" s="3">
         <v>0</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P11" s="2" t="b">
         <v>1</v>
@@ -1393,36 +1387,36 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="str" cm="1">
         <f t="array" ref="D12">INDEX(_xlfn.TEXTSPLIT(C12, "-"), 1)</f>
         <v>nominal</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P12" s="2" t="b">
         <v>1</v>
@@ -1453,36 +1447,36 @@
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2" t="str" cm="1">
         <f t="array" ref="D13">INDEX(_xlfn.TEXTSPLIT(C13, "-"), 1)</f>
         <v>nominal</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L13" s="3">
         <v>0</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N13" s="3">
         <v>0</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P13" s="2" t="b">
         <v>1</v>
@@ -23916,7 +23910,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -23944,13 +23938,13 @@
         <v>37</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>38</v>
@@ -23959,19 +23953,19 @@
         <v>40</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>41</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>42</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>15</v>
@@ -23992,7 +23986,7 @@
         <v>35</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U1" s="8" t="s">
         <v>36</v>
@@ -24023,10 +24017,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
@@ -24034,19 +24028,19 @@
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J2" s="3">
         <v>0</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L2" s="3">
         <v>50</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N2" s="2" t="b">
         <v>1</v>
@@ -24079,17 +24073,17 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>46</v>
@@ -24098,13 +24092,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L3" s="3">
         <v>6</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N3" s="2" t="b">
         <v>1</v>
@@ -24137,17 +24131,17 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>46</v>
@@ -24156,13 +24150,13 @@
         <v>0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L4" s="3">
         <v>4</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N4" s="2" t="b">
         <v>1</v>
@@ -24195,17 +24189,17 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>45</v>
@@ -24214,13 +24208,13 @@
         <v>0</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L5" s="3">
         <v>0</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N5" s="2" t="b">
         <v>1</v>
@@ -24253,17 +24247,17 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>45</v>
@@ -24272,13 +24266,13 @@
         <v>0</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N6" s="2" t="b">
         <v>1</v>
@@ -46221,7 +46215,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="15" t="b">
         <v>0</v>

--- a/taks.xlsx
+++ b/taks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaha\Projects\Python Projects\TAKAutomator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3382CC-6F8C-4FF1-AECD-35E24919A889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B65F6FA-3A3A-4D4F-B882-2C1DB19E78C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="72">
   <si>
     <t>TYPE</t>
   </si>
@@ -204,9 +204,6 @@
   </si>
   <si>
     <t>CLIPPERS</t>
-  </si>
-  <si>
-    <t>seconds</t>
   </si>
   <si>
     <t>pos-pos</t>
@@ -691,9 +688,9 @@
   </sheetPr>
   <dimension ref="A1:W908"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -729,58 +726,58 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
+      <c r="L1" s="8" t="s">
+        <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="R1" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="S1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="T1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="U1" s="20" t="s">
         <v>65</v>
-      </c>
-      <c r="U1" s="20" t="s">
-        <v>66</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>45</v>
@@ -800,10 +797,10 @@
         <v>43</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="str" cm="1">
         <f t="array" ref="F2">INDEX(_xlfn.TEXTSPLIT($C2, "-"), 1)</f>
@@ -820,31 +817,31 @@
         <v>0</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N2" s="3">
         <v>0</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P2" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="T2" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="Q2" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="R2" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="S2" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="T2" s="19" t="s">
-        <v>71</v>
-      </c>
       <c r="U2" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
@@ -860,10 +857,10 @@
         <v>43</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="str" cm="1">
         <f t="array" ref="F3">INDEX(_xlfn.TEXTSPLIT($C3, "-"), 1)</f>
@@ -880,31 +877,31 @@
         <v>0</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N3" s="3">
         <v>0</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P3" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="T3" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="Q3" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="R3" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="T3" s="19" t="s">
-        <v>71</v>
-      </c>
       <c r="U3" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="4"/>
@@ -920,10 +917,10 @@
         <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2" t="str" cm="1">
         <f t="array" ref="F4">INDEX(_xlfn.TEXTSPLIT($C4, "-"), 1)</f>
@@ -940,31 +937,31 @@
         <v>0</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N4" s="3">
         <v>0</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="S4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="T4" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="Q4" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="R4" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="T4" s="19" t="s">
-        <v>71</v>
-      </c>
       <c r="U4" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="4"/>
@@ -980,10 +977,10 @@
         <v>43</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2" t="str" cm="1">
         <f t="array" ref="F5">INDEX(_xlfn.TEXTSPLIT($C5, "-"), 1)</f>
@@ -1000,31 +997,31 @@
         <v>0</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N5" s="3">
         <v>0</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P5" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="T5" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="Q5" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="R5" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="T5" s="19" t="s">
-        <v>71</v>
-      </c>
       <c r="U5" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V5" s="2"/>
       <c r="W5" s="4"/>
@@ -1040,10 +1037,10 @@
         <v>44</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2" t="str" cm="1">
         <f t="array" ref="F6">INDEX(_xlfn.TEXTSPLIT($C6, "-"), 1)</f>
@@ -1066,31 +1063,31 @@
         <v>0</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N6" s="3">
         <v>6</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R6" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S6" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T6" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U6" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="4"/>
@@ -1106,10 +1103,10 @@
         <v>44</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" s="2" t="str" cm="1">
         <f t="array" ref="F7">INDEX(_xlfn.TEXTSPLIT($C7, "-"), 1)</f>
@@ -1132,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R7" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T7" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U7" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="4"/>
@@ -1172,10 +1169,10 @@
         <v>43</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="2" t="str" cm="1">
         <f t="array" ref="F8">INDEX(_xlfn.TEXTSPLIT($C8, "-"), 1)</f>
@@ -1192,31 +1189,31 @@
         <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N8" s="3">
         <v>50</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P8" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="R8" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="S8" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="T8" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="Q8" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="R8" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="S8" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="T8" s="19" t="s">
-        <v>71</v>
-      </c>
       <c r="U8" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V8" s="3"/>
       <c r="W8" s="4"/>
@@ -1232,10 +1229,10 @@
         <v>44</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2" t="str" cm="1">
         <f t="array" ref="F9">INDEX(_xlfn.TEXTSPLIT($C9, "-"), 1)</f>
@@ -1258,31 +1255,31 @@
         <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S9" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T9" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U9" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V9" s="3"/>
       <c r="W9" s="4"/>
@@ -1298,10 +1295,10 @@
         <v>43</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="2" t="str" cm="1">
         <f t="array" ref="F10">INDEX(_xlfn.TEXTSPLIT($C10, "-"), 1)</f>
@@ -1318,31 +1315,31 @@
         <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S10" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T10" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U10" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V10" s="3"/>
       <c r="W10" s="4"/>
@@ -1358,10 +1355,10 @@
         <v>44</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="2" t="str" cm="1">
         <f t="array" ref="F11">INDEX(_xlfn.TEXTSPLIT($C11, "-"), 1)</f>
@@ -1384,31 +1381,31 @@
         <v>0</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N11" s="3">
         <v>0</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R11" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S11" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T11" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U11" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V11" s="3"/>
       <c r="W11" s="4"/>
@@ -1424,10 +1421,10 @@
         <v>43</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" s="2" t="str" cm="1">
         <f t="array" ref="F12">INDEX(_xlfn.TEXTSPLIT($C12, "-"), 1)</f>
@@ -1444,31 +1441,31 @@
         <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R12" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S12" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T12" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U12" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V12" s="3"/>
       <c r="W12" s="4"/>
@@ -1484,10 +1481,10 @@
         <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="2" t="str" cm="1">
         <f t="array" ref="F13">INDEX(_xlfn.TEXTSPLIT($C13, "-"), 1)</f>
@@ -1504,31 +1501,31 @@
         <v>0</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N13" s="3">
         <v>0</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P13" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q13" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="R13" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="S13" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="T13" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="Q13" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="R13" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="S13" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="T13" s="19" t="s">
-        <v>71</v>
-      </c>
       <c r="U13" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V13" s="3"/>
       <c r="W13" s="4"/>
@@ -23942,9 +23939,9 @@
   </sheetPr>
   <dimension ref="A1:AI998"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -23974,13 +23971,13 @@
         <v>26</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>27</v>
@@ -23992,34 +23989,34 @@
         <v>34</v>
       </c>
       <c r="J1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>53</v>
+      <c r="N1" s="20" t="s">
+        <v>60</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="R1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="S1" s="20" t="s">
         <v>65</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>66</v>
       </c>
       <c r="T1" s="8" t="s">
         <v>45</v>
@@ -24053,13 +24050,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>28</v>
@@ -24072,31 +24069,31 @@
         <v>0</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L2" s="3">
         <v>50</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="N2" s="19" t="s">
-        <v>70</v>
-      </c>
       <c r="O2" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R2" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T2" s="4"/>
     </row>
@@ -24111,13 +24108,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>28</v>
@@ -24132,31 +24129,31 @@
         <v>0</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L3" s="3">
         <v>6</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S3" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T3" s="4"/>
     </row>
@@ -24171,13 +24168,13 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>28</v>
@@ -24192,31 +24189,31 @@
         <v>0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L4" s="3">
         <v>4</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R4" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S4" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T4" s="4"/>
     </row>
@@ -24231,13 +24228,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>28</v>
@@ -24252,31 +24249,31 @@
         <v>0</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L5" s="3">
         <v>0</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R5" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S5" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T5" s="4"/>
     </row>
@@ -24291,13 +24288,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>28</v>
@@ -24312,31 +24309,31 @@
         <v>0</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N6" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R6" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S6" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T6" s="4"/>
     </row>
@@ -46172,7 +46169,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{25F64F70-E844-451E-A092-027E82FEE113}">
       <formula1>"min, max"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576 E2:E1048576 K2:K1048576" xr:uid="{05752E7E-6681-422B-A153-73C89C26B8FC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576 K2:K1048576 E2:E1048576" xr:uid="{05752E7E-6681-422B-A153-73C89C26B8FC}">
       <formula1>"second, minute, hour, day, week, month, year"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{B0B8DD5B-800F-4696-AA1D-3B2D767EBEBC}">
@@ -46227,22 +46224,22 @@
         <v>31</v>
       </c>
       <c r="D1" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>65</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>66</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>25</v>
@@ -46272,22 +46269,22 @@
         <v>36</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="24" t="s">
-        <v>71</v>
-      </c>
       <c r="I2" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J2" s="15"/>
     </row>
@@ -46302,22 +46299,22 @@
         <v>22</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="24" t="s">
-        <v>71</v>
-      </c>
       <c r="I3" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J3" s="15"/>
     </row>

--- a/taks.xlsx
+++ b/taks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaha\Projects\Python Projects\TAKAutomator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B65F6FA-3A3A-4D4F-B882-2C1DB19E78C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1702FBE-42E6-498F-B671-B64F2DA24289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_concepts" sheetId="1" r:id="rId1"/>
@@ -688,7 +688,7 @@
   </sheetPr>
   <dimension ref="A1:W908"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
@@ -23939,9 +23939,9 @@
   </sheetPr>
   <dimension ref="A1:AI998"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/taks.xlsx
+++ b/taks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaha\Projects\Python Projects\TAKAutomator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C3AEE5-A786-4EFB-ABF0-A8A2D0809212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A0AD71-41E5-4B1B-9FF9-337E4BD46569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_concepts" sheetId="1" r:id="rId1"/>
@@ -794,7 +794,7 @@
   </sheetPr>
   <dimension ref="A1:W904"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
@@ -24031,9 +24031,9 @@
   </sheetPr>
   <dimension ref="A1:AI995"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/taks.xlsx
+++ b/taks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaha\Projects\Python Projects\TAKAutomator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\CodeProjects\TAKAutomator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F519584-EA2A-463E-991B-95A605FF0CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB8FC41-4677-4EB6-988D-64364CF9319D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_concepts" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="scenarios" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">raw_concepts!$A$1:$T$902</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">raw_concepts!$A$1:$T$870</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,30 +43,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="65">
   <si>
     <t>TYPE</t>
   </si>
@@ -262,102 +240,6 @@
   <si>
     <t>ALLOWED_VALUES_UNITS</t>
   </si>
-  <si>
-    <t>HEMOGLOBIN_MEASURE</t>
-  </si>
-  <si>
-    <t>HEMOGLOBIN_DISTRIBUTION_MEASURE</t>
-  </si>
-  <si>
-    <t>HEMOGLOBIN-A1C_MEASURE</t>
-  </si>
-  <si>
-    <t>HEMATOCRIT_MEASURE</t>
-  </si>
-  <si>
-    <t>MCV_MEASURE</t>
-  </si>
-  <si>
-    <t>MCH_MEASURE</t>
-  </si>
-  <si>
-    <t>LYMPHOCYTES_MEASURE</t>
-  </si>
-  <si>
-    <t>NEUTROPHILS_MEASURE</t>
-  </si>
-  <si>
-    <t>MONOCYTES_MEASURE</t>
-  </si>
-  <si>
-    <t>RDW_MEASURE</t>
-  </si>
-  <si>
-    <t>PLT_MEASURE</t>
-  </si>
-  <si>
-    <t>PLT_DISTRIBUTION_MEASURE</t>
-  </si>
-  <si>
-    <t>MPV_MEASURE</t>
-  </si>
-  <si>
-    <t>CREATININE_MEASURE_BLOOD</t>
-  </si>
-  <si>
-    <t>CREATININE_MEASURE_URINE</t>
-  </si>
-  <si>
-    <t>UREA_MEASURE</t>
-  </si>
-  <si>
-    <t>ALBUMIN_MEASURE_BLOOD</t>
-  </si>
-  <si>
-    <t>ALBUMIN_MEASURE_URINE</t>
-  </si>
-  <si>
-    <t>SODIUM_MEASURE</t>
-  </si>
-  <si>
-    <t>POTASSIUM_MEASURE</t>
-  </si>
-  <si>
-    <t>ASPARATE-AMINOTRANSFERASE_MEASURE</t>
-  </si>
-  <si>
-    <t>ALANINE-AMINOTRANSFERASE_MEASURE</t>
-  </si>
-  <si>
-    <t>PH_MEASURE</t>
-  </si>
-  <si>
-    <t>BICARBONATE_MEASURE</t>
-  </si>
-  <si>
-    <t>THYROID-STIMULATING HORMONE_MEASURE</t>
-  </si>
-  <si>
-    <t>ALKALINE-PHOSPHATASE_MEASURE</t>
-  </si>
-  <si>
-    <t>BLOOD_PRESSURE_MEASURE</t>
-  </si>
-  <si>
-    <t>BLOOD_PRESSURE_SYSTOLIC_MEASURE</t>
-  </si>
-  <si>
-    <t>BLOOD_PRESSURE_DIASTOLIC_MEASURE</t>
-  </si>
-  <si>
-    <t>HEART_RATE_MEASURE</t>
-  </si>
-  <si>
-    <t>E-GFR_MEASURE</t>
-  </si>
-  <si>
-    <t>BMI_MEASURE</t>
-  </si>
 </sst>
 </file>
 
@@ -407,18 +289,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -476,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -537,19 +413,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,33 +631,33 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T902"/>
+  <dimension ref="A1:T870"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R6" sqref="R6"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
-    <col min="2" max="2" width="48.6328125" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.26953125" customWidth="1"/>
-    <col min="10" max="10" width="40.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="47.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="39.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="46.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="31.26953125" style="21" customWidth="1"/>
-    <col min="20" max="20" width="22.26953125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.21875" customWidth="1"/>
+    <col min="10" max="10" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="31.21875" style="21" customWidth="1"/>
+    <col min="20" max="20" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -866,8 +729,8 @@
       <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="2" t="str" cm="1">
-        <f t="array" ref="D2">INDEX(_xlfn.TEXTSPLIT($C2, "-"), 1)</f>
+      <c r="D2" s="2" t="str">
+        <f>LEFT(C2, FIND("-", C2)-1)</f>
         <v>nominal</v>
       </c>
       <c r="E2" s="2"/>
@@ -919,8 +782,8 @@
       <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="2" t="str" cm="1">
-        <f t="array" ref="D3">INDEX(_xlfn.TEXTSPLIT($C3, "-"), 1)</f>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3:D11" si="0">LEFT(C3, FIND("-", C3)-1)</f>
         <v>nominal</v>
       </c>
       <c r="E3" s="2"/>
@@ -972,8 +835,8 @@
       <c r="C4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="2" t="str" cm="1">
-        <f t="array" ref="D4">INDEX(_xlfn.TEXTSPLIT($C4, "-"), 1)</f>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>numeric</v>
       </c>
       <c r="E4" s="2">
@@ -1031,8 +894,8 @@
       <c r="C5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="2" t="str" cm="1">
-        <f t="array" ref="D5">INDEX(_xlfn.TEXTSPLIT($C5, "-"), 1)</f>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>numeric</v>
       </c>
       <c r="E5" s="2">
@@ -1090,8 +953,8 @@
       <c r="C6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="2" t="str" cm="1">
-        <f t="array" ref="D6">INDEX(_xlfn.TEXTSPLIT($C6, "-"), 1)</f>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>nominal</v>
       </c>
       <c r="E6" s="2"/>
@@ -1143,8 +1006,8 @@
       <c r="C7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="2" t="str" cm="1">
-        <f t="array" ref="D7">INDEX(_xlfn.TEXTSPLIT($C7, "-"), 1)</f>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>numeric</v>
       </c>
       <c r="E7" s="2">
@@ -1202,8 +1065,8 @@
       <c r="C8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="2" t="str" cm="1">
-        <f t="array" ref="D8">INDEX(_xlfn.TEXTSPLIT($C8, "-"), 1)</f>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>nominal</v>
       </c>
       <c r="E8" s="2"/>
@@ -1255,8 +1118,8 @@
       <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="2" t="str" cm="1">
-        <f t="array" ref="D9">INDEX(_xlfn.TEXTSPLIT($C9, "-"), 1)</f>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>numeric</v>
       </c>
       <c r="E9" s="2">
@@ -1314,8 +1177,8 @@
       <c r="C10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="2" t="str" cm="1">
-        <f t="array" ref="D10">INDEX(_xlfn.TEXTSPLIT($C10, "-"), 1)</f>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>nominal</v>
       </c>
       <c r="E10" s="3"/>
@@ -1367,8 +1230,8 @@
       <c r="C11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="2" t="str" cm="1">
-        <f t="array" ref="D11">INDEX(_xlfn.TEXTSPLIT($C11, "-"), 1)</f>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>nominal</v>
       </c>
       <c r="E11" s="3"/>
@@ -1410,51 +1273,33 @@
       </c>
       <c r="T11" s="4"/>
     </row>
-    <row r="12" spans="1:20" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
-        <v>20</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="24" t="str" cm="1">
-        <f t="array" ref="D12">INDEX(_xlfn.TEXTSPLIT($C12, "-"), 1)</f>
-        <v>numeric</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="27"/>
+    <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="4"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="3" t="str" cm="1">
-        <f t="array" ref="D13">INDEX(_xlfn.TEXTSPLIT($C13, "-"), 1)</f>
-        <v>numeric</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1473,19 +1318,10 @@
       <c r="T13" s="4"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="3" t="str" cm="1">
-        <f t="array" ref="D14">INDEX(_xlfn.TEXTSPLIT($C14, "-"), 1)</f>
-        <v>numeric</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1504,19 +1340,10 @@
       <c r="T14" s="4"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="3" t="str" cm="1">
-        <f t="array" ref="D15">INDEX(_xlfn.TEXTSPLIT($C15, "-"), 1)</f>
-        <v>numeric</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1535,12 +1362,8 @@
       <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>24</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1561,12 +1384,8 @@
       <c r="T16" s="4"/>
     </row>
     <row r="17" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>25</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1587,12 +1406,8 @@
       <c r="T17" s="4"/>
     </row>
     <row r="18" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1613,12 +1428,8 @@
       <c r="T18" s="4"/>
     </row>
     <row r="19" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>27</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1639,12 +1450,8 @@
       <c r="T19" s="4"/>
     </row>
     <row r="20" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>28</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1665,12 +1472,8 @@
       <c r="T20" s="4"/>
     </row>
     <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>29</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1691,12 +1494,8 @@
       <c r="T21" s="4"/>
     </row>
     <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>30</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1717,12 +1516,8 @@
       <c r="T22" s="4"/>
     </row>
     <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>31</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1743,12 +1538,8 @@
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>32</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1769,12 +1560,8 @@
       <c r="T24" s="4"/>
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>33</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1795,12 +1582,8 @@
       <c r="T25" s="4"/>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>34</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1821,12 +1604,8 @@
       <c r="T26" s="4"/>
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>35</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1847,12 +1626,8 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>36</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1873,12 +1648,8 @@
       <c r="T28" s="4"/>
     </row>
     <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>37</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1899,12 +1670,8 @@
       <c r="T29" s="4"/>
     </row>
     <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>38</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1925,12 +1692,8 @@
       <c r="T30" s="4"/>
     </row>
     <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>39</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1951,12 +1714,8 @@
       <c r="T31" s="4"/>
     </row>
     <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>40</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1977,12 +1736,8 @@
       <c r="T32" s="4"/>
     </row>
     <row r="33" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>41</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2003,12 +1758,8 @@
       <c r="T33" s="4"/>
     </row>
     <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>42</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2029,12 +1780,8 @@
       <c r="T34" s="4"/>
     </row>
     <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>43</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2055,12 +1802,8 @@
       <c r="T35" s="4"/>
     </row>
     <row r="36" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>44</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2081,12 +1824,8 @@
       <c r="T36" s="4"/>
     </row>
     <row r="37" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>45</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2107,12 +1846,8 @@
       <c r="T37" s="4"/>
     </row>
     <row r="38" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>46</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2133,12 +1868,8 @@
       <c r="T38" s="4"/>
     </row>
     <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>47</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -2159,12 +1890,8 @@
       <c r="T39" s="4"/>
     </row>
     <row r="40" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>48</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -2185,12 +1912,8 @@
       <c r="T40" s="4"/>
     </row>
     <row r="41" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>49</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -2211,12 +1934,8 @@
       <c r="T41" s="4"/>
     </row>
     <row r="42" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>50</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2237,12 +1956,8 @@
       <c r="T42" s="4"/>
     </row>
     <row r="43" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>51</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -5208,7 +4923,7 @@
       <c r="Q177" s="19"/>
       <c r="R177" s="19"/>
       <c r="S177" s="19"/>
-      <c r="T177" s="4"/>
+      <c r="T177" s="3"/>
     </row>
     <row r="178" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
@@ -5230,7 +4945,7 @@
       <c r="Q178" s="19"/>
       <c r="R178" s="19"/>
       <c r="S178" s="19"/>
-      <c r="T178" s="4"/>
+      <c r="T178" s="3"/>
     </row>
     <row r="179" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
@@ -5252,7 +4967,7 @@
       <c r="Q179" s="19"/>
       <c r="R179" s="19"/>
       <c r="S179" s="19"/>
-      <c r="T179" s="4"/>
+      <c r="T179" s="3"/>
     </row>
     <row r="180" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
@@ -5274,7 +4989,7 @@
       <c r="Q180" s="19"/>
       <c r="R180" s="19"/>
       <c r="S180" s="19"/>
-      <c r="T180" s="4"/>
+      <c r="T180" s="3"/>
     </row>
     <row r="181" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
@@ -5296,7 +5011,7 @@
       <c r="Q181" s="19"/>
       <c r="R181" s="19"/>
       <c r="S181" s="19"/>
-      <c r="T181" s="4"/>
+      <c r="T181" s="3"/>
     </row>
     <row r="182" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
@@ -5318,7 +5033,7 @@
       <c r="Q182" s="19"/>
       <c r="R182" s="19"/>
       <c r="S182" s="19"/>
-      <c r="T182" s="4"/>
+      <c r="T182" s="3"/>
     </row>
     <row r="183" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
@@ -5340,7 +5055,7 @@
       <c r="Q183" s="19"/>
       <c r="R183" s="19"/>
       <c r="S183" s="19"/>
-      <c r="T183" s="4"/>
+      <c r="T183" s="3"/>
     </row>
     <row r="184" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
@@ -5362,7 +5077,7 @@
       <c r="Q184" s="19"/>
       <c r="R184" s="19"/>
       <c r="S184" s="19"/>
-      <c r="T184" s="4"/>
+      <c r="T184" s="3"/>
     </row>
     <row r="185" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
@@ -5384,7 +5099,7 @@
       <c r="Q185" s="19"/>
       <c r="R185" s="19"/>
       <c r="S185" s="19"/>
-      <c r="T185" s="4"/>
+      <c r="T185" s="3"/>
     </row>
     <row r="186" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
@@ -5406,7 +5121,7 @@
       <c r="Q186" s="19"/>
       <c r="R186" s="19"/>
       <c r="S186" s="19"/>
-      <c r="T186" s="4"/>
+      <c r="T186" s="3"/>
     </row>
     <row r="187" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
@@ -5428,7 +5143,7 @@
       <c r="Q187" s="19"/>
       <c r="R187" s="19"/>
       <c r="S187" s="19"/>
-      <c r="T187" s="4"/>
+      <c r="T187" s="3"/>
     </row>
     <row r="188" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
@@ -5450,7 +5165,7 @@
       <c r="Q188" s="19"/>
       <c r="R188" s="19"/>
       <c r="S188" s="19"/>
-      <c r="T188" s="4"/>
+      <c r="T188" s="3"/>
     </row>
     <row r="189" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
@@ -5472,7 +5187,7 @@
       <c r="Q189" s="19"/>
       <c r="R189" s="19"/>
       <c r="S189" s="19"/>
-      <c r="T189" s="4"/>
+      <c r="T189" s="3"/>
     </row>
     <row r="190" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
@@ -5494,7 +5209,7 @@
       <c r="Q190" s="19"/>
       <c r="R190" s="19"/>
       <c r="S190" s="19"/>
-      <c r="T190" s="4"/>
+      <c r="T190" s="3"/>
     </row>
     <row r="191" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
@@ -5516,7 +5231,7 @@
       <c r="Q191" s="19"/>
       <c r="R191" s="19"/>
       <c r="S191" s="19"/>
-      <c r="T191" s="4"/>
+      <c r="T191" s="3"/>
     </row>
     <row r="192" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
@@ -5538,7 +5253,7 @@
       <c r="Q192" s="19"/>
       <c r="R192" s="19"/>
       <c r="S192" s="19"/>
-      <c r="T192" s="4"/>
+      <c r="T192" s="3"/>
     </row>
     <row r="193" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
@@ -5560,7 +5275,7 @@
       <c r="Q193" s="19"/>
       <c r="R193" s="19"/>
       <c r="S193" s="19"/>
-      <c r="T193" s="4"/>
+      <c r="T193" s="3"/>
     </row>
     <row r="194" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
@@ -5582,7 +5297,7 @@
       <c r="Q194" s="19"/>
       <c r="R194" s="19"/>
       <c r="S194" s="19"/>
-      <c r="T194" s="4"/>
+      <c r="T194" s="3"/>
     </row>
     <row r="195" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
@@ -5604,7 +5319,7 @@
       <c r="Q195" s="19"/>
       <c r="R195" s="19"/>
       <c r="S195" s="19"/>
-      <c r="T195" s="4"/>
+      <c r="T195" s="3"/>
     </row>
     <row r="196" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
@@ -5626,7 +5341,7 @@
       <c r="Q196" s="19"/>
       <c r="R196" s="19"/>
       <c r="S196" s="19"/>
-      <c r="T196" s="4"/>
+      <c r="T196" s="3"/>
     </row>
     <row r="197" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
@@ -5648,7 +5363,7 @@
       <c r="Q197" s="19"/>
       <c r="R197" s="19"/>
       <c r="S197" s="19"/>
-      <c r="T197" s="4"/>
+      <c r="T197" s="3"/>
     </row>
     <row r="198" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
@@ -5670,7 +5385,7 @@
       <c r="Q198" s="19"/>
       <c r="R198" s="19"/>
       <c r="S198" s="19"/>
-      <c r="T198" s="4"/>
+      <c r="T198" s="3"/>
     </row>
     <row r="199" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
@@ -5692,7 +5407,7 @@
       <c r="Q199" s="19"/>
       <c r="R199" s="19"/>
       <c r="S199" s="19"/>
-      <c r="T199" s="4"/>
+      <c r="T199" s="3"/>
     </row>
     <row r="200" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
@@ -5714,7 +5429,7 @@
       <c r="Q200" s="19"/>
       <c r="R200" s="19"/>
       <c r="S200" s="19"/>
-      <c r="T200" s="4"/>
+      <c r="T200" s="3"/>
     </row>
     <row r="201" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
@@ -5736,7 +5451,7 @@
       <c r="Q201" s="19"/>
       <c r="R201" s="19"/>
       <c r="S201" s="19"/>
-      <c r="T201" s="4"/>
+      <c r="T201" s="3"/>
     </row>
     <row r="202" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
@@ -5758,7 +5473,7 @@
       <c r="Q202" s="19"/>
       <c r="R202" s="19"/>
       <c r="S202" s="19"/>
-      <c r="T202" s="4"/>
+      <c r="T202" s="3"/>
     </row>
     <row r="203" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
@@ -5780,7 +5495,7 @@
       <c r="Q203" s="19"/>
       <c r="R203" s="19"/>
       <c r="S203" s="19"/>
-      <c r="T203" s="4"/>
+      <c r="T203" s="3"/>
     </row>
     <row r="204" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
@@ -5802,7 +5517,7 @@
       <c r="Q204" s="19"/>
       <c r="R204" s="19"/>
       <c r="S204" s="19"/>
-      <c r="T204" s="4"/>
+      <c r="T204" s="3"/>
     </row>
     <row r="205" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
@@ -5824,7 +5539,7 @@
       <c r="Q205" s="19"/>
       <c r="R205" s="19"/>
       <c r="S205" s="19"/>
-      <c r="T205" s="4"/>
+      <c r="T205" s="3"/>
     </row>
     <row r="206" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
@@ -5846,7 +5561,7 @@
       <c r="Q206" s="19"/>
       <c r="R206" s="19"/>
       <c r="S206" s="19"/>
-      <c r="T206" s="4"/>
+      <c r="T206" s="3"/>
     </row>
     <row r="207" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
@@ -5868,7 +5583,7 @@
       <c r="Q207" s="19"/>
       <c r="R207" s="19"/>
       <c r="S207" s="19"/>
-      <c r="T207" s="4"/>
+      <c r="T207" s="3"/>
     </row>
     <row r="208" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
@@ -5890,7 +5605,7 @@
       <c r="Q208" s="19"/>
       <c r="R208" s="19"/>
       <c r="S208" s="19"/>
-      <c r="T208" s="4"/>
+      <c r="T208" s="3"/>
     </row>
     <row r="209" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
@@ -20456,714 +20171,10 @@
       <c r="S870" s="19"/>
       <c r="T870" s="3"/>
     </row>
-    <row r="871" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A871" s="3"/>
-      <c r="B871" s="3"/>
-      <c r="C871" s="3"/>
-      <c r="D871" s="3"/>
-      <c r="E871" s="3"/>
-      <c r="F871" s="3"/>
-      <c r="G871" s="3"/>
-      <c r="H871" s="3"/>
-      <c r="I871" s="3"/>
-      <c r="J871" s="3"/>
-      <c r="K871" s="3"/>
-      <c r="L871" s="3"/>
-      <c r="M871" s="3"/>
-      <c r="N871" s="19"/>
-      <c r="O871" s="19"/>
-      <c r="P871" s="19"/>
-      <c r="Q871" s="19"/>
-      <c r="R871" s="19"/>
-      <c r="S871" s="19"/>
-      <c r="T871" s="3"/>
-    </row>
-    <row r="872" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A872" s="3"/>
-      <c r="B872" s="3"/>
-      <c r="C872" s="3"/>
-      <c r="D872" s="3"/>
-      <c r="E872" s="3"/>
-      <c r="F872" s="3"/>
-      <c r="G872" s="3"/>
-      <c r="H872" s="3"/>
-      <c r="I872" s="3"/>
-      <c r="J872" s="3"/>
-      <c r="K872" s="3"/>
-      <c r="L872" s="3"/>
-      <c r="M872" s="3"/>
-      <c r="N872" s="19"/>
-      <c r="O872" s="19"/>
-      <c r="P872" s="19"/>
-      <c r="Q872" s="19"/>
-      <c r="R872" s="19"/>
-      <c r="S872" s="19"/>
-      <c r="T872" s="3"/>
-    </row>
-    <row r="873" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A873" s="3"/>
-      <c r="B873" s="3"/>
-      <c r="C873" s="3"/>
-      <c r="D873" s="3"/>
-      <c r="E873" s="3"/>
-      <c r="F873" s="3"/>
-      <c r="G873" s="3"/>
-      <c r="H873" s="3"/>
-      <c r="I873" s="3"/>
-      <c r="J873" s="3"/>
-      <c r="K873" s="3"/>
-      <c r="L873" s="3"/>
-      <c r="M873" s="3"/>
-      <c r="N873" s="19"/>
-      <c r="O873" s="19"/>
-      <c r="P873" s="19"/>
-      <c r="Q873" s="19"/>
-      <c r="R873" s="19"/>
-      <c r="S873" s="19"/>
-      <c r="T873" s="3"/>
-    </row>
-    <row r="874" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A874" s="3"/>
-      <c r="B874" s="3"/>
-      <c r="C874" s="3"/>
-      <c r="D874" s="3"/>
-      <c r="E874" s="3"/>
-      <c r="F874" s="3"/>
-      <c r="G874" s="3"/>
-      <c r="H874" s="3"/>
-      <c r="I874" s="3"/>
-      <c r="J874" s="3"/>
-      <c r="K874" s="3"/>
-      <c r="L874" s="3"/>
-      <c r="M874" s="3"/>
-      <c r="N874" s="19"/>
-      <c r="O874" s="19"/>
-      <c r="P874" s="19"/>
-      <c r="Q874" s="19"/>
-      <c r="R874" s="19"/>
-      <c r="S874" s="19"/>
-      <c r="T874" s="3"/>
-    </row>
-    <row r="875" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A875" s="3"/>
-      <c r="B875" s="3"/>
-      <c r="C875" s="3"/>
-      <c r="D875" s="3"/>
-      <c r="E875" s="3"/>
-      <c r="F875" s="3"/>
-      <c r="G875" s="3"/>
-      <c r="H875" s="3"/>
-      <c r="I875" s="3"/>
-      <c r="J875" s="3"/>
-      <c r="K875" s="3"/>
-      <c r="L875" s="3"/>
-      <c r="M875" s="3"/>
-      <c r="N875" s="19"/>
-      <c r="O875" s="19"/>
-      <c r="P875" s="19"/>
-      <c r="Q875" s="19"/>
-      <c r="R875" s="19"/>
-      <c r="S875" s="19"/>
-      <c r="T875" s="3"/>
-    </row>
-    <row r="876" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A876" s="3"/>
-      <c r="B876" s="3"/>
-      <c r="C876" s="3"/>
-      <c r="D876" s="3"/>
-      <c r="E876" s="3"/>
-      <c r="F876" s="3"/>
-      <c r="G876" s="3"/>
-      <c r="H876" s="3"/>
-      <c r="I876" s="3"/>
-      <c r="J876" s="3"/>
-      <c r="K876" s="3"/>
-      <c r="L876" s="3"/>
-      <c r="M876" s="3"/>
-      <c r="N876" s="19"/>
-      <c r="O876" s="19"/>
-      <c r="P876" s="19"/>
-      <c r="Q876" s="19"/>
-      <c r="R876" s="19"/>
-      <c r="S876" s="19"/>
-      <c r="T876" s="3"/>
-    </row>
-    <row r="877" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A877" s="3"/>
-      <c r="B877" s="3"/>
-      <c r="C877" s="3"/>
-      <c r="D877" s="3"/>
-      <c r="E877" s="3"/>
-      <c r="F877" s="3"/>
-      <c r="G877" s="3"/>
-      <c r="H877" s="3"/>
-      <c r="I877" s="3"/>
-      <c r="J877" s="3"/>
-      <c r="K877" s="3"/>
-      <c r="L877" s="3"/>
-      <c r="M877" s="3"/>
-      <c r="N877" s="19"/>
-      <c r="O877" s="19"/>
-      <c r="P877" s="19"/>
-      <c r="Q877" s="19"/>
-      <c r="R877" s="19"/>
-      <c r="S877" s="19"/>
-      <c r="T877" s="3"/>
-    </row>
-    <row r="878" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A878" s="3"/>
-      <c r="B878" s="3"/>
-      <c r="C878" s="3"/>
-      <c r="D878" s="3"/>
-      <c r="E878" s="3"/>
-      <c r="F878" s="3"/>
-      <c r="G878" s="3"/>
-      <c r="H878" s="3"/>
-      <c r="I878" s="3"/>
-      <c r="J878" s="3"/>
-      <c r="K878" s="3"/>
-      <c r="L878" s="3"/>
-      <c r="M878" s="3"/>
-      <c r="N878" s="19"/>
-      <c r="O878" s="19"/>
-      <c r="P878" s="19"/>
-      <c r="Q878" s="19"/>
-      <c r="R878" s="19"/>
-      <c r="S878" s="19"/>
-      <c r="T878" s="3"/>
-    </row>
-    <row r="879" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A879" s="3"/>
-      <c r="B879" s="3"/>
-      <c r="C879" s="3"/>
-      <c r="D879" s="3"/>
-      <c r="E879" s="3"/>
-      <c r="F879" s="3"/>
-      <c r="G879" s="3"/>
-      <c r="H879" s="3"/>
-      <c r="I879" s="3"/>
-      <c r="J879" s="3"/>
-      <c r="K879" s="3"/>
-      <c r="L879" s="3"/>
-      <c r="M879" s="3"/>
-      <c r="N879" s="19"/>
-      <c r="O879" s="19"/>
-      <c r="P879" s="19"/>
-      <c r="Q879" s="19"/>
-      <c r="R879" s="19"/>
-      <c r="S879" s="19"/>
-      <c r="T879" s="3"/>
-    </row>
-    <row r="880" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A880" s="3"/>
-      <c r="B880" s="3"/>
-      <c r="C880" s="3"/>
-      <c r="D880" s="3"/>
-      <c r="E880" s="3"/>
-      <c r="F880" s="3"/>
-      <c r="G880" s="3"/>
-      <c r="H880" s="3"/>
-      <c r="I880" s="3"/>
-      <c r="J880" s="3"/>
-      <c r="K880" s="3"/>
-      <c r="L880" s="3"/>
-      <c r="M880" s="3"/>
-      <c r="N880" s="19"/>
-      <c r="O880" s="19"/>
-      <c r="P880" s="19"/>
-      <c r="Q880" s="19"/>
-      <c r="R880" s="19"/>
-      <c r="S880" s="19"/>
-      <c r="T880" s="3"/>
-    </row>
-    <row r="881" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A881" s="3"/>
-      <c r="B881" s="3"/>
-      <c r="C881" s="3"/>
-      <c r="D881" s="3"/>
-      <c r="E881" s="3"/>
-      <c r="F881" s="3"/>
-      <c r="G881" s="3"/>
-      <c r="H881" s="3"/>
-      <c r="I881" s="3"/>
-      <c r="J881" s="3"/>
-      <c r="K881" s="3"/>
-      <c r="L881" s="3"/>
-      <c r="M881" s="3"/>
-      <c r="N881" s="19"/>
-      <c r="O881" s="19"/>
-      <c r="P881" s="19"/>
-      <c r="Q881" s="19"/>
-      <c r="R881" s="19"/>
-      <c r="S881" s="19"/>
-      <c r="T881" s="3"/>
-    </row>
-    <row r="882" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A882" s="3"/>
-      <c r="B882" s="3"/>
-      <c r="C882" s="3"/>
-      <c r="D882" s="3"/>
-      <c r="E882" s="3"/>
-      <c r="F882" s="3"/>
-      <c r="G882" s="3"/>
-      <c r="H882" s="3"/>
-      <c r="I882" s="3"/>
-      <c r="J882" s="3"/>
-      <c r="K882" s="3"/>
-      <c r="L882" s="3"/>
-      <c r="M882" s="3"/>
-      <c r="N882" s="19"/>
-      <c r="O882" s="19"/>
-      <c r="P882" s="19"/>
-      <c r="Q882" s="19"/>
-      <c r="R882" s="19"/>
-      <c r="S882" s="19"/>
-      <c r="T882" s="3"/>
-    </row>
-    <row r="883" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A883" s="3"/>
-      <c r="B883" s="3"/>
-      <c r="C883" s="3"/>
-      <c r="D883" s="3"/>
-      <c r="E883" s="3"/>
-      <c r="F883" s="3"/>
-      <c r="G883" s="3"/>
-      <c r="H883" s="3"/>
-      <c r="I883" s="3"/>
-      <c r="J883" s="3"/>
-      <c r="K883" s="3"/>
-      <c r="L883" s="3"/>
-      <c r="M883" s="3"/>
-      <c r="N883" s="19"/>
-      <c r="O883" s="19"/>
-      <c r="P883" s="19"/>
-      <c r="Q883" s="19"/>
-      <c r="R883" s="19"/>
-      <c r="S883" s="19"/>
-      <c r="T883" s="3"/>
-    </row>
-    <row r="884" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A884" s="3"/>
-      <c r="B884" s="3"/>
-      <c r="C884" s="3"/>
-      <c r="D884" s="3"/>
-      <c r="E884" s="3"/>
-      <c r="F884" s="3"/>
-      <c r="G884" s="3"/>
-      <c r="H884" s="3"/>
-      <c r="I884" s="3"/>
-      <c r="J884" s="3"/>
-      <c r="K884" s="3"/>
-      <c r="L884" s="3"/>
-      <c r="M884" s="3"/>
-      <c r="N884" s="19"/>
-      <c r="O884" s="19"/>
-      <c r="P884" s="19"/>
-      <c r="Q884" s="19"/>
-      <c r="R884" s="19"/>
-      <c r="S884" s="19"/>
-      <c r="T884" s="3"/>
-    </row>
-    <row r="885" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A885" s="3"/>
-      <c r="B885" s="3"/>
-      <c r="C885" s="3"/>
-      <c r="D885" s="3"/>
-      <c r="E885" s="3"/>
-      <c r="F885" s="3"/>
-      <c r="G885" s="3"/>
-      <c r="H885" s="3"/>
-      <c r="I885" s="3"/>
-      <c r="J885" s="3"/>
-      <c r="K885" s="3"/>
-      <c r="L885" s="3"/>
-      <c r="M885" s="3"/>
-      <c r="N885" s="19"/>
-      <c r="O885" s="19"/>
-      <c r="P885" s="19"/>
-      <c r="Q885" s="19"/>
-      <c r="R885" s="19"/>
-      <c r="S885" s="19"/>
-      <c r="T885" s="3"/>
-    </row>
-    <row r="886" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A886" s="3"/>
-      <c r="B886" s="3"/>
-      <c r="C886" s="3"/>
-      <c r="D886" s="3"/>
-      <c r="E886" s="3"/>
-      <c r="F886" s="3"/>
-      <c r="G886" s="3"/>
-      <c r="H886" s="3"/>
-      <c r="I886" s="3"/>
-      <c r="J886" s="3"/>
-      <c r="K886" s="3"/>
-      <c r="L886" s="3"/>
-      <c r="M886" s="3"/>
-      <c r="N886" s="19"/>
-      <c r="O886" s="19"/>
-      <c r="P886" s="19"/>
-      <c r="Q886" s="19"/>
-      <c r="R886" s="19"/>
-      <c r="S886" s="19"/>
-      <c r="T886" s="3"/>
-    </row>
-    <row r="887" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A887" s="3"/>
-      <c r="B887" s="3"/>
-      <c r="C887" s="3"/>
-      <c r="D887" s="3"/>
-      <c r="E887" s="3"/>
-      <c r="F887" s="3"/>
-      <c r="G887" s="3"/>
-      <c r="H887" s="3"/>
-      <c r="I887" s="3"/>
-      <c r="J887" s="3"/>
-      <c r="K887" s="3"/>
-      <c r="L887" s="3"/>
-      <c r="M887" s="3"/>
-      <c r="N887" s="19"/>
-      <c r="O887" s="19"/>
-      <c r="P887" s="19"/>
-      <c r="Q887" s="19"/>
-      <c r="R887" s="19"/>
-      <c r="S887" s="19"/>
-      <c r="T887" s="3"/>
-    </row>
-    <row r="888" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A888" s="3"/>
-      <c r="B888" s="3"/>
-      <c r="C888" s="3"/>
-      <c r="D888" s="3"/>
-      <c r="E888" s="3"/>
-      <c r="F888" s="3"/>
-      <c r="G888" s="3"/>
-      <c r="H888" s="3"/>
-      <c r="I888" s="3"/>
-      <c r="J888" s="3"/>
-      <c r="K888" s="3"/>
-      <c r="L888" s="3"/>
-      <c r="M888" s="3"/>
-      <c r="N888" s="19"/>
-      <c r="O888" s="19"/>
-      <c r="P888" s="19"/>
-      <c r="Q888" s="19"/>
-      <c r="R888" s="19"/>
-      <c r="S888" s="19"/>
-      <c r="T888" s="3"/>
-    </row>
-    <row r="889" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A889" s="3"/>
-      <c r="B889" s="3"/>
-      <c r="C889" s="3"/>
-      <c r="D889" s="3"/>
-      <c r="E889" s="3"/>
-      <c r="F889" s="3"/>
-      <c r="G889" s="3"/>
-      <c r="H889" s="3"/>
-      <c r="I889" s="3"/>
-      <c r="J889" s="3"/>
-      <c r="K889" s="3"/>
-      <c r="L889" s="3"/>
-      <c r="M889" s="3"/>
-      <c r="N889" s="19"/>
-      <c r="O889" s="19"/>
-      <c r="P889" s="19"/>
-      <c r="Q889" s="19"/>
-      <c r="R889" s="19"/>
-      <c r="S889" s="19"/>
-      <c r="T889" s="3"/>
-    </row>
-    <row r="890" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A890" s="3"/>
-      <c r="B890" s="3"/>
-      <c r="C890" s="3"/>
-      <c r="D890" s="3"/>
-      <c r="E890" s="3"/>
-      <c r="F890" s="3"/>
-      <c r="G890" s="3"/>
-      <c r="H890" s="3"/>
-      <c r="I890" s="3"/>
-      <c r="J890" s="3"/>
-      <c r="K890" s="3"/>
-      <c r="L890" s="3"/>
-      <c r="M890" s="3"/>
-      <c r="N890" s="19"/>
-      <c r="O890" s="19"/>
-      <c r="P890" s="19"/>
-      <c r="Q890" s="19"/>
-      <c r="R890" s="19"/>
-      <c r="S890" s="19"/>
-      <c r="T890" s="3"/>
-    </row>
-    <row r="891" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A891" s="3"/>
-      <c r="B891" s="3"/>
-      <c r="C891" s="3"/>
-      <c r="D891" s="3"/>
-      <c r="E891" s="3"/>
-      <c r="F891" s="3"/>
-      <c r="G891" s="3"/>
-      <c r="H891" s="3"/>
-      <c r="I891" s="3"/>
-      <c r="J891" s="3"/>
-      <c r="K891" s="3"/>
-      <c r="L891" s="3"/>
-      <c r="M891" s="3"/>
-      <c r="N891" s="19"/>
-      <c r="O891" s="19"/>
-      <c r="P891" s="19"/>
-      <c r="Q891" s="19"/>
-      <c r="R891" s="19"/>
-      <c r="S891" s="19"/>
-      <c r="T891" s="3"/>
-    </row>
-    <row r="892" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A892" s="3"/>
-      <c r="B892" s="3"/>
-      <c r="C892" s="3"/>
-      <c r="D892" s="3"/>
-      <c r="E892" s="3"/>
-      <c r="F892" s="3"/>
-      <c r="G892" s="3"/>
-      <c r="H892" s="3"/>
-      <c r="I892" s="3"/>
-      <c r="J892" s="3"/>
-      <c r="K892" s="3"/>
-      <c r="L892" s="3"/>
-      <c r="M892" s="3"/>
-      <c r="N892" s="19"/>
-      <c r="O892" s="19"/>
-      <c r="P892" s="19"/>
-      <c r="Q892" s="19"/>
-      <c r="R892" s="19"/>
-      <c r="S892" s="19"/>
-      <c r="T892" s="3"/>
-    </row>
-    <row r="893" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A893" s="3"/>
-      <c r="B893" s="3"/>
-      <c r="C893" s="3"/>
-      <c r="D893" s="3"/>
-      <c r="E893" s="3"/>
-      <c r="F893" s="3"/>
-      <c r="G893" s="3"/>
-      <c r="H893" s="3"/>
-      <c r="I893" s="3"/>
-      <c r="J893" s="3"/>
-      <c r="K893" s="3"/>
-      <c r="L893" s="3"/>
-      <c r="M893" s="3"/>
-      <c r="N893" s="19"/>
-      <c r="O893" s="19"/>
-      <c r="P893" s="19"/>
-      <c r="Q893" s="19"/>
-      <c r="R893" s="19"/>
-      <c r="S893" s="19"/>
-      <c r="T893" s="3"/>
-    </row>
-    <row r="894" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A894" s="3"/>
-      <c r="B894" s="3"/>
-      <c r="C894" s="3"/>
-      <c r="D894" s="3"/>
-      <c r="E894" s="3"/>
-      <c r="F894" s="3"/>
-      <c r="G894" s="3"/>
-      <c r="H894" s="3"/>
-      <c r="I894" s="3"/>
-      <c r="J894" s="3"/>
-      <c r="K894" s="3"/>
-      <c r="L894" s="3"/>
-      <c r="M894" s="3"/>
-      <c r="N894" s="19"/>
-      <c r="O894" s="19"/>
-      <c r="P894" s="19"/>
-      <c r="Q894" s="19"/>
-      <c r="R894" s="19"/>
-      <c r="S894" s="19"/>
-      <c r="T894" s="3"/>
-    </row>
-    <row r="895" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A895" s="3"/>
-      <c r="B895" s="3"/>
-      <c r="C895" s="3"/>
-      <c r="D895" s="3"/>
-      <c r="E895" s="3"/>
-      <c r="F895" s="3"/>
-      <c r="G895" s="3"/>
-      <c r="H895" s="3"/>
-      <c r="I895" s="3"/>
-      <c r="J895" s="3"/>
-      <c r="K895" s="3"/>
-      <c r="L895" s="3"/>
-      <c r="M895" s="3"/>
-      <c r="N895" s="19"/>
-      <c r="O895" s="19"/>
-      <c r="P895" s="19"/>
-      <c r="Q895" s="19"/>
-      <c r="R895" s="19"/>
-      <c r="S895" s="19"/>
-      <c r="T895" s="3"/>
-    </row>
-    <row r="896" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A896" s="3"/>
-      <c r="B896" s="3"/>
-      <c r="C896" s="3"/>
-      <c r="D896" s="3"/>
-      <c r="E896" s="3"/>
-      <c r="F896" s="3"/>
-      <c r="G896" s="3"/>
-      <c r="H896" s="3"/>
-      <c r="I896" s="3"/>
-      <c r="J896" s="3"/>
-      <c r="K896" s="3"/>
-      <c r="L896" s="3"/>
-      <c r="M896" s="3"/>
-      <c r="N896" s="19"/>
-      <c r="O896" s="19"/>
-      <c r="P896" s="19"/>
-      <c r="Q896" s="19"/>
-      <c r="R896" s="19"/>
-      <c r="S896" s="19"/>
-      <c r="T896" s="3"/>
-    </row>
-    <row r="897" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A897" s="3"/>
-      <c r="B897" s="3"/>
-      <c r="C897" s="3"/>
-      <c r="D897" s="3"/>
-      <c r="E897" s="3"/>
-      <c r="F897" s="3"/>
-      <c r="G897" s="3"/>
-      <c r="H897" s="3"/>
-      <c r="I897" s="3"/>
-      <c r="J897" s="3"/>
-      <c r="K897" s="3"/>
-      <c r="L897" s="3"/>
-      <c r="M897" s="3"/>
-      <c r="N897" s="19"/>
-      <c r="O897" s="19"/>
-      <c r="P897" s="19"/>
-      <c r="Q897" s="19"/>
-      <c r="R897" s="19"/>
-      <c r="S897" s="19"/>
-      <c r="T897" s="3"/>
-    </row>
-    <row r="898" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A898" s="3"/>
-      <c r="B898" s="3"/>
-      <c r="C898" s="3"/>
-      <c r="D898" s="3"/>
-      <c r="E898" s="3"/>
-      <c r="F898" s="3"/>
-      <c r="G898" s="3"/>
-      <c r="H898" s="3"/>
-      <c r="I898" s="3"/>
-      <c r="J898" s="3"/>
-      <c r="K898" s="3"/>
-      <c r="L898" s="3"/>
-      <c r="M898" s="3"/>
-      <c r="N898" s="19"/>
-      <c r="O898" s="19"/>
-      <c r="P898" s="19"/>
-      <c r="Q898" s="19"/>
-      <c r="R898" s="19"/>
-      <c r="S898" s="19"/>
-      <c r="T898" s="3"/>
-    </row>
-    <row r="899" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A899" s="3"/>
-      <c r="B899" s="3"/>
-      <c r="C899" s="3"/>
-      <c r="D899" s="3"/>
-      <c r="E899" s="3"/>
-      <c r="F899" s="3"/>
-      <c r="G899" s="3"/>
-      <c r="H899" s="3"/>
-      <c r="I899" s="3"/>
-      <c r="J899" s="3"/>
-      <c r="K899" s="3"/>
-      <c r="L899" s="3"/>
-      <c r="M899" s="3"/>
-      <c r="N899" s="19"/>
-      <c r="O899" s="19"/>
-      <c r="P899" s="19"/>
-      <c r="Q899" s="19"/>
-      <c r="R899" s="19"/>
-      <c r="S899" s="19"/>
-      <c r="T899" s="3"/>
-    </row>
-    <row r="900" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A900" s="3"/>
-      <c r="B900" s="3"/>
-      <c r="C900" s="3"/>
-      <c r="D900" s="3"/>
-      <c r="E900" s="3"/>
-      <c r="F900" s="3"/>
-      <c r="G900" s="3"/>
-      <c r="H900" s="3"/>
-      <c r="I900" s="3"/>
-      <c r="J900" s="3"/>
-      <c r="K900" s="3"/>
-      <c r="L900" s="3"/>
-      <c r="M900" s="3"/>
-      <c r="N900" s="19"/>
-      <c r="O900" s="19"/>
-      <c r="P900" s="19"/>
-      <c r="Q900" s="19"/>
-      <c r="R900" s="19"/>
-      <c r="S900" s="19"/>
-      <c r="T900" s="3"/>
-    </row>
-    <row r="901" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A901" s="3"/>
-      <c r="B901" s="3"/>
-      <c r="C901" s="3"/>
-      <c r="D901" s="3"/>
-      <c r="E901" s="3"/>
-      <c r="F901" s="3"/>
-      <c r="G901" s="3"/>
-      <c r="H901" s="3"/>
-      <c r="I901" s="3"/>
-      <c r="J901" s="3"/>
-      <c r="K901" s="3"/>
-      <c r="L901" s="3"/>
-      <c r="M901" s="3"/>
-      <c r="N901" s="19"/>
-      <c r="O901" s="19"/>
-      <c r="P901" s="19"/>
-      <c r="Q901" s="19"/>
-      <c r="R901" s="19"/>
-      <c r="S901" s="19"/>
-      <c r="T901" s="3"/>
-    </row>
-    <row r="902" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A902" s="3"/>
-      <c r="B902" s="3"/>
-      <c r="C902" s="3"/>
-      <c r="D902" s="3"/>
-      <c r="E902" s="3"/>
-      <c r="F902" s="3"/>
-      <c r="G902" s="3"/>
-      <c r="H902" s="3"/>
-      <c r="I902" s="3"/>
-      <c r="J902" s="3"/>
-      <c r="K902" s="3"/>
-      <c r="L902" s="3"/>
-      <c r="M902" s="3"/>
-      <c r="N902" s="19"/>
-      <c r="O902" s="19"/>
-      <c r="P902" s="19"/>
-      <c r="Q902" s="19"/>
-      <c r="R902" s="19"/>
-      <c r="S902" s="19"/>
-      <c r="T902" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:T902" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T870" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="5">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A31 A44:A1048576" xr:uid="{0BA62E2C-90D0-4A85-8B8A-6B7F0EEA38EF}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A11 A12:A1048576" xr:uid="{0BA62E2C-90D0-4A85-8B8A-6B7F0EEA38EF}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{085A4153-CBD3-481A-82F1-5DB1D088151E}">
@@ -21175,7 +20186,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:S1048576" xr:uid="{3FC5D9F0-5CEE-497A-B243-2B46CC4ED6C4}">
       <formula1>"true, false"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576 K2:K1048576" xr:uid="{891E083F-A9D0-4FEA-B55D-C5F13BD00376}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576 M2:M1048576" xr:uid="{891E083F-A9D0-4FEA-B55D-C5F13BD00376}">
       <formula1>"second, minute, hour, day, week, month, year"</formula1>
     </dataValidation>
   </dataValidations>
@@ -21193,25 +20204,25 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="51.6328125" customWidth="1"/>
-    <col min="3" max="3" width="41.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="41.90625" customWidth="1"/>
-    <col min="6" max="6" width="49.54296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.90625" style="11" customWidth="1"/>
-    <col min="8" max="11" width="41.90625" customWidth="1"/>
-    <col min="12" max="12" width="19.26953125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6328125" style="21"/>
-    <col min="14" max="14" width="10.90625" style="21" customWidth="1"/>
-    <col min="15" max="17" width="19.26953125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" customWidth="1"/>
+    <col min="3" max="3" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="41.88671875" customWidth="1"/>
+    <col min="6" max="6" width="49.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.88671875" style="11" customWidth="1"/>
+    <col min="8" max="11" width="41.88671875" customWidth="1"/>
+    <col min="12" max="12" width="19.21875" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="21"/>
+    <col min="14" max="14" width="10.88671875" style="21" customWidth="1"/>
+    <col min="15" max="17" width="19.21875" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -21332,7 +20343,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1001</v>
       </c>
@@ -21385,7 +20396,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1002</v>
       </c>
@@ -21438,7 +20449,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1004</v>
       </c>
@@ -21491,7 +20502,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1005</v>
       </c>
@@ -40370,18 +39381,18 @@
       <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.90625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" style="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -52476,12 +51487,12 @@
       <selection pane="bottomLeft" sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="12.6328125" customWidth="1"/>
+    <col min="1" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -53524,12 +52535,12 @@
       <selection pane="bottomLeft" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="12.6328125" customWidth="1"/>
+    <col min="1" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -54572,12 +53583,12 @@
       <selection pane="bottomLeft" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="12.6328125" customWidth="1"/>
+    <col min="1" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>

--- a/taks.xlsx
+++ b/taks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\CodeProjects\TAKAutomator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EB79B6-9B04-41B1-A830-761738B9C572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F93F09-478B-4B49-A517-C43D195EFACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_concepts" sheetId="1" r:id="rId1"/>
@@ -494,6 +494,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -21824,9 +21825,9 @@
   </sheetPr>
   <dimension ref="A1:AF995"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -41033,7 +41034,7 @@
   </sheetPr>
   <dimension ref="A1:X1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>

--- a/taks.xlsx
+++ b/taks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\CodeProjects\TAKAutomator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F93F09-478B-4B49-A517-C43D195EFACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF582E7F-4D29-4B6C-9772-777E56697BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_concepts" sheetId="1" r:id="rId1"/>
@@ -23,19 +23,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">raw_concepts!$A$1:$T$874</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="m83MNRr2xD5s28t3NAVNceEtqFMD8kPYDDFbaPOQWh4="/>
     </ext>
@@ -44,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="130">
   <si>
     <t>TYPE</t>
   </si>
@@ -83,9 +72,6 @@
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>DIABETES_DIAGNOSYS_STATE</t>
   </si>
   <si>
     <t>LAB_GLUCOSE_LEVEL_STATE</t>
@@ -245,9 +231,6 @@
   </si>
   <si>
     <t>TYPES</t>
-  </si>
-  <si>
-    <t>NAME</t>
   </si>
   <si>
     <t>INDUCER_ID</t>
@@ -889,61 +872,61 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="14" t="s">
-        <v>57</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -954,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>LEFT(C2, FIND("-", C2)-1)</f>
@@ -965,37 +948,37 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2" s="3">
         <v>0</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L2" s="3">
         <v>0</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>61</v>
-      </c>
       <c r="S2" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T2" s="4"/>
     </row>
@@ -1007,7 +990,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" ref="D3:D16" si="0">LEFT(C3, FIND("-", C3)-1)</f>
@@ -1020,7 +1003,7 @@
         <v>800</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>4</v>
@@ -1030,31 +1013,31 @@
         <v>0</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L3" s="3">
         <v>6</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T3" s="4"/>
     </row>
@@ -1066,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1079,7 +1062,7 @@
         <v>600</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>4</v>
@@ -1089,31 +1072,31 @@
         <v>0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L4" s="2">
         <v>4</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T4" s="4"/>
     </row>
@@ -1125,7 +1108,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1136,37 +1119,37 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J5" s="3">
         <v>0</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L5" s="3">
         <v>50</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R5" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>61</v>
-      </c>
       <c r="S5" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T5" s="4"/>
     </row>
@@ -1178,7 +1161,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1191,41 +1174,41 @@
         <v>1000</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3">
         <v>0</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R6" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T6" s="4"/>
     </row>
@@ -1237,7 +1220,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1248,37 +1231,37 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J7" s="3">
         <v>0</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T7" s="4"/>
     </row>
@@ -1290,7 +1273,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1303,41 +1286,41 @@
         <v>1000</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3">
         <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P8" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R8" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T8" s="4"/>
     </row>
@@ -1349,7 +1332,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1360,37 +1343,37 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R9" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T9" s="4"/>
     </row>
@@ -1402,7 +1385,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="str">
         <f t="shared" ref="D10" si="1">LEFT(C10, FIND("-", C10)-1)</f>
@@ -1413,37 +1396,37 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O10" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="P10" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q10" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="R10" s="13" t="s">
-        <v>61</v>
-      </c>
       <c r="S10" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T10" s="4"/>
     </row>
@@ -1452,10 +1435,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="str">
         <f>LEFT(C11, FIND("-", C11)-1)</f>
@@ -1466,37 +1449,37 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J11" s="3">
         <v>0</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L11" s="3">
         <v>0</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R11" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O11" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="P11" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q11" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="R11" s="13" t="s">
-        <v>61</v>
-      </c>
       <c r="S11" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T11" s="4"/>
     </row>
@@ -1508,7 +1491,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1519,37 +1502,37 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R12" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O12" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="P12" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q12" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="R12" s="13" t="s">
-        <v>61</v>
-      </c>
       <c r="S12" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T12" s="4"/>
     </row>
@@ -1558,10 +1541,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>LEFT(C13, FIND("-", C13)-1)</f>
@@ -1572,37 +1555,37 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J13" s="3">
         <v>0</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L13" s="3">
         <v>0</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R13" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O13" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="P13" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q13" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="R13" s="13" t="s">
-        <v>61</v>
-      </c>
       <c r="S13" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T13" s="4"/>
     </row>
@@ -1611,10 +1594,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="str">
         <f>LEFT(C14, FIND("-", C14)-1)</f>
@@ -1625,37 +1608,37 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R14" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O14" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="P14" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q14" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="R14" s="13" t="s">
-        <v>61</v>
-      </c>
       <c r="S14" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T14" s="4"/>
     </row>
@@ -1664,10 +1647,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="str">
         <f>LEFT(C15, FIND("-", C15)-1)</f>
@@ -1678,37 +1661,37 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N15" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R15" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O15" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="P15" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q15" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="R15" s="13" t="s">
-        <v>61</v>
-      </c>
       <c r="S15" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T15" s="4"/>
     </row>
@@ -1717,10 +1700,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1733,41 +1716,41 @@
         <v>1000</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="22">
         <v>0</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L16" s="22">
         <v>0</v>
       </c>
       <c r="M16" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N16" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q16" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R16" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S16" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T16" s="4"/>
     </row>
@@ -1776,10 +1759,10 @@
         <v>21</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="2" t="str">
         <f t="shared" ref="D17:D47" si="2">LEFT(C17, FIND("-", C17)-1)</f>
@@ -1792,41 +1775,41 @@
         <v>1000</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="22">
         <v>0</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L17" s="22">
         <v>0</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N17" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O17" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P17" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R17" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S17" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T17" s="4"/>
     </row>
@@ -1835,10 +1818,10 @@
         <v>22</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2" t="str">
         <f t="shared" si="2"/>
@@ -1851,41 +1834,41 @@
         <v>1000</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="22">
         <v>0</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L18" s="22">
         <v>0</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N18" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O18" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P18" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q18" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R18" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S18" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T18" s="4"/>
     </row>
@@ -1894,10 +1877,10 @@
         <v>23</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="2" t="str">
         <f t="shared" si="2"/>
@@ -1910,41 +1893,41 @@
         <v>1000</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="22">
         <v>0</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L19" s="22">
         <v>0</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N19" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q19" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R19" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S19" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T19" s="4"/>
     </row>
@@ -1953,10 +1936,10 @@
         <v>24</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" s="2" t="str">
         <f t="shared" si="2"/>
@@ -1969,41 +1952,41 @@
         <v>1000</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="22">
         <v>0</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L20" s="22">
         <v>0</v>
       </c>
       <c r="M20" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N20" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q20" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R20" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S20" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T20" s="4"/>
     </row>
@@ -2012,10 +1995,10 @@
         <v>25</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2028,41 +2011,41 @@
         <v>1000</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="22">
         <v>0</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L21" s="22">
         <v>0</v>
       </c>
       <c r="M21" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O21" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R21" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S21" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T21" s="4"/>
     </row>
@@ -2071,10 +2054,10 @@
         <v>26</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2087,41 +2070,41 @@
         <v>1000</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="22">
         <v>0</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L22" s="22">
         <v>0</v>
       </c>
       <c r="M22" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N22" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q22" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R22" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S22" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T22" s="4"/>
     </row>
@@ -2130,10 +2113,10 @@
         <v>27</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2146,41 +2129,41 @@
         <v>1000</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="22">
         <v>0</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L23" s="22">
         <v>0</v>
       </c>
       <c r="M23" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N23" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O23" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q23" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R23" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S23" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T23" s="4"/>
     </row>
@@ -2189,10 +2172,10 @@
         <v>28</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2205,41 +2188,41 @@
         <v>1000</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="22">
         <v>0</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L24" s="22">
         <v>0</v>
       </c>
       <c r="M24" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N24" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O24" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q24" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R24" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S24" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T24" s="4"/>
     </row>
@@ -2248,10 +2231,10 @@
         <v>29</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2264,41 +2247,41 @@
         <v>1000</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="22">
         <v>0</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L25" s="22">
         <v>0</v>
       </c>
       <c r="M25" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O25" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q25" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R25" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S25" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T25" s="4"/>
     </row>
@@ -2307,10 +2290,10 @@
         <v>30</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2323,41 +2306,41 @@
         <v>1000</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="22">
         <v>0</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L26" s="22">
         <v>0</v>
       </c>
       <c r="M26" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O26" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P26" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q26" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R26" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S26" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T26" s="4"/>
     </row>
@@ -2366,10 +2349,10 @@
         <v>31</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2382,41 +2365,41 @@
         <v>1000</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="22">
         <v>0</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L27" s="22">
         <v>0</v>
       </c>
       <c r="M27" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O27" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R27" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S27" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T27" s="4"/>
     </row>
@@ -2425,10 +2408,10 @@
         <v>32</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2441,41 +2424,41 @@
         <v>1000</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="22">
         <v>0</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L28" s="22">
         <v>0</v>
       </c>
       <c r="M28" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N28" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O28" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P28" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q28" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R28" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S28" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T28" s="4"/>
     </row>
@@ -2484,10 +2467,10 @@
         <v>33</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2500,41 +2483,41 @@
         <v>1000</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="22">
         <v>0</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L29" s="22">
         <v>0</v>
       </c>
       <c r="M29" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S29" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T29" s="4"/>
     </row>
@@ -2543,10 +2526,10 @@
         <v>34</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2559,41 +2542,41 @@
         <v>1000</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="22">
         <v>0</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L30" s="22">
         <v>0</v>
       </c>
       <c r="M30" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O30" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q30" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S30" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T30" s="4"/>
     </row>
@@ -2602,10 +2585,10 @@
         <v>35</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2618,41 +2601,41 @@
         <v>1000</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="22">
         <v>0</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L31" s="22">
         <v>0</v>
       </c>
       <c r="M31" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O31" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P31" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q31" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R31" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S31" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T31" s="4"/>
     </row>
@@ -2661,10 +2644,10 @@
         <v>36</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2677,41 +2660,41 @@
         <v>1000</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="22">
         <v>0</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L32" s="22">
         <v>0</v>
       </c>
       <c r="M32" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q32" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R32" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S32" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T32" s="4"/>
     </row>
@@ -2720,10 +2703,10 @@
         <v>37</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2736,41 +2719,41 @@
         <v>1000</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="22">
         <v>0</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L33" s="22">
         <v>0</v>
       </c>
       <c r="M33" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N33" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O33" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R33" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S33" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T33" s="4"/>
     </row>
@@ -2779,10 +2762,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2795,41 +2778,41 @@
         <v>1000</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="22">
         <v>0</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L34" s="22">
         <v>0</v>
       </c>
       <c r="M34" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N34" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O34" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P34" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q34" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R34" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S34" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T34" s="4"/>
     </row>
@@ -2838,10 +2821,10 @@
         <v>39</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2854,41 +2837,41 @@
         <v>1000</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="22">
         <v>0</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L35" s="22">
         <v>0</v>
       </c>
       <c r="M35" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N35" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O35" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P35" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q35" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R35" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S35" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T35" s="4"/>
     </row>
@@ -2897,10 +2880,10 @@
         <v>40</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2913,41 +2896,41 @@
         <v>1000</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="22">
         <v>0</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L36" s="22">
         <v>0</v>
       </c>
       <c r="M36" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T36" s="4"/>
     </row>
@@ -2956,10 +2939,10 @@
         <v>41</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D37" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2972,41 +2955,41 @@
         <v>1000</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="22">
         <v>0</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L37" s="22">
         <v>0</v>
       </c>
       <c r="M37" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N37" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O37" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P37" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q37" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R37" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S37" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T37" s="4"/>
     </row>
@@ -3015,10 +2998,10 @@
         <v>42</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3031,41 +3014,41 @@
         <v>1000</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="22">
         <v>0</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L38" s="22">
         <v>0</v>
       </c>
       <c r="M38" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O38" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P38" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q38" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R38" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S38" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T38" s="4"/>
     </row>
@@ -3074,10 +3057,10 @@
         <v>43</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D39" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3090,41 +3073,41 @@
         <v>1000</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="22">
         <v>0</v>
       </c>
       <c r="K39" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L39" s="22">
         <v>0</v>
       </c>
       <c r="M39" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N39" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O39" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P39" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R39" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S39" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T39" s="4"/>
     </row>
@@ -3133,10 +3116,10 @@
         <v>44</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D40" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3149,41 +3132,41 @@
         <v>1000</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="22">
         <v>0</v>
       </c>
       <c r="K40" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L40" s="22">
         <v>0</v>
       </c>
       <c r="M40" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N40" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O40" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P40" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q40" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R40" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S40" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T40" s="4"/>
     </row>
@@ -3192,10 +3175,10 @@
         <v>45</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D41" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3208,41 +3191,41 @@
         <v>1000</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="22">
         <v>0</v>
       </c>
       <c r="K41" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L41" s="22">
         <v>0</v>
       </c>
       <c r="M41" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N41" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O41" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P41" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q41" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R41" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S41" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T41" s="4"/>
     </row>
@@ -3251,10 +3234,10 @@
         <v>46</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D42" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3267,41 +3250,41 @@
         <v>1000</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="22">
         <v>0</v>
       </c>
       <c r="K42" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L42" s="22">
         <v>0</v>
       </c>
       <c r="M42" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N42" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O42" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P42" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q42" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R42" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S42" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T42" s="4"/>
     </row>
@@ -3310,10 +3293,10 @@
         <v>47</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3326,41 +3309,41 @@
         <v>1000</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="22">
         <v>0</v>
       </c>
       <c r="K43" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L43" s="22">
         <v>0</v>
       </c>
       <c r="M43" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N43" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O43" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P43" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q43" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R43" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S43" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T43" s="4"/>
     </row>
@@ -3369,10 +3352,10 @@
         <v>48</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3385,41 +3368,41 @@
         <v>1000</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="22">
         <v>0</v>
       </c>
       <c r="K44" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L44" s="22">
         <v>0</v>
       </c>
       <c r="M44" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N44" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O44" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P44" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q44" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R44" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S44" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T44" s="4"/>
     </row>
@@ -3428,10 +3411,10 @@
         <v>49</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D45" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3444,41 +3427,41 @@
         <v>1000</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="22">
         <v>0</v>
       </c>
       <c r="K45" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L45" s="22">
         <v>0</v>
       </c>
       <c r="M45" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N45" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O45" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P45" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q45" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R45" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S45" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T45" s="4"/>
     </row>
@@ -3487,10 +3470,10 @@
         <v>50</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D46" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3503,41 +3486,41 @@
         <v>1000</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="22">
         <v>0</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L46" s="22">
         <v>0</v>
       </c>
       <c r="M46" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N46" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O46" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P46" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q46" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R46" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S46" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T46" s="4"/>
     </row>
@@ -3546,10 +3529,10 @@
         <v>51</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D47" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3562,41 +3545,41 @@
         <v>1000</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3">
         <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L47" s="3">
         <v>14</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N47" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O47" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P47" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q47" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R47" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S47" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T47" s="4"/>
     </row>
@@ -21823,11 +21806,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AF995"/>
+  <dimension ref="A1:AF994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21850,55 +21833,55 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="F1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="L1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="14" t="s">
-        <v>57</v>
-      </c>
       <c r="R1" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S1" s="9"/>
       <c r="T1" s="9"/>
@@ -21915,321 +21898,289 @@
       <c r="AE1" s="9"/>
       <c r="AF1" s="9"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="G2" s="5" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H2" s="3">
         <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J2" s="3">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="13" t="s">
-        <v>60</v>
-      </c>
       <c r="M2" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J3" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1002</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1004</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J4" s="3">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>30</v>
+      <c r="G5" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J5" s="3">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>1005</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
+      <c r="A6" s="3">
+        <v>1051</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="C6" s="3">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>30</v>
+        <v>119</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J6" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>58</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>1051</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="3">
-        <v>51</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="O7" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="P7" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q7" s="13" t="s">
-        <v>60</v>
-      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -26179,9 +26130,9 @@
       <c r="L215" s="15"/>
       <c r="M215" s="15"/>
       <c r="N215" s="15"/>
-      <c r="O215" s="16"/>
-      <c r="P215" s="16"/>
-      <c r="Q215" s="16"/>
+      <c r="O215" s="15"/>
+      <c r="P215" s="15"/>
+      <c r="Q215" s="15"/>
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
@@ -40984,25 +40935,6 @@
       <c r="P994" s="15"/>
       <c r="Q994" s="15"/>
     </row>
-    <row r="995" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A995" s="3"/>
-      <c r="B995" s="3"/>
-      <c r="C995" s="3"/>
-      <c r="D995" s="3"/>
-      <c r="E995" s="3"/>
-      <c r="F995" s="5"/>
-      <c r="G995" s="5"/>
-      <c r="H995" s="3"/>
-      <c r="I995" s="3"/>
-      <c r="J995" s="3"/>
-      <c r="K995" s="3"/>
-      <c r="L995" s="15"/>
-      <c r="M995" s="15"/>
-      <c r="N995" s="15"/>
-      <c r="O995" s="15"/>
-      <c r="P995" s="15"/>
-      <c r="Q995" s="15"/>
-    </row>
   </sheetData>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:Q1048576" xr:uid="{EF3D4FAA-96BE-43A0-81DD-49BCE1F13631}">
@@ -41011,7 +40943,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{25F64F70-E844-451E-A092-027E82FEE113}">
       <formula1>"min, max"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576 I2:I1048576" xr:uid="{05752E7E-6681-422B-A153-73C89C26B8FC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576 K2:K1048576" xr:uid="{05752E7E-6681-422B-A153-73C89C26B8FC}">
       <formula1>"second, minute, hour, day, week, month, year"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{B0B8DD5B-800F-4696-AA1D-3B2D767EBEBC}">
@@ -41059,34 +40991,34 @@
         <v>12</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>29</v>
-      </c>
       <c r="D1" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="14" t="s">
-        <v>57</v>
-      </c>
       <c r="K1" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L1" s="12"/>
       <c r="M1" s="9"/>
@@ -41107,31 +41039,31 @@
         <v>1104</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K2" s="3"/>
     </row>
@@ -41140,31 +41072,31 @@
         <v>1105</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="D3" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K3" s="3"/>
     </row>
@@ -41179,25 +41111,25 @@
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>61</v>
-      </c>
       <c r="J4" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K4" s="3"/>
     </row>
@@ -41206,31 +41138,31 @@
         <v>1112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C5" s="3">
         <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E5" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>61</v>
-      </c>
       <c r="J5" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K5" s="3"/>
     </row>
@@ -41245,25 +41177,25 @@
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E6" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>61</v>
-      </c>
       <c r="J6" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K6" s="3"/>
     </row>
@@ -41278,25 +41210,25 @@
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E7" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>61</v>
-      </c>
       <c r="J7" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K7" s="3"/>
     </row>
@@ -41305,31 +41237,31 @@
         <v>1109</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C8" s="3">
         <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>61</v>
-      </c>
       <c r="J8" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -41338,31 +41270,31 @@
         <v>1113</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C9" s="3">
         <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E9" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>61</v>
-      </c>
       <c r="J9" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -41371,31 +41303,31 @@
         <v>1114</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C10" s="3">
         <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E10" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>61</v>
-      </c>
       <c r="J10" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -54316,9 +54248,9 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -54353,70 +54285,70 @@
         <v>12</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="K1" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>84</v>
-      </c>
       <c r="Q1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="V1" s="14" t="s">
-        <v>57</v>
-      </c>
       <c r="W1" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
@@ -54432,19 +54364,19 @@
         <v>3</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
@@ -54455,22 +54387,22 @@
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
       <c r="Q2" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/taks.xlsx
+++ b/taks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\CodeProjects\TAKAutomator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B7D15F-ADB7-4876-9A54-852AA5A750B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DCAD9B-79DA-48AD-B6B9-5C48A3625879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_concepts" sheetId="1" r:id="rId1"/>
@@ -800,9 +800,6 @@
     <t>TROPONIN_BLOOD_MEASURE</t>
   </si>
   <si>
-    <t>['Low', 'Normal', 'Moderate', 'High', 'Extreme']</t>
-  </si>
-  <si>
     <t>[[0, 40], [40, 200], [200, 1000], [1000, 5000], [5000, 1000000]]</t>
   </si>
   <si>
@@ -810,12 +807,6 @@
   </si>
   <si>
     <t>[[0, 0.01], [0.01, 0.04], [0.04, 1.0], [1.0, 100]]</t>
-  </si>
-  <si>
-    <t>['Low', 'Desirable', 'Borderline', 'High']</t>
-  </si>
-  <si>
-    <t>['Normal', 'Borderline', 'Mild', 'Marked']</t>
   </si>
   <si>
     <t>BYPASS</t>
@@ -831,6 +822,15 @@
   </si>
   <si>
     <t>Should I maybe cut the input in advance based on route type?</t>
+  </si>
+  <si>
+    <t>["Low", "Normal", "Moderate", "High", "Extreme"]</t>
+  </si>
+  <si>
+    <t>["Low", "Desirable", "Borderline", "High"]</t>
+  </si>
+  <si>
+    <t>["Normal", "Borderline", "Mild", "Marked"]</t>
   </si>
 </sst>
 </file>
@@ -974,7 +974,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1102,17 +1102,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1529,7 +1518,7 @@
         <v>57</v>
       </c>
       <c r="T3" s="45" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1643,7 +1632,7 @@
         <v>57</v>
       </c>
       <c r="T5" s="45" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1699,58 +1688,58 @@
       </c>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:20" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49">
+    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>71</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="50" t="str">
+      <c r="D7" s="2" t="str">
         <f t="shared" si="2"/>
         <v>nominal</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="49" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="49">
+      <c r="J7" s="3">
         <v>0</v>
       </c>
-      <c r="K7" s="49" t="s">
+      <c r="K7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="49">
+      <c r="L7" s="3">
         <v>12</v>
       </c>
-      <c r="M7" s="49" t="s">
+      <c r="M7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="N7" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="O7" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="P7" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q7" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="R7" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="S7" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="T7" s="52"/>
+      <c r="N7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="T7" s="48"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -2229,111 +2218,111 @@
       </c>
       <c r="T16" s="4"/>
     </row>
-    <row r="17" spans="1:20" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49">
+    <row r="17" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>81</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="50" t="str">
+      <c r="D17" s="2" t="str">
         <f t="shared" ref="D17" si="4">LEFT(C17, FIND("-", C17)-1)</f>
         <v>nominal</v>
       </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="49" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="49">
+      <c r="J17" s="3">
         <v>0</v>
       </c>
-      <c r="K17" s="49" t="s">
+      <c r="K17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="49">
+      <c r="L17" s="3">
         <v>12</v>
       </c>
-      <c r="M17" s="49" t="s">
+      <c r="M17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="N17" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="O17" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="P17" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q17" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="R17" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="S17" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="T17" s="52"/>
-    </row>
-    <row r="18" spans="1:20" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49">
+      <c r="N17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="T17" s="48"/>
+    </row>
+    <row r="18" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>82</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="50" t="str">
+      <c r="D18" s="2" t="str">
         <f t="shared" si="3"/>
         <v>nominal</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="49" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="49">
+      <c r="J18" s="3">
         <v>0</v>
       </c>
-      <c r="K18" s="49" t="s">
+      <c r="K18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L18" s="49">
+      <c r="L18" s="3">
         <v>12</v>
       </c>
-      <c r="M18" s="49" t="s">
+      <c r="M18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="N18" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="O18" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="P18" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q18" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="R18" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="S18" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="T18" s="52"/>
+      <c r="N18" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="T18" s="48"/>
     </row>
     <row r="19" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -3718,7 +3707,7 @@
         <v>28</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C45" s="37" t="s">
         <v>38</v>
@@ -24263,9 +24252,9 @@
   </sheetPr>
   <dimension ref="A1:AF994"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -24479,10 +24468,10 @@
         <v>25</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -24533,10 +24522,10 @@
         <v>25</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -26405,7 +26394,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <f t="shared" si="1"/>
         <v>1064</v>
@@ -26423,10 +26412,10 @@
         <v>25</v>
       </c>
       <c r="F40" s="48" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
@@ -26477,10 +26466,10 @@
         <v>25</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -26531,10 +26520,10 @@
         <v>25</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -26585,10 +26574,10 @@
         <v>25</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -58731,7 +58720,7 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
@@ -59025,7 +59014,7 @@
         <v>1228</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C6" s="23">
         <v>28</v>

--- a/taks.xlsx
+++ b/taks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\CodeProjects\TAKAutomator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DCAD9B-79DA-48AD-B6B9-5C48A3625879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7119EB61-9C3F-4002-A5D5-41EAB065579B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_concepts" sheetId="1" r:id="rId1"/>
@@ -24252,7 +24252,7 @@
   </sheetPr>
   <dimension ref="A1:AF994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
     </sheetView>
@@ -58720,9 +58720,9 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/taks.xlsx
+++ b/taks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\CodeProjects\TAKAutomator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7119EB61-9C3F-4002-A5D5-41EAB065579B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD375DA8-B1BA-429E-BC20-7980D5EA2600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_concepts" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">raw_concepts!$A$1:$T$908</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="m83MNRr2xD5s28t3NAVNceEtqFMD8kPYDDFbaPOQWh4="/>
     </ext>
@@ -33,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="297">
   <si>
     <t>TYPE</t>
   </si>
@@ -832,6 +843,99 @@
   <si>
     <t>["Normal", "Borderline", "Mild", "Marked"]</t>
   </si>
+  <si>
+    <t>ASPIRIN_BITZUA_EVENT</t>
+  </si>
+  <si>
+    <t>NITROGLYCERIN_BITZUA_EVENT</t>
+  </si>
+  <si>
+    <t>CLOPIDOGREL_BITZUA_EVENT</t>
+  </si>
+  <si>
+    <t>HEPARIN_BITZUA_EVENT</t>
+  </si>
+  <si>
+    <t>SODIUM_BITZUA_EVENT</t>
+  </si>
+  <si>
+    <t>ADMISSION_EVENT</t>
+  </si>
+  <si>
+    <t>RELEASE_EVENT</t>
+  </si>
+  <si>
+    <t>MEAL_EVENT</t>
+  </si>
+  <si>
+    <t>DEATH_EVENT</t>
+  </si>
+  <si>
+    <t>KETOACIDOSIS_EVENT</t>
+  </si>
+  <si>
+    <t>KIDNEY_DISORDER_EVENT</t>
+  </si>
+  <si>
+    <t>COMA_EVENT</t>
+  </si>
+  <si>
+    <t>EYE_DISORDER_EVENT</t>
+  </si>
+  <si>
+    <t>NERVOUS_SYSTEM_DISORDER_EVENT</t>
+  </si>
+  <si>
+    <t>VASCULAR_DISORDER_EVENT</t>
+  </si>
+  <si>
+    <t>OTHER_COMPLICATION_EVENT</t>
+  </si>
+  <si>
+    <t>DEMENTIA_EVENT</t>
+  </si>
+  <si>
+    <t>CARDIOVASCULAR_DISORDER_EVENT</t>
+  </si>
+  <si>
+    <t>ULCER_EVENT</t>
+  </si>
+  <si>
+    <t>INFECTIONS_EVENT</t>
+  </si>
+  <si>
+    <t>MUSCULOSKELETAL_COMPLICATION_EVENT</t>
+  </si>
+  <si>
+    <t>NEUROVASCULAR_COMPLICATION_EVENT</t>
+  </si>
+  <si>
+    <t>DIABETES_DIAGNOSIS_CONTEXT</t>
+  </si>
+  <si>
+    <t>UNEXPECTED_FALLS_CONTEXT</t>
+  </si>
+  <si>
+    <t>ALCOHOL_ABUSE_CONTEXT</t>
+  </si>
+  <si>
+    <t>CANCER_DIAGNOSIS_CONTEXT</t>
+  </si>
+  <si>
+    <t>BYPASS_CONTEXT</t>
+  </si>
+  <si>
+    <t>CREATINE-KINASE_MEASURE_STATE</t>
+  </si>
+  <si>
+    <t>CHOLESTEROL_MEASURE_STATE</t>
+  </si>
+  <si>
+    <t>TROPONIN_SERUM_MEASURE_STATE</t>
+  </si>
+  <si>
+    <t>TROPONIN_BLOOD_MEASURE_STATE</t>
+  </si>
 </sst>
 </file>
 
@@ -1323,8 +1427,8 @@
   <dimension ref="A1:T908"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24252,9 +24356,9 @@
   </sheetPr>
   <dimension ref="A1:AF994"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -26400,7 +26504,7 @@
         <v>1064</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>251</v>
+        <v>293</v>
       </c>
       <c r="C40" s="3">
         <v>64</v>
@@ -26454,7 +26558,7 @@
         <v>1065</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>252</v>
+        <v>294</v>
       </c>
       <c r="C41" s="3">
         <v>65</v>
@@ -26508,7 +26612,7 @@
         <v>1066</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>253</v>
+        <v>295</v>
       </c>
       <c r="C42" s="3">
         <v>66</v>
@@ -26562,7 +26666,7 @@
         <v>1067</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="C43" s="3">
         <v>67</v>
@@ -44711,8 +44815,8 @@
   <dimension ref="A1:X1017"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -45190,7 +45294,7 @@
         <v>1183</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="C14" s="3">
         <v>83</v>
@@ -45224,7 +45328,7 @@
         <v>1184</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="C15" s="3">
         <v>84</v>
@@ -45258,7 +45362,7 @@
         <v>1185</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="C16" s="3">
         <v>85</v>
@@ -45292,7 +45396,7 @@
         <v>1186</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="C17" s="3">
         <v>86</v>
@@ -45326,7 +45430,7 @@
         <v>1187</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="C18" s="3">
         <v>87</v>
@@ -45360,7 +45464,7 @@
         <v>1111</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1</v>
+        <v>271</v>
       </c>
       <c r="C19" s="3">
         <v>11</v>
@@ -45394,7 +45498,7 @@
         <v>1112</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>113</v>
+        <v>272</v>
       </c>
       <c r="C20" s="3">
         <v>12</v>
@@ -45428,7 +45532,7 @@
         <v>1110</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
       <c r="C21" s="3">
         <v>10</v>
@@ -45462,7 +45566,7 @@
         <v>1108</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>2</v>
+        <v>274</v>
       </c>
       <c r="C22" s="3">
         <v>8</v>
@@ -45496,7 +45600,7 @@
         <v>1109</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>111</v>
+        <v>275</v>
       </c>
       <c r="C23" s="3">
         <v>9</v>
@@ -45530,7 +45634,7 @@
         <v>1113</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>114</v>
+        <v>276</v>
       </c>
       <c r="C24" s="3">
         <v>13</v>
@@ -45564,7 +45668,7 @@
         <v>1114</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>112</v>
+        <v>277</v>
       </c>
       <c r="C25" s="3">
         <v>14</v>
@@ -45598,7 +45702,7 @@
         <v>1115</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>120</v>
+        <v>278</v>
       </c>
       <c r="C26" s="3">
         <v>15</v>
@@ -45632,7 +45736,7 @@
         <v>1116</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>121</v>
+        <v>279</v>
       </c>
       <c r="C27" s="3">
         <v>16</v>
@@ -45666,7 +45770,7 @@
         <v>1117</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>122</v>
+        <v>280</v>
       </c>
       <c r="C28" s="3">
         <v>17</v>
@@ -45700,7 +45804,7 @@
         <v>1118</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>123</v>
+        <v>281</v>
       </c>
       <c r="C29" s="3">
         <v>18</v>
@@ -45734,7 +45838,7 @@
         <v>1119</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>124</v>
+        <v>282</v>
       </c>
       <c r="C30" s="3">
         <v>19</v>
@@ -45768,7 +45872,7 @@
         <v>1120</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>125</v>
+        <v>283</v>
       </c>
       <c r="C31" s="3">
         <v>20</v>
@@ -45802,7 +45906,7 @@
         <v>1121</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>126</v>
+        <v>284</v>
       </c>
       <c r="C32" s="3">
         <v>21</v>
@@ -45836,7 +45940,7 @@
         <v>1122</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>127</v>
+        <v>285</v>
       </c>
       <c r="C33" s="3">
         <v>22</v>
@@ -45870,7 +45974,7 @@
         <v>1123</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>128</v>
+        <v>286</v>
       </c>
       <c r="C34" s="3">
         <v>23</v>
@@ -45904,7 +46008,7 @@
         <v>1124</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>129</v>
+        <v>287</v>
       </c>
       <c r="C35" s="3">
         <v>24</v>
@@ -58720,9 +58824,9 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -58830,7 +58934,7 @@
         <v>1203</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>288</v>
       </c>
       <c r="C2" s="19">
         <v>3</v>
@@ -58882,7 +58986,7 @@
         <v>1225</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>130</v>
+        <v>289</v>
       </c>
       <c r="C3" s="3">
         <v>25</v>
@@ -58926,7 +59030,7 @@
         <v>1226</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>131</v>
+        <v>290</v>
       </c>
       <c r="C4" s="23">
         <v>26</v>
@@ -58970,7 +59074,7 @@
         <v>1227</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>132</v>
+        <v>291</v>
       </c>
       <c r="C5" s="23">
         <v>27</v>
@@ -59014,7 +59118,7 @@
         <v>1228</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="C6" s="23">
         <v>28</v>

--- a/taks.xlsx
+++ b/taks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\CodeProjects\TAKAutomator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD52B071-5130-41AB-AD75-3149D5DB7B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E4FDF1-F2E4-4014-9372-DBE4567B3000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_concepts" sheetId="1" r:id="rId1"/>
@@ -1458,7 +1458,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24386,9 +24386,9 @@
   </sheetPr>
   <dimension ref="A1:AF994"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -44844,15 +44844,15 @@
   </sheetPr>
   <dimension ref="A1:X1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.88671875" style="16" bestFit="1" customWidth="1"/>

--- a/taks.xlsx
+++ b/taks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\CodeProjects\TAKAutomator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E4FDF1-F2E4-4014-9372-DBE4567B3000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C36AB59-D9CE-4E03-BC63-93CF2C7DF5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_concepts" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="310">
   <si>
     <t>TYPE</t>
   </si>
@@ -966,6 +966,15 @@
   <si>
     <t>MENTAL_HEALTH_MEDS_BITZUA_EVENT</t>
   </si>
+  <si>
+    <t>STEROIDS_DOSAGE_STATE</t>
+  </si>
+  <si>
+    <t>ANTIDIABETIC_DRUGS_IV_DOSAGE_STATE</t>
+  </si>
+  <si>
+    <t>ANTIDIABETIC_DRUGS_PO_DOSAGE_STATE</t>
+  </si>
 </sst>
 </file>
 
@@ -1023,7 +1032,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1033,12 +1042,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,7 +1111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1211,6 +1214,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1218,23 +1224,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1456,9 +1446,9 @@
   </sheetPr>
   <dimension ref="A1:T908"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1600,58 +1590,58 @@
       </c>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41">
+    <row r="3" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36">
         <v>6</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="42" t="str">
+      <c r="D3" s="37" t="str">
         <f t="shared" si="0"/>
         <v>nominal</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="41" t="s">
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="36">
         <v>0</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="41">
+      <c r="L3" s="36">
         <v>24</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R3" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T3" s="45" t="s">
+      <c r="N3" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" s="40" t="s">
         <v>260</v>
       </c>
     </row>
@@ -1714,58 +1704,58 @@
       </c>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41">
+    <row r="5" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36">
         <v>7</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="42" t="str">
+      <c r="D5" s="37" t="str">
         <f t="shared" ref="D5" si="1">LEFT(C5, FIND("-", C5)-1)</f>
         <v>nominal</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41" t="s">
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="36">
         <v>0</v>
       </c>
-      <c r="K5" s="41" t="s">
+      <c r="K5" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="41">
+      <c r="L5" s="36">
         <v>8</v>
       </c>
-      <c r="M5" s="41" t="s">
+      <c r="M5" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N5" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P5" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R5" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S5" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T5" s="45" t="s">
+      <c r="N5" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S5" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T5" s="40" t="s">
         <v>260</v>
       </c>
     </row>
@@ -1873,7 +1863,7 @@
       <c r="S7" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="T7" s="48"/>
+      <c r="T7" s="43"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -2403,7 +2393,7 @@
       <c r="S17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="T17" s="48"/>
+      <c r="T17" s="43"/>
     </row>
     <row r="18" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -2456,7 +2446,7 @@
       <c r="S18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="T18" s="48"/>
+      <c r="T18" s="43"/>
     </row>
     <row r="19" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -2723,111 +2713,111 @@
       </c>
       <c r="T23" s="4"/>
     </row>
-    <row r="24" spans="1:20" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31">
+    <row r="24" spans="1:20" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25">
         <v>10</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="32" t="str">
+      <c r="D24" s="27" t="str">
         <f t="shared" si="0"/>
         <v>nominal</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31" t="s">
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J24" s="31">
+      <c r="J24" s="25">
         <v>0</v>
       </c>
-      <c r="K24" s="31" t="s">
+      <c r="K24" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="L24" s="31">
+      <c r="L24" s="25">
         <v>0</v>
       </c>
-      <c r="M24" s="31" t="s">
+      <c r="M24" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="N24" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="O24" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="P24" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q24" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="R24" s="33" t="s">
+      <c r="N24" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="O24" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="P24" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q24" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="R24" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="S24" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="T24" s="34"/>
-    </row>
-    <row r="25" spans="1:20" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31">
+      <c r="S24" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="T24" s="29"/>
+    </row>
+    <row r="25" spans="1:20" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25">
         <v>11</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="32" t="str">
+      <c r="D25" s="27" t="str">
         <f>LEFT(C25, FIND("-", C25)-1)</f>
         <v>nominal</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="31" t="s">
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="31">
+      <c r="J25" s="25">
         <v>0</v>
       </c>
-      <c r="K25" s="31" t="s">
+      <c r="K25" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="L25" s="31">
+      <c r="L25" s="25">
         <v>0</v>
       </c>
-      <c r="M25" s="31" t="s">
+      <c r="M25" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="N25" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="O25" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="P25" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q25" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="R25" s="33" t="s">
+      <c r="N25" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="O25" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="P25" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q25" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="R25" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="S25" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="T25" s="34"/>
+      <c r="S25" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="T25" s="29"/>
     </row>
     <row r="26" spans="1:20" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
@@ -3624,2627 +3614,2627 @@
       </c>
       <c r="T40" s="29"/>
     </row>
-    <row r="41" spans="1:20" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36">
+    <row r="41" spans="1:20" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="31">
         <v>3</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="37" t="str">
+      <c r="D41" s="32" t="str">
         <f t="shared" ref="D41" si="9">LEFT(C41, FIND("-", C41)-1)</f>
         <v>nominal</v>
       </c>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="36" t="s">
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="J41" s="36">
+      <c r="J41" s="31">
         <v>0</v>
       </c>
-      <c r="K41" s="36" t="s">
+      <c r="K41" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="L41" s="36">
+      <c r="L41" s="31">
         <v>1</v>
       </c>
-      <c r="M41" s="36" t="s">
+      <c r="M41" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="N41" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="O41" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="P41" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q41" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="R41" s="38" t="s">
+      <c r="N41" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="O41" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="P41" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q41" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R41" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="S41" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="T41" s="39"/>
-    </row>
-    <row r="42" spans="1:20" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="36">
+      <c r="S41" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="T41" s="34"/>
+    </row>
+    <row r="42" spans="1:20" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="31">
         <v>25</v>
       </c>
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="37" t="str">
+      <c r="D42" s="32" t="str">
         <f>LEFT(C42, FIND("-", C42)-1)</f>
         <v>nominal</v>
       </c>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="36" t="s">
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="J42" s="36">
+      <c r="J42" s="31">
         <v>0</v>
       </c>
-      <c r="K42" s="36" t="s">
+      <c r="K42" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="L42" s="36">
+      <c r="L42" s="31">
         <v>1</v>
       </c>
-      <c r="M42" s="36" t="s">
+      <c r="M42" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="N42" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="O42" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="P42" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q42" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="R42" s="38" t="s">
+      <c r="N42" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="O42" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="P42" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q42" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R42" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="S42" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="T42" s="39"/>
-    </row>
-    <row r="43" spans="1:20" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="36">
+      <c r="S42" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="T42" s="34"/>
+    </row>
+    <row r="43" spans="1:20" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="31">
         <v>26</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="37" t="str">
+      <c r="D43" s="32" t="str">
         <f>LEFT(C43, FIND("-", C43)-1)</f>
         <v>nominal</v>
       </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="36" t="s">
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="J43" s="36">
+      <c r="J43" s="31">
         <v>0</v>
       </c>
-      <c r="K43" s="36" t="s">
+      <c r="K43" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="L43" s="36">
+      <c r="L43" s="31">
         <v>1</v>
       </c>
-      <c r="M43" s="36" t="s">
+      <c r="M43" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="N43" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="O43" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="P43" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q43" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="R43" s="38" t="s">
+      <c r="N43" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="O43" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="P43" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q43" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R43" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="S43" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="T43" s="39"/>
-    </row>
-    <row r="44" spans="1:20" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="36">
+      <c r="S43" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="T43" s="34"/>
+    </row>
+    <row r="44" spans="1:20" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="31">
         <v>27</v>
       </c>
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="37" t="str">
+      <c r="D44" s="32" t="str">
         <f>LEFT(C44, FIND("-", C44)-1)</f>
         <v>nominal</v>
       </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="36" t="s">
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="J44" s="36">
+      <c r="J44" s="31">
         <v>0</v>
       </c>
-      <c r="K44" s="36" t="s">
+      <c r="K44" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="L44" s="36">
+      <c r="L44" s="31">
         <v>1</v>
       </c>
-      <c r="M44" s="36" t="s">
+      <c r="M44" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="N44" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="O44" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="P44" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q44" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="R44" s="38" t="s">
+      <c r="N44" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="O44" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="P44" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q44" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R44" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="S44" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="T44" s="39"/>
-    </row>
-    <row r="45" spans="1:20" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="36">
+      <c r="S44" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="T44" s="34"/>
+    </row>
+    <row r="45" spans="1:20" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="31">
         <v>28</v>
       </c>
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="37" t="str">
+      <c r="D45" s="32" t="str">
         <f>LEFT(C45, FIND("-", C45)-1)</f>
         <v>nominal</v>
       </c>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="36" t="s">
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="J45" s="36">
+      <c r="J45" s="31">
         <v>0</v>
       </c>
-      <c r="K45" s="36" t="s">
+      <c r="K45" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="L45" s="36">
+      <c r="L45" s="31">
         <v>1</v>
       </c>
-      <c r="M45" s="36" t="s">
+      <c r="M45" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="N45" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="O45" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="P45" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q45" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="R45" s="38" t="s">
+      <c r="N45" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="O45" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="P45" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q45" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R45" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="S45" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="T45" s="39"/>
-    </row>
-    <row r="46" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="41">
+      <c r="S45" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="T45" s="34"/>
+    </row>
+    <row r="46" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="36">
         <v>1</v>
       </c>
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="42" t="s">
+      <c r="C46" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="42" t="str">
+      <c r="D46" s="37" t="str">
         <f t="shared" ref="D46:D47" si="10">LEFT(C46, FIND("-", C46)-1)</f>
         <v>numeric</v>
       </c>
-      <c r="E46" s="42">
+      <c r="E46" s="37">
         <v>0</v>
       </c>
-      <c r="F46" s="43">
+      <c r="F46" s="38">
         <v>800</v>
       </c>
-      <c r="G46" s="43" t="s">
+      <c r="G46" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H46" s="43" t="s">
+      <c r="H46" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="I46" s="42"/>
-      <c r="J46" s="41">
+      <c r="I46" s="37"/>
+      <c r="J46" s="36">
         <v>0</v>
       </c>
-      <c r="K46" s="41" t="s">
+      <c r="K46" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L46" s="41">
+      <c r="L46" s="36">
         <v>6</v>
       </c>
-      <c r="M46" s="41" t="s">
+      <c r="M46" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N46" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O46" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P46" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q46" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R46" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S46" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T46" s="45"/>
-    </row>
-    <row r="47" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="41">
+      <c r="N46" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O46" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P46" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q46" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R46" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S46" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T46" s="40"/>
+    </row>
+    <row r="47" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="36">
         <v>2</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="42" t="s">
+      <c r="C47" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="42" t="str">
+      <c r="D47" s="37" t="str">
         <f t="shared" si="10"/>
         <v>numeric</v>
       </c>
-      <c r="E47" s="42">
+      <c r="E47" s="37">
         <v>0</v>
       </c>
-      <c r="F47" s="43">
+      <c r="F47" s="38">
         <v>600</v>
       </c>
-      <c r="G47" s="43" t="s">
+      <c r="G47" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H47" s="43" t="s">
+      <c r="H47" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42">
+      <c r="I47" s="37"/>
+      <c r="J47" s="37">
         <v>0</v>
       </c>
-      <c r="K47" s="41" t="s">
+      <c r="K47" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L47" s="42">
+      <c r="L47" s="37">
         <v>4</v>
       </c>
-      <c r="M47" s="41" t="s">
+      <c r="M47" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N47" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O47" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P47" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q47" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R47" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S47" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T47" s="45"/>
-    </row>
-    <row r="48" spans="1:20" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="41">
+      <c r="N47" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O47" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P47" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q47" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R47" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S47" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T47" s="40"/>
+    </row>
+    <row r="48" spans="1:20" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="36">
         <v>30</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="42" t="s">
+      <c r="C48" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="42" t="str">
+      <c r="D48" s="37" t="str">
         <f t="shared" si="0"/>
         <v>numeric</v>
       </c>
-      <c r="E48" s="42">
+      <c r="E48" s="37">
         <v>0</v>
       </c>
-      <c r="F48" s="41">
+      <c r="F48" s="36">
         <v>100</v>
       </c>
-      <c r="G48" s="42" t="s">
+      <c r="G48" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H48" s="41" t="s">
+      <c r="H48" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41">
+      <c r="I48" s="36"/>
+      <c r="J48" s="36">
         <v>0</v>
       </c>
-      <c r="K48" s="41" t="s">
+      <c r="K48" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L48" s="41">
+      <c r="L48" s="36">
         <v>24</v>
       </c>
-      <c r="M48" s="41" t="s">
+      <c r="M48" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N48" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O48" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P48" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q48" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R48" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S48" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T48" s="45"/>
-    </row>
-    <row r="49" spans="1:20" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="41">
+      <c r="N48" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O48" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P48" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q48" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R48" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S48" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T48" s="40"/>
+    </row>
+    <row r="49" spans="1:20" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="36">
         <v>31</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="42" t="s">
+      <c r="C49" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="42" t="str">
+      <c r="D49" s="37" t="str">
         <f t="shared" ref="D49:D81" si="11">LEFT(C49, FIND("-", C49)-1)</f>
         <v>numeric</v>
       </c>
-      <c r="E49" s="42">
+      <c r="E49" s="37">
         <v>0</v>
       </c>
-      <c r="F49" s="41">
+      <c r="F49" s="36">
         <v>6</v>
       </c>
-      <c r="G49" s="42" t="s">
+      <c r="G49" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H49" s="41" t="s">
+      <c r="H49" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41">
+      <c r="I49" s="36"/>
+      <c r="J49" s="36">
         <v>0</v>
       </c>
-      <c r="K49" s="41" t="s">
+      <c r="K49" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L49" s="41">
+      <c r="L49" s="36">
         <v>24</v>
       </c>
-      <c r="M49" s="41" t="s">
+      <c r="M49" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N49" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O49" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P49" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q49" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R49" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S49" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T49" s="45"/>
-    </row>
-    <row r="50" spans="1:20" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="41">
+      <c r="N49" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O49" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P49" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q49" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R49" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S49" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T49" s="40"/>
+    </row>
+    <row r="50" spans="1:20" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="36">
         <v>32</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="C50" s="42" t="s">
+      <c r="C50" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="42" t="str">
+      <c r="D50" s="37" t="str">
         <f t="shared" si="11"/>
         <v>numeric</v>
       </c>
-      <c r="E50" s="42">
+      <c r="E50" s="37">
         <v>0</v>
       </c>
-      <c r="F50" s="41">
+      <c r="F50" s="36">
         <v>15</v>
       </c>
-      <c r="G50" s="42" t="s">
+      <c r="G50" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H50" s="41" t="s">
+      <c r="H50" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41">
+      <c r="I50" s="36"/>
+      <c r="J50" s="36">
         <v>0</v>
       </c>
-      <c r="K50" s="41" t="s">
+      <c r="K50" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L50" s="41">
+      <c r="L50" s="36">
         <v>2</v>
       </c>
-      <c r="M50" s="41" t="s">
+      <c r="M50" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="N50" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O50" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P50" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q50" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R50" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S50" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T50" s="45"/>
-    </row>
-    <row r="51" spans="1:20" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="41">
+      <c r="N50" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O50" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P50" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q50" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R50" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S50" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T50" s="40"/>
+    </row>
+    <row r="51" spans="1:20" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="36">
         <v>33</v>
       </c>
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="42" t="s">
+      <c r="C51" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D51" s="42" t="str">
+      <c r="D51" s="37" t="str">
         <f t="shared" si="11"/>
         <v>numeric</v>
       </c>
-      <c r="E51" s="42">
+      <c r="E51" s="37">
         <v>0</v>
       </c>
-      <c r="F51" s="41">
+      <c r="F51" s="36">
         <v>100</v>
       </c>
-      <c r="G51" s="42" t="s">
+      <c r="G51" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H51" s="41" t="s">
+      <c r="H51" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41">
+      <c r="I51" s="36"/>
+      <c r="J51" s="36">
         <v>0</v>
       </c>
-      <c r="K51" s="41" t="s">
+      <c r="K51" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L51" s="41">
+      <c r="L51" s="36">
         <v>24</v>
       </c>
-      <c r="M51" s="41" t="s">
+      <c r="M51" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N51" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O51" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P51" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q51" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R51" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S51" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T51" s="45"/>
-    </row>
-    <row r="52" spans="1:20" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="41">
+      <c r="N51" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O51" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P51" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q51" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R51" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S51" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T51" s="40"/>
+    </row>
+    <row r="52" spans="1:20" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="36">
         <v>34</v>
       </c>
-      <c r="B52" s="41" t="s">
+      <c r="B52" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="42" t="s">
+      <c r="C52" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="42" t="str">
+      <c r="D52" s="37" t="str">
         <f t="shared" si="11"/>
         <v>numeric</v>
       </c>
-      <c r="E52" s="42">
+      <c r="E52" s="37">
         <v>0</v>
       </c>
-      <c r="F52" s="41">
+      <c r="F52" s="36">
         <v>200</v>
       </c>
-      <c r="G52" s="42" t="s">
+      <c r="G52" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H52" s="41" t="s">
+      <c r="H52" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41">
+      <c r="I52" s="36"/>
+      <c r="J52" s="36">
         <v>0</v>
       </c>
-      <c r="K52" s="41" t="s">
+      <c r="K52" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L52" s="41">
+      <c r="L52" s="36">
         <v>24</v>
       </c>
-      <c r="M52" s="41" t="s">
+      <c r="M52" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N52" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O52" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P52" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q52" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R52" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S52" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T52" s="45"/>
-    </row>
-    <row r="53" spans="1:20" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41">
+      <c r="N52" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O52" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P52" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q52" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R52" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S52" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T52" s="40"/>
+    </row>
+    <row r="53" spans="1:20" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="36">
         <v>35</v>
       </c>
-      <c r="B53" s="41" t="s">
+      <c r="B53" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="C53" s="42" t="s">
+      <c r="C53" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="42" t="str">
+      <c r="D53" s="37" t="str">
         <f t="shared" si="11"/>
         <v>numeric</v>
       </c>
-      <c r="E53" s="42">
+      <c r="E53" s="37">
         <v>0</v>
       </c>
-      <c r="F53" s="41">
+      <c r="F53" s="36">
         <v>100</v>
       </c>
-      <c r="G53" s="42" t="s">
+      <c r="G53" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H53" s="41" t="s">
+      <c r="H53" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41">
+      <c r="I53" s="36"/>
+      <c r="J53" s="36">
         <v>0</v>
       </c>
-      <c r="K53" s="41" t="s">
+      <c r="K53" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L53" s="41">
+      <c r="L53" s="36">
         <v>24</v>
       </c>
-      <c r="M53" s="41" t="s">
+      <c r="M53" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N53" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O53" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P53" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q53" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R53" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S53" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T53" s="45"/>
-    </row>
-    <row r="54" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="41">
+      <c r="N53" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O53" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P53" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q53" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R53" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S53" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T53" s="40"/>
+    </row>
+    <row r="54" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="36">
         <v>36</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="C54" s="42" t="s">
+      <c r="C54" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="42" t="str">
+      <c r="D54" s="37" t="str">
         <f t="shared" si="11"/>
         <v>numeric</v>
       </c>
-      <c r="E54" s="42">
+      <c r="E54" s="37">
         <v>0</v>
       </c>
-      <c r="F54" s="41">
+      <c r="F54" s="36">
         <v>100</v>
       </c>
-      <c r="G54" s="43" t="s">
+      <c r="G54" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H54" s="41" t="s">
+      <c r="H54" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I54" s="41"/>
-      <c r="J54" s="41">
+      <c r="I54" s="36"/>
+      <c r="J54" s="36">
         <v>0</v>
       </c>
-      <c r="K54" s="41" t="s">
+      <c r="K54" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L54" s="41">
+      <c r="L54" s="36">
         <v>24</v>
       </c>
-      <c r="M54" s="41" t="s">
+      <c r="M54" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N54" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O54" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P54" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q54" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R54" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S54" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T54" s="45"/>
-    </row>
-    <row r="55" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="41">
+      <c r="N54" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O54" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P54" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q54" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R54" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S54" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T54" s="40"/>
+    </row>
+    <row r="55" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="36">
         <v>37</v>
       </c>
-      <c r="B55" s="41" t="s">
+      <c r="B55" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="42" t="s">
+      <c r="C55" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="42" t="str">
+      <c r="D55" s="37" t="str">
         <f t="shared" si="11"/>
         <v>numeric</v>
       </c>
-      <c r="E55" s="42">
+      <c r="E55" s="37">
         <v>0</v>
       </c>
-      <c r="F55" s="41">
+      <c r="F55" s="36">
         <v>100</v>
       </c>
-      <c r="G55" s="43" t="s">
+      <c r="G55" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H55" s="41" t="s">
+      <c r="H55" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41">
+      <c r="I55" s="36"/>
+      <c r="J55" s="36">
         <v>0</v>
       </c>
-      <c r="K55" s="41" t="s">
+      <c r="K55" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L55" s="41">
+      <c r="L55" s="36">
         <v>24</v>
       </c>
-      <c r="M55" s="41" t="s">
+      <c r="M55" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N55" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O55" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P55" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q55" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R55" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S55" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T55" s="45"/>
-    </row>
-    <row r="56" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="41">
+      <c r="N55" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O55" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P55" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q55" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R55" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S55" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T55" s="40"/>
+    </row>
+    <row r="56" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="36">
         <v>38</v>
       </c>
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="C56" s="42" t="s">
+      <c r="C56" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D56" s="42" t="str">
+      <c r="D56" s="37" t="str">
         <f t="shared" si="11"/>
         <v>numeric</v>
       </c>
-      <c r="E56" s="42">
+      <c r="E56" s="37">
         <v>0</v>
       </c>
-      <c r="F56" s="41">
+      <c r="F56" s="36">
         <v>100</v>
       </c>
-      <c r="G56" s="43" t="s">
+      <c r="G56" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H56" s="41" t="s">
+      <c r="H56" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41">
+      <c r="I56" s="36"/>
+      <c r="J56" s="36">
         <v>0</v>
       </c>
-      <c r="K56" s="41" t="s">
+      <c r="K56" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L56" s="41">
+      <c r="L56" s="36">
         <v>24</v>
       </c>
-      <c r="M56" s="41" t="s">
+      <c r="M56" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N56" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O56" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P56" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q56" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R56" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S56" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T56" s="45"/>
-    </row>
-    <row r="57" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="41">
+      <c r="N56" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O56" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P56" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q56" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R56" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S56" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T56" s="40"/>
+    </row>
+    <row r="57" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="36">
         <v>39</v>
       </c>
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="C57" s="42" t="s">
+      <c r="C57" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="42" t="str">
+      <c r="D57" s="37" t="str">
         <f t="shared" si="11"/>
         <v>numeric</v>
       </c>
-      <c r="E57" s="42">
+      <c r="E57" s="37">
         <v>0</v>
       </c>
-      <c r="F57" s="41">
+      <c r="F57" s="36">
         <v>100</v>
       </c>
-      <c r="G57" s="43" t="s">
+      <c r="G57" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H57" s="41" t="s">
+      <c r="H57" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41">
+      <c r="I57" s="36"/>
+      <c r="J57" s="36">
         <v>0</v>
       </c>
-      <c r="K57" s="41" t="s">
+      <c r="K57" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L57" s="41">
+      <c r="L57" s="36">
         <v>24</v>
       </c>
-      <c r="M57" s="41" t="s">
+      <c r="M57" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N57" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O57" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P57" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q57" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R57" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S57" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T57" s="45"/>
-    </row>
-    <row r="58" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="41">
+      <c r="N57" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O57" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P57" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q57" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R57" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S57" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T57" s="40"/>
+    </row>
+    <row r="58" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="36">
         <v>40</v>
       </c>
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="C58" s="42" t="s">
+      <c r="C58" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="42" t="str">
+      <c r="D58" s="37" t="str">
         <f t="shared" si="11"/>
         <v>numeric</v>
       </c>
-      <c r="E58" s="42">
+      <c r="E58" s="37">
         <v>0</v>
       </c>
-      <c r="F58" s="41">
+      <c r="F58" s="36">
         <v>1000</v>
       </c>
-      <c r="G58" s="43" t="s">
+      <c r="G58" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H58" s="41" t="s">
+      <c r="H58" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41">
+      <c r="I58" s="36"/>
+      <c r="J58" s="36">
         <v>0</v>
       </c>
-      <c r="K58" s="41" t="s">
+      <c r="K58" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L58" s="41">
+      <c r="L58" s="36">
         <v>24</v>
       </c>
-      <c r="M58" s="41" t="s">
+      <c r="M58" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N58" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O58" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P58" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q58" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R58" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S58" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T58" s="45"/>
-    </row>
-    <row r="59" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="41">
+      <c r="N58" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O58" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P58" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q58" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R58" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S58" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T58" s="40"/>
+    </row>
+    <row r="59" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="36">
         <v>41</v>
       </c>
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="C59" s="42" t="s">
+      <c r="C59" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D59" s="42" t="str">
+      <c r="D59" s="37" t="str">
         <f t="shared" si="11"/>
         <v>numeric</v>
       </c>
-      <c r="E59" s="42">
+      <c r="E59" s="37">
         <v>0</v>
       </c>
-      <c r="F59" s="41">
+      <c r="F59" s="36">
         <v>100</v>
       </c>
-      <c r="G59" s="43" t="s">
+      <c r="G59" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H59" s="41" t="s">
+      <c r="H59" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I59" s="41"/>
-      <c r="J59" s="41">
+      <c r="I59" s="36"/>
+      <c r="J59" s="36">
         <v>0</v>
       </c>
-      <c r="K59" s="41" t="s">
+      <c r="K59" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L59" s="41">
+      <c r="L59" s="36">
         <v>24</v>
       </c>
-      <c r="M59" s="41" t="s">
+      <c r="M59" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N59" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O59" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P59" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q59" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R59" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S59" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T59" s="45"/>
-    </row>
-    <row r="60" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="41">
+      <c r="N59" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O59" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P59" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q59" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R59" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S59" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T59" s="40"/>
+    </row>
+    <row r="60" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="36">
         <v>42</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B60" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C60" s="42" t="s">
+      <c r="C60" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D60" s="42" t="str">
+      <c r="D60" s="37" t="str">
         <f t="shared" si="11"/>
         <v>numeric</v>
       </c>
-      <c r="E60" s="42">
+      <c r="E60" s="37">
         <v>0</v>
       </c>
-      <c r="F60" s="41">
+      <c r="F60" s="36">
         <v>100</v>
       </c>
-      <c r="G60" s="43" t="s">
+      <c r="G60" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H60" s="41" t="s">
+      <c r="H60" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I60" s="41"/>
-      <c r="J60" s="41">
+      <c r="I60" s="36"/>
+      <c r="J60" s="36">
         <v>0</v>
       </c>
-      <c r="K60" s="41" t="s">
+      <c r="K60" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L60" s="41">
+      <c r="L60" s="36">
         <v>24</v>
       </c>
-      <c r="M60" s="41" t="s">
+      <c r="M60" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N60" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O60" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P60" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q60" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R60" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S60" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T60" s="45"/>
-    </row>
-    <row r="61" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="41">
+      <c r="N60" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O60" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P60" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q60" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R60" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S60" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T60" s="40"/>
+    </row>
+    <row r="61" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="36">
         <v>43</v>
       </c>
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="C61" s="42" t="s">
+      <c r="C61" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D61" s="42" t="str">
+      <c r="D61" s="37" t="str">
         <f t="shared" si="11"/>
         <v>numeric</v>
       </c>
-      <c r="E61" s="42">
+      <c r="E61" s="37">
         <v>0</v>
       </c>
-      <c r="F61" s="41">
+      <c r="F61" s="36">
         <v>100</v>
       </c>
-      <c r="G61" s="43" t="s">
+      <c r="G61" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H61" s="41" t="s">
+      <c r="H61" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I61" s="41"/>
-      <c r="J61" s="41">
+      <c r="I61" s="36"/>
+      <c r="J61" s="36">
         <v>0</v>
       </c>
-      <c r="K61" s="41" t="s">
+      <c r="K61" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L61" s="41">
+      <c r="L61" s="36">
         <v>24</v>
       </c>
-      <c r="M61" s="41" t="s">
+      <c r="M61" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N61" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O61" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P61" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q61" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R61" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S61" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T61" s="45"/>
-    </row>
-    <row r="62" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="41">
+      <c r="N61" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O61" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P61" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q61" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R61" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S61" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T61" s="40"/>
+    </row>
+    <row r="62" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="36">
         <v>44</v>
       </c>
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="C62" s="42" t="s">
+      <c r="C62" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D62" s="42" t="str">
+      <c r="D62" s="37" t="str">
         <f t="shared" si="11"/>
         <v>numeric</v>
       </c>
-      <c r="E62" s="42">
+      <c r="E62" s="37">
         <v>0</v>
       </c>
-      <c r="F62" s="41">
+      <c r="F62" s="36">
         <v>50000</v>
       </c>
-      <c r="G62" s="43" t="s">
+      <c r="G62" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H62" s="41" t="s">
+      <c r="H62" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I62" s="41"/>
-      <c r="J62" s="41">
+      <c r="I62" s="36"/>
+      <c r="J62" s="36">
         <v>0</v>
       </c>
-      <c r="K62" s="41" t="s">
+      <c r="K62" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L62" s="41">
+      <c r="L62" s="36">
         <v>24</v>
       </c>
-      <c r="M62" s="41" t="s">
+      <c r="M62" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N62" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O62" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P62" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q62" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R62" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S62" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T62" s="45"/>
-    </row>
-    <row r="63" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="41">
+      <c r="N62" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O62" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P62" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q62" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R62" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S62" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T62" s="40"/>
+    </row>
+    <row r="63" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="36">
         <v>45</v>
       </c>
-      <c r="B63" s="41" t="s">
+      <c r="B63" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C63" s="42" t="s">
+      <c r="C63" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D63" s="42" t="str">
+      <c r="D63" s="37" t="str">
         <f t="shared" si="11"/>
         <v>numeric</v>
       </c>
-      <c r="E63" s="42">
+      <c r="E63" s="37">
         <v>0</v>
       </c>
-      <c r="F63" s="41">
+      <c r="F63" s="36">
         <v>200</v>
       </c>
-      <c r="G63" s="43" t="s">
+      <c r="G63" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H63" s="41" t="s">
+      <c r="H63" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41">
+      <c r="I63" s="36"/>
+      <c r="J63" s="36">
         <v>0</v>
       </c>
-      <c r="K63" s="41" t="s">
+      <c r="K63" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L63" s="41">
+      <c r="L63" s="36">
         <v>24</v>
       </c>
-      <c r="M63" s="41" t="s">
+      <c r="M63" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N63" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O63" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P63" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q63" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R63" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S63" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T63" s="45"/>
-    </row>
-    <row r="64" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="41">
+      <c r="N63" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O63" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P63" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q63" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R63" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S63" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T63" s="40"/>
+    </row>
+    <row r="64" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="36">
         <v>46</v>
       </c>
-      <c r="B64" s="41" t="s">
+      <c r="B64" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="42" t="s">
+      <c r="C64" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D64" s="42" t="str">
+      <c r="D64" s="37" t="str">
         <f t="shared" si="11"/>
         <v>numeric</v>
       </c>
-      <c r="E64" s="42">
+      <c r="E64" s="37">
         <v>0</v>
       </c>
-      <c r="F64" s="41">
+      <c r="F64" s="36">
         <v>100</v>
       </c>
-      <c r="G64" s="43" t="s">
+      <c r="G64" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H64" s="41" t="s">
+      <c r="H64" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I64" s="41"/>
-      <c r="J64" s="41">
+      <c r="I64" s="36"/>
+      <c r="J64" s="36">
         <v>0</v>
       </c>
-      <c r="K64" s="41" t="s">
+      <c r="K64" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L64" s="41">
+      <c r="L64" s="36">
         <v>14</v>
       </c>
-      <c r="M64" s="41" t="s">
+      <c r="M64" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="N64" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O64" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P64" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q64" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R64" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S64" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T64" s="45"/>
-    </row>
-    <row r="65" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="41">
+      <c r="N64" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O64" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P64" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q64" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R64" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S64" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T64" s="40"/>
+    </row>
+    <row r="65" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="36">
         <v>47</v>
       </c>
-      <c r="B65" s="41" t="s">
+      <c r="B65" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C65" s="42" t="s">
+      <c r="C65" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="42" t="str">
+      <c r="D65" s="37" t="str">
         <f t="shared" si="11"/>
         <v>numeric</v>
       </c>
-      <c r="E65" s="42">
+      <c r="E65" s="37">
         <v>0</v>
       </c>
-      <c r="F65" s="41">
+      <c r="F65" s="36">
         <v>10000</v>
       </c>
-      <c r="G65" s="43" t="s">
+      <c r="G65" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H65" s="41" t="s">
+      <c r="H65" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I65" s="41"/>
-      <c r="J65" s="41">
+      <c r="I65" s="36"/>
+      <c r="J65" s="36">
         <v>0</v>
       </c>
-      <c r="K65" s="41" t="s">
+      <c r="K65" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L65" s="41">
+      <c r="L65" s="36">
         <v>14</v>
       </c>
-      <c r="M65" s="41" t="s">
+      <c r="M65" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="N65" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O65" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P65" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q65" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R65" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S65" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T65" s="45"/>
-    </row>
-    <row r="66" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="41">
+      <c r="N65" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O65" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P65" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q65" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R65" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S65" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T65" s="40"/>
+    </row>
+    <row r="66" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="36">
         <v>48</v>
       </c>
-      <c r="B66" s="41" t="s">
+      <c r="B66" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="C66" s="42" t="s">
+      <c r="C66" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="42" t="str">
+      <c r="D66" s="37" t="str">
         <f t="shared" si="11"/>
         <v>numeric</v>
       </c>
-      <c r="E66" s="42">
+      <c r="E66" s="37">
         <v>0</v>
       </c>
-      <c r="F66" s="41">
+      <c r="F66" s="36">
         <v>200</v>
       </c>
-      <c r="G66" s="43" t="s">
+      <c r="G66" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H66" s="41" t="s">
+      <c r="H66" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I66" s="41"/>
-      <c r="J66" s="41">
+      <c r="I66" s="36"/>
+      <c r="J66" s="36">
         <v>0</v>
       </c>
-      <c r="K66" s="41" t="s">
+      <c r="K66" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L66" s="41">
+      <c r="L66" s="36">
         <v>6</v>
       </c>
-      <c r="M66" s="41" t="s">
+      <c r="M66" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N66" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O66" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P66" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q66" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R66" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S66" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T66" s="45"/>
-    </row>
-    <row r="67" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="41">
+      <c r="N66" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O66" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P66" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q66" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R66" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S66" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T66" s="40"/>
+    </row>
+    <row r="67" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="36">
         <v>49</v>
       </c>
-      <c r="B67" s="41" t="s">
+      <c r="B67" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="42" t="s">
+      <c r="C67" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D67" s="42" t="str">
+      <c r="D67" s="37" t="str">
         <f t="shared" ref="D67" si="12">LEFT(C67, FIND("-", C67)-1)</f>
         <v>numeric</v>
       </c>
-      <c r="E67" s="42">
+      <c r="E67" s="37">
         <v>0</v>
       </c>
-      <c r="F67" s="41">
+      <c r="F67" s="36">
         <v>1000</v>
       </c>
-      <c r="G67" s="43" t="s">
+      <c r="G67" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H67" s="41" t="s">
+      <c r="H67" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I67" s="41"/>
-      <c r="J67" s="41">
+      <c r="I67" s="36"/>
+      <c r="J67" s="36">
         <v>0</v>
       </c>
-      <c r="K67" s="41" t="s">
+      <c r="K67" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L67" s="41">
+      <c r="L67" s="36">
         <v>24</v>
       </c>
-      <c r="M67" s="41" t="s">
+      <c r="M67" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N67" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O67" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P67" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q67" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R67" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S67" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T67" s="45"/>
-    </row>
-    <row r="68" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="41">
+      <c r="N67" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O67" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P67" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q67" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R67" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S67" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T67" s="40"/>
+    </row>
+    <row r="68" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="36">
         <v>50</v>
       </c>
-      <c r="B68" s="41" t="s">
+      <c r="B68" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="C68" s="42" t="s">
+      <c r="C68" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D68" s="42" t="str">
+      <c r="D68" s="37" t="str">
         <f t="shared" si="11"/>
         <v>numeric</v>
       </c>
-      <c r="E68" s="42">
+      <c r="E68" s="37">
         <v>0</v>
       </c>
-      <c r="F68" s="41">
+      <c r="F68" s="36">
         <v>10</v>
       </c>
-      <c r="G68" s="43" t="s">
+      <c r="G68" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H68" s="41" t="s">
+      <c r="H68" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I68" s="41"/>
-      <c r="J68" s="41">
+      <c r="I68" s="36"/>
+      <c r="J68" s="36">
         <v>0</v>
       </c>
-      <c r="K68" s="41" t="s">
+      <c r="K68" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L68" s="41">
+      <c r="L68" s="36">
         <v>6</v>
       </c>
-      <c r="M68" s="41" t="s">
+      <c r="M68" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N68" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O68" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P68" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q68" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R68" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S68" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T68" s="45"/>
-    </row>
-    <row r="69" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="41">
+      <c r="N68" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O68" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P68" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q68" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R68" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S68" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T68" s="40"/>
+    </row>
+    <row r="69" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="36">
         <v>51</v>
       </c>
-      <c r="B69" s="41" t="s">
+      <c r="B69" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="C69" s="42" t="s">
+      <c r="C69" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D69" s="42" t="str">
+      <c r="D69" s="37" t="str">
         <f t="shared" si="11"/>
         <v>numeric</v>
       </c>
-      <c r="E69" s="42">
+      <c r="E69" s="37">
         <v>0</v>
       </c>
-      <c r="F69" s="41">
+      <c r="F69" s="36">
         <v>1000</v>
       </c>
-      <c r="G69" s="43" t="s">
+      <c r="G69" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H69" s="41" t="s">
+      <c r="H69" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I69" s="41"/>
-      <c r="J69" s="41">
+      <c r="I69" s="36"/>
+      <c r="J69" s="36">
         <v>0</v>
       </c>
-      <c r="K69" s="41" t="s">
+      <c r="K69" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L69" s="41">
+      <c r="L69" s="36">
         <v>24</v>
       </c>
-      <c r="M69" s="41" t="s">
+      <c r="M69" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N69" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O69" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P69" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q69" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R69" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S69" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T69" s="45"/>
-    </row>
-    <row r="70" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="41">
+      <c r="N69" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O69" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P69" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q69" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R69" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S69" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T69" s="40"/>
+    </row>
+    <row r="70" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="36">
         <v>52</v>
       </c>
-      <c r="B70" s="41" t="s">
+      <c r="B70" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="C70" s="42" t="s">
+      <c r="C70" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D70" s="42" t="str">
+      <c r="D70" s="37" t="str">
         <f t="shared" si="11"/>
         <v>numeric</v>
       </c>
-      <c r="E70" s="42">
+      <c r="E70" s="37">
         <v>0</v>
       </c>
-      <c r="F70" s="41">
+      <c r="F70" s="36">
         <v>1000</v>
       </c>
-      <c r="G70" s="43" t="s">
+      <c r="G70" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H70" s="41" t="s">
+      <c r="H70" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I70" s="41"/>
-      <c r="J70" s="41">
+      <c r="I70" s="36"/>
+      <c r="J70" s="36">
         <v>0</v>
       </c>
-      <c r="K70" s="41" t="s">
+      <c r="K70" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L70" s="41">
+      <c r="L70" s="36">
         <v>24</v>
       </c>
-      <c r="M70" s="41" t="s">
+      <c r="M70" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N70" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O70" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P70" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q70" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R70" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S70" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T70" s="45"/>
-    </row>
-    <row r="71" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="41">
+      <c r="N70" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O70" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P70" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q70" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R70" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S70" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T70" s="40"/>
+    </row>
+    <row r="71" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="36">
         <v>53</v>
       </c>
-      <c r="B71" s="41" t="s">
+      <c r="B71" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="C71" s="42" t="s">
+      <c r="C71" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D71" s="42" t="str">
+      <c r="D71" s="37" t="str">
         <f t="shared" ref="D71" si="13">LEFT(C71, FIND("-", C71)-1)</f>
         <v>numeric</v>
       </c>
-      <c r="E71" s="42">
+      <c r="E71" s="37">
         <v>0</v>
       </c>
-      <c r="F71" s="41">
+      <c r="F71" s="36">
         <v>1000</v>
       </c>
-      <c r="G71" s="43" t="s">
+      <c r="G71" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H71" s="41" t="s">
+      <c r="H71" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I71" s="41"/>
-      <c r="J71" s="41">
+      <c r="I71" s="36"/>
+      <c r="J71" s="36">
         <v>0</v>
       </c>
-      <c r="K71" s="41" t="s">
+      <c r="K71" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L71" s="41">
+      <c r="L71" s="36">
         <v>24</v>
       </c>
-      <c r="M71" s="41" t="s">
+      <c r="M71" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N71" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O71" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P71" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q71" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R71" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S71" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T71" s="45"/>
-    </row>
-    <row r="72" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="41">
+      <c r="N71" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O71" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P71" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q71" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R71" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S71" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T71" s="40"/>
+    </row>
+    <row r="72" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="36">
         <v>54</v>
       </c>
-      <c r="B72" s="41" t="s">
+      <c r="B72" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C72" s="42" t="s">
+      <c r="C72" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D72" s="42" t="str">
+      <c r="D72" s="37" t="str">
         <f t="shared" si="11"/>
         <v>numeric</v>
       </c>
-      <c r="E72" s="42">
+      <c r="E72" s="37">
         <v>0</v>
       </c>
-      <c r="F72" s="41">
+      <c r="F72" s="36">
         <v>10</v>
       </c>
-      <c r="G72" s="43" t="s">
+      <c r="G72" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H72" s="41" t="s">
+      <c r="H72" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I72" s="41"/>
-      <c r="J72" s="41">
+      <c r="I72" s="36"/>
+      <c r="J72" s="36">
         <v>0</v>
       </c>
-      <c r="K72" s="41" t="s">
+      <c r="K72" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L72" s="41">
+      <c r="L72" s="36">
         <v>12</v>
       </c>
-      <c r="M72" s="41" t="s">
+      <c r="M72" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N72" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O72" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P72" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q72" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R72" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S72" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T72" s="45"/>
-    </row>
-    <row r="73" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="41">
-        <v>55</v>
-      </c>
-      <c r="B73" s="41" t="s">
+      <c r="N72" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O72" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P72" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q72" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R72" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S72" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T72" s="40"/>
+    </row>
+    <row r="73" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="36">
+        <v>55</v>
+      </c>
+      <c r="B73" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="C73" s="42" t="s">
+      <c r="C73" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D73" s="42" t="str">
+      <c r="D73" s="37" t="str">
         <f t="shared" si="11"/>
         <v>numeric</v>
       </c>
-      <c r="E73" s="42">
+      <c r="E73" s="37">
         <v>0</v>
       </c>
-      <c r="F73" s="41">
+      <c r="F73" s="36">
         <v>50</v>
       </c>
-      <c r="G73" s="43" t="s">
+      <c r="G73" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H73" s="41" t="s">
+      <c r="H73" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I73" s="41"/>
-      <c r="J73" s="41">
+      <c r="I73" s="36"/>
+      <c r="J73" s="36">
         <v>0</v>
       </c>
-      <c r="K73" s="41" t="s">
+      <c r="K73" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L73" s="41">
+      <c r="L73" s="36">
         <v>6</v>
       </c>
-      <c r="M73" s="41" t="s">
+      <c r="M73" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N73" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O73" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P73" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q73" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R73" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S73" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T73" s="45"/>
-    </row>
-    <row r="74" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="41">
+      <c r="N73" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O73" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P73" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q73" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R73" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S73" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T73" s="40"/>
+    </row>
+    <row r="74" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="36">
         <v>56</v>
       </c>
-      <c r="B74" s="41" t="s">
+      <c r="B74" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="C74" s="42" t="s">
+      <c r="C74" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D74" s="42" t="str">
+      <c r="D74" s="37" t="str">
         <f t="shared" si="11"/>
         <v>numeric</v>
       </c>
-      <c r="E74" s="42">
+      <c r="E74" s="37">
         <v>0</v>
       </c>
-      <c r="F74" s="41">
+      <c r="F74" s="36">
         <v>100</v>
       </c>
-      <c r="G74" s="43" t="s">
+      <c r="G74" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H74" s="41" t="s">
+      <c r="H74" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I74" s="41"/>
-      <c r="J74" s="41">
+      <c r="I74" s="36"/>
+      <c r="J74" s="36">
         <v>0</v>
       </c>
-      <c r="K74" s="41" t="s">
+      <c r="K74" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L74" s="41">
+      <c r="L74" s="36">
         <v>4</v>
       </c>
-      <c r="M74" s="41" t="s">
+      <c r="M74" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="N74" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O74" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P74" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q74" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R74" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S74" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T74" s="45"/>
-    </row>
-    <row r="75" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="41">
+      <c r="N74" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O74" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P74" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q74" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R74" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S74" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T74" s="40"/>
+    </row>
+    <row r="75" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="36">
         <v>57</v>
       </c>
-      <c r="B75" s="41" t="s">
+      <c r="B75" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="C75" s="42" t="s">
+      <c r="C75" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D75" s="42" t="str">
+      <c r="D75" s="37" t="str">
         <f t="shared" si="11"/>
         <v>numeric</v>
       </c>
-      <c r="E75" s="42">
+      <c r="E75" s="37">
         <v>0</v>
       </c>
-      <c r="F75" s="41">
+      <c r="F75" s="36">
         <v>1000</v>
       </c>
-      <c r="G75" s="43" t="s">
+      <c r="G75" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H75" s="41" t="s">
+      <c r="H75" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I75" s="41"/>
-      <c r="J75" s="41">
+      <c r="I75" s="36"/>
+      <c r="J75" s="36">
         <v>0</v>
       </c>
-      <c r="K75" s="41" t="s">
+      <c r="K75" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L75" s="41">
+      <c r="L75" s="36">
         <v>2</v>
       </c>
-      <c r="M75" s="41" t="s">
+      <c r="M75" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="N75" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O75" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P75" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q75" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R75" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S75" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T75" s="45"/>
-    </row>
-    <row r="76" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="41">
+      <c r="N75" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O75" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P75" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q75" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R75" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S75" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T75" s="40"/>
+    </row>
+    <row r="76" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="36">
         <v>58</v>
       </c>
-      <c r="B76" s="41" t="s">
+      <c r="B76" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="C76" s="42" t="s">
+      <c r="C76" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D76" s="42" t="str">
+      <c r="D76" s="37" t="str">
         <f t="shared" si="11"/>
         <v>numeric</v>
       </c>
-      <c r="E76" s="42">
+      <c r="E76" s="37">
         <v>0</v>
       </c>
-      <c r="F76" s="41">
+      <c r="F76" s="36">
         <v>300</v>
       </c>
-      <c r="G76" s="43" t="s">
+      <c r="G76" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H76" s="41" t="s">
+      <c r="H76" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I76" s="41"/>
-      <c r="J76" s="41">
+      <c r="I76" s="36"/>
+      <c r="J76" s="36">
         <v>0</v>
       </c>
-      <c r="K76" s="41" t="s">
+      <c r="K76" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L76" s="41">
+      <c r="L76" s="36">
         <v>1</v>
       </c>
-      <c r="M76" s="41" t="s">
+      <c r="M76" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N76" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O76" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P76" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q76" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R76" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S76" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T76" s="45"/>
-    </row>
-    <row r="77" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="41">
+      <c r="N76" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O76" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P76" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q76" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R76" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S76" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T76" s="40"/>
+    </row>
+    <row r="77" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="36">
         <v>59</v>
       </c>
-      <c r="B77" s="41" t="s">
+      <c r="B77" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="C77" s="42" t="s">
+      <c r="C77" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D77" s="42" t="str">
+      <c r="D77" s="37" t="str">
         <f t="shared" si="11"/>
         <v>numeric</v>
       </c>
-      <c r="E77" s="42">
+      <c r="E77" s="37">
         <v>0</v>
       </c>
-      <c r="F77" s="41">
+      <c r="F77" s="36">
         <v>300</v>
       </c>
-      <c r="G77" s="43" t="s">
+      <c r="G77" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H77" s="41" t="s">
+      <c r="H77" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I77" s="41"/>
-      <c r="J77" s="41">
+      <c r="I77" s="36"/>
+      <c r="J77" s="36">
         <v>0</v>
       </c>
-      <c r="K77" s="41" t="s">
+      <c r="K77" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L77" s="41">
+      <c r="L77" s="36">
         <v>1</v>
       </c>
-      <c r="M77" s="41" t="s">
+      <c r="M77" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N77" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O77" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P77" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q77" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R77" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S77" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T77" s="45"/>
-    </row>
-    <row r="78" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="41">
+      <c r="N77" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O77" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P77" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q77" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R77" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S77" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T77" s="40"/>
+    </row>
+    <row r="78" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="36">
         <v>60</v>
       </c>
-      <c r="B78" s="41" t="s">
+      <c r="B78" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="C78" s="42" t="s">
+      <c r="C78" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="42" t="str">
+      <c r="D78" s="37" t="str">
         <f t="shared" si="11"/>
         <v>numeric</v>
       </c>
-      <c r="E78" s="42">
+      <c r="E78" s="37">
         <v>0</v>
       </c>
-      <c r="F78" s="41">
+      <c r="F78" s="36">
         <v>200</v>
       </c>
-      <c r="G78" s="43" t="s">
+      <c r="G78" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H78" s="41" t="s">
+      <c r="H78" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I78" s="41"/>
-      <c r="J78" s="41">
+      <c r="I78" s="36"/>
+      <c r="J78" s="36">
         <v>0</v>
       </c>
-      <c r="K78" s="41" t="s">
+      <c r="K78" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L78" s="41">
+      <c r="L78" s="36">
         <v>1</v>
       </c>
-      <c r="M78" s="41" t="s">
+      <c r="M78" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N78" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O78" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P78" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q78" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R78" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S78" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T78" s="45"/>
-    </row>
-    <row r="79" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="41">
+      <c r="N78" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O78" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P78" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q78" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R78" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S78" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T78" s="40"/>
+    </row>
+    <row r="79" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="36">
         <v>61</v>
       </c>
-      <c r="B79" s="41" t="s">
+      <c r="B79" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="C79" s="42" t="s">
+      <c r="C79" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D79" s="42" t="str">
+      <c r="D79" s="37" t="str">
         <f t="shared" si="11"/>
         <v>numeric</v>
       </c>
-      <c r="E79" s="42">
+      <c r="E79" s="37">
         <v>0</v>
       </c>
-      <c r="F79" s="41">
+      <c r="F79" s="36">
         <v>250</v>
       </c>
-      <c r="G79" s="43" t="s">
+      <c r="G79" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H79" s="41" t="s">
+      <c r="H79" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I79" s="41"/>
-      <c r="J79" s="41">
+      <c r="I79" s="36"/>
+      <c r="J79" s="36">
         <v>0</v>
       </c>
-      <c r="K79" s="41" t="s">
+      <c r="K79" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L79" s="41">
+      <c r="L79" s="36">
         <v>1</v>
       </c>
-      <c r="M79" s="41" t="s">
+      <c r="M79" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N79" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O79" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P79" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q79" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R79" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S79" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T79" s="45"/>
-    </row>
-    <row r="80" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="41">
+      <c r="N79" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O79" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P79" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q79" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R79" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S79" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T79" s="40"/>
+    </row>
+    <row r="80" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="36">
         <v>62</v>
       </c>
-      <c r="B80" s="41" t="s">
+      <c r="B80" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="C80" s="42" t="s">
+      <c r="C80" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D80" s="42" t="str">
+      <c r="D80" s="37" t="str">
         <f t="shared" si="11"/>
         <v>numeric</v>
       </c>
-      <c r="E80" s="42">
+      <c r="E80" s="37">
         <v>0</v>
       </c>
-      <c r="F80" s="41">
+      <c r="F80" s="36">
         <v>200</v>
       </c>
-      <c r="G80" s="43" t="s">
+      <c r="G80" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H80" s="41" t="s">
+      <c r="H80" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I80" s="41"/>
-      <c r="J80" s="41">
+      <c r="I80" s="36"/>
+      <c r="J80" s="36">
         <v>0</v>
       </c>
-      <c r="K80" s="41" t="s">
+      <c r="K80" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L80" s="41">
+      <c r="L80" s="36">
         <v>1</v>
       </c>
-      <c r="M80" s="41" t="s">
+      <c r="M80" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="N80" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O80" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P80" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q80" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R80" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S80" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T80" s="45"/>
-    </row>
-    <row r="81" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="41">
+      <c r="N80" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O80" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P80" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q80" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R80" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S80" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T80" s="40"/>
+    </row>
+    <row r="81" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="36">
         <v>63</v>
       </c>
-      <c r="B81" s="41" t="s">
+      <c r="B81" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="C81" s="42" t="s">
+      <c r="C81" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D81" s="42" t="str">
+      <c r="D81" s="37" t="str">
         <f t="shared" si="11"/>
         <v>numeric</v>
       </c>
-      <c r="E81" s="42">
+      <c r="E81" s="37">
         <v>0</v>
       </c>
-      <c r="F81" s="41">
+      <c r="F81" s="36">
         <v>100</v>
       </c>
-      <c r="G81" s="43" t="s">
+      <c r="G81" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H81" s="41" t="s">
+      <c r="H81" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I81" s="41"/>
-      <c r="J81" s="41">
+      <c r="I81" s="36"/>
+      <c r="J81" s="36">
         <v>0</v>
       </c>
-      <c r="K81" s="41" t="s">
+      <c r="K81" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L81" s="41">
+      <c r="L81" s="36">
         <v>14</v>
       </c>
-      <c r="M81" s="41" t="s">
+      <c r="M81" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="N81" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O81" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P81" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q81" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R81" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S81" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="T81" s="45"/>
+      <c r="N81" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O81" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P81" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q81" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R81" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S81" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T81" s="40"/>
     </row>
     <row r="82" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="41">
+      <c r="A82" s="36">
         <v>64</v>
       </c>
-      <c r="B82" s="41" t="s">
+      <c r="B82" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="C82" s="42" t="s">
+      <c r="C82" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D82" s="42" t="str">
+      <c r="D82" s="37" t="str">
         <f t="shared" ref="D82:D83" si="14">LEFT(C82, FIND("-", C82)-1)</f>
         <v>numeric</v>
       </c>
-      <c r="E82" s="42">
+      <c r="E82" s="37">
         <v>0</v>
       </c>
-      <c r="F82" s="41">
+      <c r="F82" s="36">
         <v>1000000</v>
       </c>
-      <c r="G82" s="43" t="s">
+      <c r="G82" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H82" s="41" t="s">
+      <c r="H82" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I82" s="41"/>
-      <c r="J82" s="41">
+      <c r="I82" s="36"/>
+      <c r="J82" s="36">
         <v>0</v>
       </c>
-      <c r="K82" s="41" t="s">
+      <c r="K82" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L82" s="41">
+      <c r="L82" s="36">
         <v>24</v>
       </c>
-      <c r="M82" s="41" t="s">
+      <c r="M82" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N82" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O82" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P82" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q82" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R82" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S82" s="44" t="s">
+      <c r="N82" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O82" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P82" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q82" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R82" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S82" s="39" t="s">
         <v>55</v>
       </c>
       <c r="T82" s="4"/>
     </row>
     <row r="83" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="41">
+      <c r="A83" s="36">
         <v>65</v>
       </c>
-      <c r="B83" s="41" t="s">
+      <c r="B83" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="C83" s="42" t="s">
+      <c r="C83" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D83" s="42" t="str">
+      <c r="D83" s="37" t="str">
         <f t="shared" si="14"/>
         <v>numeric</v>
       </c>
-      <c r="E83" s="42">
+      <c r="E83" s="37">
         <v>0</v>
       </c>
-      <c r="F83" s="41">
+      <c r="F83" s="36">
         <v>1000</v>
       </c>
-      <c r="G83" s="43" t="s">
+      <c r="G83" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H83" s="41" t="s">
+      <c r="H83" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I83" s="41"/>
-      <c r="J83" s="41">
+      <c r="I83" s="36"/>
+      <c r="J83" s="36">
         <v>0</v>
       </c>
-      <c r="K83" s="41" t="s">
+      <c r="K83" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L83" s="41">
+      <c r="L83" s="36">
         <v>1</v>
       </c>
-      <c r="M83" s="41" t="s">
+      <c r="M83" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="N83" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O83" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P83" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q83" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R83" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S83" s="44" t="s">
+      <c r="N83" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O83" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P83" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q83" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R83" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S83" s="39" t="s">
         <v>55</v>
       </c>
       <c r="T83" s="4"/>
     </row>
     <row r="84" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="41">
+      <c r="A84" s="36">
         <v>66</v>
       </c>
-      <c r="B84" s="41" t="s">
+      <c r="B84" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="C84" s="42" t="s">
+      <c r="C84" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="42" t="str">
+      <c r="D84" s="37" t="str">
         <f t="shared" ref="D84:D85" si="15">LEFT(C84, FIND("-", C84)-1)</f>
         <v>numeric</v>
       </c>
-      <c r="E84" s="42">
+      <c r="E84" s="37">
         <v>0</v>
       </c>
-      <c r="F84" s="41">
+      <c r="F84" s="36">
         <v>100</v>
       </c>
-      <c r="G84" s="43" t="s">
+      <c r="G84" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H84" s="41" t="s">
+      <c r="H84" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I84" s="41"/>
-      <c r="J84" s="41">
+      <c r="I84" s="36"/>
+      <c r="J84" s="36">
         <v>0</v>
       </c>
-      <c r="K84" s="41" t="s">
+      <c r="K84" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L84" s="41">
+      <c r="L84" s="36">
         <v>6</v>
       </c>
-      <c r="M84" s="41" t="s">
+      <c r="M84" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N84" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O84" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P84" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q84" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R84" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S84" s="44" t="s">
+      <c r="N84" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O84" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P84" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q84" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R84" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S84" s="39" t="s">
         <v>55</v>
       </c>
       <c r="T84" s="4"/>
     </row>
     <row r="85" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="41">
+      <c r="A85" s="36">
         <v>67</v>
       </c>
-      <c r="B85" s="41" t="s">
+      <c r="B85" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="C85" s="42" t="s">
+      <c r="C85" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D85" s="42" t="str">
+      <c r="D85" s="37" t="str">
         <f t="shared" si="15"/>
         <v>numeric</v>
       </c>
-      <c r="E85" s="42">
+      <c r="E85" s="37">
         <v>0</v>
       </c>
-      <c r="F85" s="41">
+      <c r="F85" s="36">
         <v>100</v>
       </c>
-      <c r="G85" s="43" t="s">
+      <c r="G85" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H85" s="41" t="s">
+      <c r="H85" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I85" s="41"/>
-      <c r="J85" s="41">
+      <c r="I85" s="36"/>
+      <c r="J85" s="36">
         <v>0</v>
       </c>
-      <c r="K85" s="41" t="s">
+      <c r="K85" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="L85" s="41">
+      <c r="L85" s="36">
         <v>6</v>
       </c>
-      <c r="M85" s="41" t="s">
+      <c r="M85" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N85" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O85" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P85" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q85" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R85" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="S85" s="44" t="s">
+      <c r="N85" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O85" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P85" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q85" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="R85" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S85" s="39" t="s">
         <v>55</v>
       </c>
       <c r="T85" s="4"/>
@@ -24386,9 +24376,9 @@
   </sheetPr>
   <dimension ref="A1:AF994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -25072,7 +25062,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <f t="shared" ref="A13:A43" si="1">1000+C13</f>
+        <f t="shared" ref="A13:A46" si="1">1000+C13</f>
         <v>1036</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -26545,7 +26535,7 @@
       <c r="E40" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F40" s="48" t="s">
+      <c r="F40" s="43" t="s">
         <v>253</v>
       </c>
       <c r="G40" s="5" t="s">
@@ -26745,61 +26735,160 @@
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
+      <c r="A44" s="3">
+        <f t="shared" si="1"/>
+        <v>1071</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C44" s="3">
+        <v>71</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
+      <c r="G44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J44" s="3">
+        <v>12</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N44" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O44" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P44" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q44" s="12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="A45" s="3">
+        <f t="shared" si="1"/>
+        <v>1081</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C45" s="3">
+        <v>81</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
+      <c r="G45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J45" s="3">
+        <v>12</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M45" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N45" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O45" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P45" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q45" s="12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="A46" s="3">
+        <f t="shared" si="1"/>
+        <v>1082</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C46" s="3">
+        <v>82</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="15"/>
+      <c r="G46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J46" s="3">
+        <v>12</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N46" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O46" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P46" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q46" s="12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
@@ -44821,7 +44910,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{25F64F70-E844-451E-A092-027E82FEE113}">
       <formula1>"min, max"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576 I2:I1048576" xr:uid="{05752E7E-6681-422B-A153-73C89C26B8FC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576 K2:K1048576" xr:uid="{05752E7E-6681-422B-A153-73C89C26B8FC}">
       <formula1>"second, minute, hour, day, week, month, year"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C40:C43 A2:A1048576" xr:uid="{B0B8DD5B-800F-4696-AA1D-3B2D767EBEBC}">
@@ -44845,8 +44934,8 @@
   <dimension ref="A1:X1017"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -58856,13 +58945,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" style="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5546875" style="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.88671875" style="23" bestFit="1" customWidth="1"/>

--- a/taks.xlsx
+++ b/taks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\CodeProjects\TAKAutomator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C36AB59-D9CE-4E03-BC63-93CF2C7DF5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13E9949-E4DF-4F03-BCAE-2D539EC958FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="scenarios" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">raw_concepts!$A$1:$T$908</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">raw_concepts!$A$1:$T$907</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="306">
   <si>
     <t>TYPE</t>
   </si>
@@ -341,9 +341,6 @@
   </si>
   <si>
     <t>BICARBONATE_MEASURE</t>
-  </si>
-  <si>
-    <t>THYROID-STIMULATING HORMONE_MEASURE</t>
   </si>
   <si>
     <t>ALKALINE-PHOSPHATASE_MEASURE</t>
@@ -670,12 +667,6 @@
     <t>["Low", "Mildly Low", "Normal", "High", "Very High"]</t>
   </si>
   <si>
-    <t>[[0, 0.4], [0.4, 4.5], [4.5, 10], [10, 100]]</t>
-  </si>
-  <si>
-    <t>["Suppressed", "Normal", "Mild Elevation", "Hypothyroid"]</t>
-  </si>
-  <si>
     <t>[[0, 40], [40, 130], [130, 300], [300, 1000]]</t>
   </si>
   <si>
@@ -715,9 +706,6 @@
     <t>BICARBONATE_STATE</t>
   </si>
   <si>
-    <t>THYROID-STIMULATING HORMONE_STATE</t>
-  </si>
-  <si>
     <t>ALKALINE-PHOSPHATASE_STATE</t>
   </si>
   <si>
@@ -749,9 +737,6 @@
   </si>
   <si>
     <t>CHLORAMPHENICOL_BITZUA</t>
-  </si>
-  <si>
-    <t>CALCIUM_GLUCONATE_BITZUA</t>
   </si>
   <si>
     <t>BICARBONATE_BITZUA</t>
@@ -955,9 +940,6 @@
     <t>CHLORAMPHENICOL_BITZUA_EVENT</t>
   </si>
   <si>
-    <t>CALCIUM_GLUCONATE_BITZUA_EVENT</t>
-  </si>
-  <si>
     <t>BICARBONATE_BITZUA_EVENT</t>
   </si>
   <si>
@@ -974,6 +956,12 @@
   </si>
   <si>
     <t>ANTIDIABETIC_DRUGS_PO_DOSAGE_STATE</t>
+  </si>
+  <si>
+    <t>CALCIUM-GLUCONATE_BITZUA</t>
+  </si>
+  <si>
+    <t>CALCIUM-GLUCONATE_BITZUA_EVENT</t>
   </si>
 </sst>
 </file>
@@ -1444,11 +1432,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T908"/>
+  <dimension ref="A1:T907"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1642,7 +1630,7 @@
         <v>55</v>
       </c>
       <c r="T3" s="40" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1756,7 +1744,7 @@
         <v>55</v>
       </c>
       <c r="T5" s="40" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1764,7 +1752,7 @@
         <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>36</v>
@@ -1817,7 +1805,7 @@
         <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>36</v>
@@ -1870,7 +1858,7 @@
         <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>36</v>
@@ -1923,7 +1911,7 @@
         <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>36</v>
@@ -1976,7 +1964,7 @@
         <v>74</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>36</v>
@@ -2029,7 +2017,7 @@
         <v>75</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>36</v>
@@ -2082,7 +2070,7 @@
         <v>76</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>235</v>
+        <v>304</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>36</v>
@@ -2135,7 +2123,7 @@
         <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>36</v>
@@ -2188,7 +2176,7 @@
         <v>78</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>36</v>
@@ -2241,7 +2229,7 @@
         <v>79</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>36</v>
@@ -2294,7 +2282,7 @@
         <v>80</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>36</v>
@@ -2347,7 +2335,7 @@
         <v>81</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>36</v>
@@ -2400,7 +2388,7 @@
         <v>82</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>36</v>
@@ -2453,7 +2441,7 @@
         <v>83</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>36</v>
@@ -2506,7 +2494,7 @@
         <v>84</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>36</v>
@@ -2559,7 +2547,7 @@
         <v>85</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>36</v>
@@ -2612,7 +2600,7 @@
         <v>86</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>36</v>
@@ -2665,7 +2653,7 @@
         <v>87</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>36</v>
@@ -2824,7 +2812,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C26" s="27" t="s">
         <v>36</v>
@@ -2930,7 +2918,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C28" s="27" t="s">
         <v>36</v>
@@ -2983,7 +2971,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>36</v>
@@ -3036,7 +3024,7 @@
         <v>14</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" s="27" t="s">
         <v>36</v>
@@ -3089,7 +3077,7 @@
         <v>15</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C31" s="27" t="s">
         <v>36</v>
@@ -3142,7 +3130,7 @@
         <v>16</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>36</v>
@@ -3195,7 +3183,7 @@
         <v>17</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>36</v>
@@ -3248,7 +3236,7 @@
         <v>18</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>36</v>
@@ -3301,7 +3289,7 @@
         <v>19</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>36</v>
@@ -3354,7 +3342,7 @@
         <v>20</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>36</v>
@@ -3407,7 +3395,7 @@
         <v>21</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>36</v>
@@ -3460,7 +3448,7 @@
         <v>22</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>36</v>
@@ -3513,7 +3501,7 @@
         <v>23</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C39" s="27" t="s">
         <v>36</v>
@@ -3566,7 +3554,7 @@
         <v>24</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C40" s="27" t="s">
         <v>36</v>
@@ -3645,7 +3633,7 @@
         <v>1</v>
       </c>
       <c r="M41" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N41" s="33" t="s">
         <v>55</v>
@@ -3672,7 +3660,7 @@
         <v>25</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C42" s="32" t="s">
         <v>36</v>
@@ -3698,7 +3686,7 @@
         <v>1</v>
       </c>
       <c r="M42" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N42" s="33" t="s">
         <v>55</v>
@@ -3725,7 +3713,7 @@
         <v>26</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C43" s="32" t="s">
         <v>36</v>
@@ -3751,7 +3739,7 @@
         <v>1</v>
       </c>
       <c r="M43" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N43" s="33" t="s">
         <v>55</v>
@@ -3778,7 +3766,7 @@
         <v>27</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C44" s="32" t="s">
         <v>36</v>
@@ -3804,7 +3792,7 @@
         <v>1</v>
       </c>
       <c r="M44" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N44" s="33" t="s">
         <v>55</v>
@@ -3831,7 +3819,7 @@
         <v>28</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C45" s="32" t="s">
         <v>36</v>
@@ -3857,7 +3845,7 @@
         <v>1</v>
       </c>
       <c r="M45" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N45" s="33" t="s">
         <v>55</v>
@@ -4021,7 +4009,7 @@
         <v>18</v>
       </c>
       <c r="H48" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I48" s="36"/>
       <c r="J48" s="36">
@@ -4067,7 +4055,7 @@
         <v>37</v>
       </c>
       <c r="D49" s="37" t="str">
-        <f t="shared" ref="D49:D81" si="11">LEFT(C49, FIND("-", C49)-1)</f>
+        <f t="shared" ref="D49:D80" si="11">LEFT(C49, FIND("-", C49)-1)</f>
         <v>numeric</v>
       </c>
       <c r="E49" s="37">
@@ -4080,7 +4068,7 @@
         <v>18</v>
       </c>
       <c r="H49" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I49" s="36"/>
       <c r="J49" s="36">
@@ -4139,7 +4127,7 @@
         <v>18</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I50" s="36"/>
       <c r="J50" s="36">
@@ -4152,7 +4140,7 @@
         <v>2</v>
       </c>
       <c r="M50" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N50" s="39" t="s">
         <v>55</v>
@@ -4198,7 +4186,7 @@
         <v>18</v>
       </c>
       <c r="H51" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I51" s="36"/>
       <c r="J51" s="36">
@@ -4257,7 +4245,7 @@
         <v>18</v>
       </c>
       <c r="H52" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I52" s="36"/>
       <c r="J52" s="36">
@@ -4316,7 +4304,7 @@
         <v>18</v>
       </c>
       <c r="H53" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I53" s="36"/>
       <c r="J53" s="36">
@@ -4375,7 +4363,7 @@
         <v>18</v>
       </c>
       <c r="H54" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I54" s="36"/>
       <c r="J54" s="36">
@@ -4434,7 +4422,7 @@
         <v>18</v>
       </c>
       <c r="H55" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I55" s="36"/>
       <c r="J55" s="36">
@@ -4493,7 +4481,7 @@
         <v>18</v>
       </c>
       <c r="H56" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I56" s="36"/>
       <c r="J56" s="36">
@@ -4552,7 +4540,7 @@
         <v>18</v>
       </c>
       <c r="H57" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I57" s="36"/>
       <c r="J57" s="36">
@@ -4611,7 +4599,7 @@
         <v>18</v>
       </c>
       <c r="H58" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I58" s="36"/>
       <c r="J58" s="36">
@@ -4670,7 +4658,7 @@
         <v>18</v>
       </c>
       <c r="H59" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I59" s="36"/>
       <c r="J59" s="36">
@@ -4729,7 +4717,7 @@
         <v>18</v>
       </c>
       <c r="H60" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I60" s="36"/>
       <c r="J60" s="36">
@@ -4769,7 +4757,7 @@
         <v>43</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C61" s="37" t="s">
         <v>37</v>
@@ -4788,7 +4776,7 @@
         <v>18</v>
       </c>
       <c r="H61" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I61" s="36"/>
       <c r="J61" s="36">
@@ -4847,7 +4835,7 @@
         <v>18</v>
       </c>
       <c r="H62" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I62" s="36"/>
       <c r="J62" s="36">
@@ -4906,7 +4894,7 @@
         <v>18</v>
       </c>
       <c r="H63" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I63" s="36"/>
       <c r="J63" s="36">
@@ -4946,7 +4934,7 @@
         <v>46</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C64" s="37" t="s">
         <v>37</v>
@@ -4965,7 +4953,7 @@
         <v>18</v>
       </c>
       <c r="H64" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I64" s="36"/>
       <c r="J64" s="36">
@@ -4978,7 +4966,7 @@
         <v>14</v>
       </c>
       <c r="M64" s="36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N64" s="39" t="s">
         <v>55</v>
@@ -5024,7 +5012,7 @@
         <v>18</v>
       </c>
       <c r="H65" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I65" s="36"/>
       <c r="J65" s="36">
@@ -5037,7 +5025,7 @@
         <v>14</v>
       </c>
       <c r="M65" s="36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N65" s="39" t="s">
         <v>55</v>
@@ -5064,7 +5052,7 @@
         <v>48</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C66" s="37" t="s">
         <v>37</v>
@@ -5083,7 +5071,7 @@
         <v>18</v>
       </c>
       <c r="H66" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I66" s="36"/>
       <c r="J66" s="36">
@@ -5123,7 +5111,7 @@
         <v>49</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C67" s="37" t="s">
         <v>37</v>
@@ -5142,7 +5130,7 @@
         <v>18</v>
       </c>
       <c r="H67" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I67" s="36"/>
       <c r="J67" s="36">
@@ -5201,7 +5189,7 @@
         <v>18</v>
       </c>
       <c r="H68" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I68" s="36"/>
       <c r="J68" s="36">
@@ -5260,7 +5248,7 @@
         <v>18</v>
       </c>
       <c r="H69" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I69" s="36"/>
       <c r="J69" s="36">
@@ -5300,7 +5288,7 @@
         <v>52</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C70" s="37" t="s">
         <v>37</v>
@@ -5319,7 +5307,7 @@
         <v>18</v>
       </c>
       <c r="H70" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I70" s="36"/>
       <c r="J70" s="36">
@@ -5359,7 +5347,7 @@
         <v>53</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C71" s="37" t="s">
         <v>37</v>
@@ -5378,7 +5366,7 @@
         <v>18</v>
       </c>
       <c r="H71" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I71" s="36"/>
       <c r="J71" s="36">
@@ -5437,7 +5425,7 @@
         <v>18</v>
       </c>
       <c r="H72" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I72" s="36"/>
       <c r="J72" s="36">
@@ -5496,7 +5484,7 @@
         <v>18</v>
       </c>
       <c r="H73" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I73" s="36"/>
       <c r="J73" s="36">
@@ -5533,7 +5521,7 @@
     </row>
     <row r="74" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="36">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B74" s="36" t="s">
         <v>99</v>
@@ -5549,13 +5537,13 @@
         <v>0</v>
       </c>
       <c r="F74" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G74" s="38" t="s">
         <v>18</v>
       </c>
       <c r="H74" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I74" s="36"/>
       <c r="J74" s="36">
@@ -5565,10 +5553,10 @@
         <v>53</v>
       </c>
       <c r="L74" s="36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M74" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N74" s="39" t="s">
         <v>55</v>
@@ -5592,7 +5580,7 @@
     </row>
     <row r="75" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="36">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B75" s="36" t="s">
         <v>100</v>
@@ -5608,13 +5596,13 @@
         <v>0</v>
       </c>
       <c r="F75" s="36">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="G75" s="38" t="s">
         <v>18</v>
       </c>
       <c r="H75" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I75" s="36"/>
       <c r="J75" s="36">
@@ -5624,10 +5612,10 @@
         <v>53</v>
       </c>
       <c r="L75" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M75" s="36" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="N75" s="39" t="s">
         <v>55</v>
@@ -5651,7 +5639,7 @@
     </row>
     <row r="76" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="36">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B76" s="36" t="s">
         <v>101</v>
@@ -5673,7 +5661,7 @@
         <v>18</v>
       </c>
       <c r="H76" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I76" s="36"/>
       <c r="J76" s="36">
@@ -5710,7 +5698,7 @@
     </row>
     <row r="77" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="36">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B77" s="36" t="s">
         <v>102</v>
@@ -5726,13 +5714,13 @@
         <v>0</v>
       </c>
       <c r="F77" s="36">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G77" s="38" t="s">
         <v>18</v>
       </c>
       <c r="H77" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I77" s="36"/>
       <c r="J77" s="36">
@@ -5769,7 +5757,7 @@
     </row>
     <row r="78" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="36">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B78" s="36" t="s">
         <v>103</v>
@@ -5785,13 +5773,13 @@
         <v>0</v>
       </c>
       <c r="F78" s="36">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G78" s="38" t="s">
         <v>18</v>
       </c>
       <c r="H78" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I78" s="36"/>
       <c r="J78" s="36">
@@ -5828,7 +5816,7 @@
     </row>
     <row r="79" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="36">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B79" s="36" t="s">
         <v>104</v>
@@ -5844,13 +5832,13 @@
         <v>0</v>
       </c>
       <c r="F79" s="36">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G79" s="38" t="s">
         <v>18</v>
       </c>
       <c r="H79" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I79" s="36"/>
       <c r="J79" s="36">
@@ -5863,7 +5851,7 @@
         <v>1</v>
       </c>
       <c r="M79" s="36" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="N79" s="39" t="s">
         <v>55</v>
@@ -5887,7 +5875,7 @@
     </row>
     <row r="80" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="36">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B80" s="36" t="s">
         <v>105</v>
@@ -5903,13 +5891,13 @@
         <v>0</v>
       </c>
       <c r="F80" s="36">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G80" s="38" t="s">
         <v>18</v>
       </c>
       <c r="H80" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I80" s="36"/>
       <c r="J80" s="36">
@@ -5919,10 +5907,10 @@
         <v>53</v>
       </c>
       <c r="L80" s="36">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="M80" s="36" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="N80" s="39" t="s">
         <v>55</v>
@@ -5944,31 +5932,31 @@
       </c>
       <c r="T80" s="40"/>
     </row>
-    <row r="81" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="36">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B81" s="36" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="C81" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D81" s="37" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="D81:D82" si="14">LEFT(C81, FIND("-", C81)-1)</f>
         <v>numeric</v>
       </c>
       <c r="E81" s="37">
         <v>0</v>
       </c>
       <c r="F81" s="36">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="G81" s="38" t="s">
         <v>18</v>
       </c>
       <c r="H81" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I81" s="36"/>
       <c r="J81" s="36">
@@ -5978,10 +5966,10 @@
         <v>53</v>
       </c>
       <c r="L81" s="36">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M81" s="36" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="N81" s="39" t="s">
         <v>55</v>
@@ -6001,33 +5989,33 @@
       <c r="S81" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="T81" s="40"/>
+      <c r="T81" s="4"/>
     </row>
     <row r="82" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="36">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B82" s="36" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C82" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D82" s="37" t="str">
-        <f t="shared" ref="D82:D83" si="14">LEFT(C82, FIND("-", C82)-1)</f>
+        <f t="shared" si="14"/>
         <v>numeric</v>
       </c>
       <c r="E82" s="37">
         <v>0</v>
       </c>
       <c r="F82" s="36">
-        <v>1000000</v>
+        <v>1000</v>
       </c>
       <c r="G82" s="38" t="s">
         <v>18</v>
       </c>
       <c r="H82" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I82" s="36"/>
       <c r="J82" s="36">
@@ -6037,10 +6025,10 @@
         <v>53</v>
       </c>
       <c r="L82" s="36">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="M82" s="36" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="N82" s="39" t="s">
         <v>55</v>
@@ -6064,29 +6052,29 @@
     </row>
     <row r="83" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="36">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B83" s="36" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C83" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D83" s="37" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="D83:D84" si="15">LEFT(C83, FIND("-", C83)-1)</f>
         <v>numeric</v>
       </c>
       <c r="E83" s="37">
         <v>0</v>
       </c>
       <c r="F83" s="36">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G83" s="38" t="s">
         <v>18</v>
       </c>
       <c r="H83" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I83" s="36"/>
       <c r="J83" s="36">
@@ -6096,10 +6084,10 @@
         <v>53</v>
       </c>
       <c r="L83" s="36">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M83" s="36" t="s">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="N83" s="39" t="s">
         <v>55</v>
@@ -6123,16 +6111,16 @@
     </row>
     <row r="84" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="36">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B84" s="36" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C84" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D84" s="37" t="str">
-        <f t="shared" ref="D84:D85" si="15">LEFT(C84, FIND("-", C84)-1)</f>
+        <f t="shared" si="15"/>
         <v>numeric</v>
       </c>
       <c r="E84" s="37">
@@ -6145,7 +6133,7 @@
         <v>18</v>
       </c>
       <c r="H84" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I84" s="36"/>
       <c r="J84" s="36">
@@ -6181,62 +6169,25 @@
       <c r="T84" s="4"/>
     </row>
     <row r="85" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="36">
-        <v>67</v>
-      </c>
-      <c r="B85" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="C85" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="D85" s="37" t="str">
-        <f t="shared" si="15"/>
-        <v>numeric</v>
-      </c>
-      <c r="E85" s="37">
-        <v>0</v>
-      </c>
-      <c r="F85" s="36">
-        <v>100</v>
-      </c>
-      <c r="G85" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H85" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="I85" s="36"/>
-      <c r="J85" s="36">
-        <v>0</v>
-      </c>
-      <c r="K85" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="L85" s="36">
-        <v>6</v>
-      </c>
-      <c r="M85" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="N85" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="O85" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="P85" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q85" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="R85" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="S85" s="39" t="s">
-        <v>55</v>
-      </c>
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="14"/>
+      <c r="O85" s="14"/>
+      <c r="P85" s="14"/>
+      <c r="Q85" s="14"/>
+      <c r="R85" s="14"/>
+      <c r="S85" s="14"/>
       <c r="T85" s="4"/>
     </row>
     <row r="86" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9075,7 +9026,7 @@
       <c r="Q214" s="14"/>
       <c r="R214" s="14"/>
       <c r="S214" s="14"/>
-      <c r="T214" s="4"/>
+      <c r="T214" s="3"/>
     </row>
     <row r="215" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
@@ -24323,30 +24274,8 @@
       <c r="S907" s="14"/>
       <c r="T907" s="3"/>
     </row>
-    <row r="908" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A908" s="3"/>
-      <c r="B908" s="3"/>
-      <c r="C908" s="3"/>
-      <c r="D908" s="3"/>
-      <c r="E908" s="3"/>
-      <c r="F908" s="3"/>
-      <c r="G908" s="3"/>
-      <c r="H908" s="3"/>
-      <c r="I908" s="3"/>
-      <c r="J908" s="3"/>
-      <c r="K908" s="3"/>
-      <c r="L908" s="3"/>
-      <c r="M908" s="3"/>
-      <c r="N908" s="14"/>
-      <c r="O908" s="14"/>
-      <c r="P908" s="14"/>
-      <c r="Q908" s="14"/>
-      <c r="R908" s="14"/>
-      <c r="S908" s="14"/>
-      <c r="T908" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:T908" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T907" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="5">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{0BA62E2C-90D0-4A85-8B8A-6B7F0EEA38EF}">
       <formula1>0</formula1>
@@ -24357,7 +24286,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:S1048576" xr:uid="{3FC5D9F0-5CEE-497A-B243-2B46CC4ED6C4}">
       <formula1>"true, false"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576 M2:M1048576" xr:uid="{891E083F-A9D0-4FEA-B55D-C5F13BD00376}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576 K2:K1048576" xr:uid="{891E083F-A9D0-4FEA-B55D-C5F13BD00376}">
       <formula1>"second, minute, hour, day, week, month, year"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{EF8D1A6B-1AE4-4B53-8D99-A18F72827D4B}">
@@ -24374,11 +24303,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AF994"/>
+  <dimension ref="A1:AF993"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -24592,10 +24521,10 @@
         <v>23</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -24646,10 +24575,10 @@
         <v>23</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -24688,7 +24617,7 @@
         <v>1063</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="3">
         <v>63</v>
@@ -24700,10 +24629,10 @@
         <v>23</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -24742,7 +24671,7 @@
         <v>1030</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="3">
         <v>30</v>
@@ -24754,10 +24683,10 @@
         <v>23</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -24796,7 +24725,7 @@
         <v>1031</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C8" s="3">
         <v>31</v>
@@ -24808,10 +24737,10 @@
         <v>23</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -24850,7 +24779,7 @@
         <v>1032</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C9" s="3">
         <v>32</v>
@@ -24862,10 +24791,10 @@
         <v>23</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -24877,7 +24806,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>55</v>
@@ -24904,7 +24833,7 @@
         <v>1033</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C10" s="3">
         <v>33</v>
@@ -24916,10 +24845,10 @@
         <v>23</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -24931,7 +24860,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>55</v>
@@ -24958,7 +24887,7 @@
         <v>1034</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C11" s="3">
         <v>34</v>
@@ -24970,10 +24899,10 @@
         <v>23</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -25012,7 +24941,7 @@
         <v>1035</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C12" s="3">
         <v>35</v>
@@ -25024,10 +24953,10 @@
         <v>23</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -25062,11 +24991,11 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <f t="shared" ref="A13:A46" si="1">1000+C13</f>
+        <f t="shared" ref="A13:A45" si="1">1000+C13</f>
         <v>1036</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C13" s="3">
         <v>36</v>
@@ -25078,10 +25007,10 @@
         <v>23</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -25120,7 +25049,7 @@
         <v>1037</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C14" s="3">
         <v>37</v>
@@ -25132,10 +25061,10 @@
         <v>23</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -25174,7 +25103,7 @@
         <v>1038</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="3">
         <v>38</v>
@@ -25186,10 +25115,10 @@
         <v>23</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -25228,7 +25157,7 @@
         <v>1039</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="3">
         <v>39</v>
@@ -25240,10 +25169,10 @@
         <v>23</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -25282,7 +25211,7 @@
         <v>1040</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C17" s="3">
         <v>40</v>
@@ -25294,10 +25223,10 @@
         <v>23</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -25336,7 +25265,7 @@
         <v>1041</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C18" s="3">
         <v>41</v>
@@ -25348,10 +25277,10 @@
         <v>23</v>
       </c>
       <c r="F18" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -25390,7 +25319,7 @@
         <v>1042</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C19" s="3">
         <v>42</v>
@@ -25402,10 +25331,10 @@
         <v>23</v>
       </c>
       <c r="F19" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -25444,7 +25373,7 @@
         <v>1043</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C20" s="3">
         <v>43</v>
@@ -25456,10 +25385,10 @@
         <v>23</v>
       </c>
       <c r="F20" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -25498,7 +25427,7 @@
         <v>1044</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C21" s="3">
         <v>44</v>
@@ -25510,10 +25439,10 @@
         <v>23</v>
       </c>
       <c r="F21" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -25552,7 +25481,7 @@
         <v>1045</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C22" s="3">
         <v>45</v>
@@ -25564,10 +25493,10 @@
         <v>23</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -25606,7 +25535,7 @@
         <v>1046</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C23" s="3">
         <v>46</v>
@@ -25618,10 +25547,10 @@
         <v>23</v>
       </c>
       <c r="F23" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -25633,7 +25562,7 @@
         <v>14</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L23" s="12" t="s">
         <v>55</v>
@@ -25660,7 +25589,7 @@
         <v>1047</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C24" s="3">
         <v>47</v>
@@ -25672,10 +25601,10 @@
         <v>23</v>
       </c>
       <c r="F24" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -25687,7 +25616,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L24" s="12" t="s">
         <v>55</v>
@@ -25714,7 +25643,7 @@
         <v>1048</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C25" s="3">
         <v>48</v>
@@ -25726,10 +25655,10 @@
         <v>23</v>
       </c>
       <c r="F25" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>174</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -25768,7 +25697,7 @@
         <v>1049</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C26" s="3">
         <v>49</v>
@@ -25780,10 +25709,10 @@
         <v>23</v>
       </c>
       <c r="F26" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -25822,7 +25751,7 @@
         <v>1050</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C27" s="3">
         <v>50</v>
@@ -25834,10 +25763,10 @@
         <v>23</v>
       </c>
       <c r="F27" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -25876,7 +25805,7 @@
         <v>1051</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C28" s="3">
         <v>51</v>
@@ -25888,10 +25817,10 @@
         <v>23</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -25930,7 +25859,7 @@
         <v>1052</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C29" s="3">
         <v>52</v>
@@ -25942,10 +25871,10 @@
         <v>23</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -25984,7 +25913,7 @@
         <v>1053</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C30" s="3">
         <v>53</v>
@@ -25996,10 +25925,10 @@
         <v>23</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H30" s="3">
         <v>0</v>
@@ -26038,7 +25967,7 @@
         <v>1054</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C31" s="3">
         <v>54</v>
@@ -26050,10 +25979,10 @@
         <v>23</v>
       </c>
       <c r="F31" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
@@ -26092,7 +26021,7 @@
         <v>1055</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C32" s="3">
         <v>55</v>
@@ -26104,10 +26033,10 @@
         <v>23</v>
       </c>
       <c r="F32" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -26143,13 +26072,13 @@
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <f t="shared" si="1"/>
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C33" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>39</v>
@@ -26158,10 +26087,10 @@
         <v>23</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -26170,10 +26099,10 @@
         <v>53</v>
       </c>
       <c r="J33" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L33" s="12" t="s">
         <v>55</v>
@@ -26197,13 +26126,13 @@
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <f t="shared" si="1"/>
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C34" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>39</v>
@@ -26212,10 +26141,10 @@
         <v>23</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
@@ -26224,10 +26153,10 @@
         <v>53</v>
       </c>
       <c r="J34" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="L34" s="12" t="s">
         <v>55</v>
@@ -26251,13 +26180,13 @@
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <f t="shared" si="1"/>
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C35" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>39</v>
@@ -26266,10 +26195,10 @@
         <v>23</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -26305,13 +26234,13 @@
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <f t="shared" si="1"/>
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C36" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>39</v>
@@ -26320,10 +26249,10 @@
         <v>23</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H36" s="3">
         <v>0</v>
@@ -26356,16 +26285,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <f t="shared" si="1"/>
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C37" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>39</v>
@@ -26374,7 +26303,7 @@
         <v>23</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>212</v>
@@ -26413,13 +26342,13 @@
     <row r="38" spans="1:17" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <f t="shared" si="1"/>
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C38" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>39</v>
@@ -26428,10 +26357,10 @@
         <v>23</v>
       </c>
       <c r="F38" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="H38" s="3">
         <v>0</v>
@@ -26443,7 +26372,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="L38" s="12" t="s">
         <v>55</v>
@@ -26464,16 +26393,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <f t="shared" si="1"/>
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>229</v>
+        <v>286</v>
       </c>
       <c r="C39" s="3">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>39</v>
@@ -26481,11 +26410,11 @@
       <c r="E39" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>216</v>
+      <c r="F39" s="43" t="s">
+        <v>248</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
@@ -26494,10 +26423,10 @@
         <v>53</v>
       </c>
       <c r="J39" s="3">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="L39" s="12" t="s">
         <v>55</v>
@@ -26518,16 +26447,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <f t="shared" si="1"/>
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C40" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>39</v>
@@ -26535,11 +26464,11 @@
       <c r="E40" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F40" s="43" t="s">
-        <v>253</v>
+      <c r="F40" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
@@ -26548,10 +26477,10 @@
         <v>53</v>
       </c>
       <c r="J40" s="3">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>55</v>
@@ -26575,13 +26504,13 @@
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <f t="shared" si="1"/>
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C41" s="3">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>39</v>
@@ -26590,10 +26519,10 @@
         <v>23</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -26602,10 +26531,10 @@
         <v>53</v>
       </c>
       <c r="J41" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="L41" s="12" t="s">
         <v>55</v>
@@ -26629,13 +26558,13 @@
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <f t="shared" si="1"/>
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C42" s="3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>39</v>
@@ -26644,10 +26573,10 @@
         <v>23</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -26683,13 +26612,13 @@
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <f t="shared" si="1"/>
-        <v>1067</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>294</v>
+        <v>1071</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="C43" s="3">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>39</v>
@@ -26697,11 +26626,9 @@
       <c r="E43" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>263</v>
+      <c r="F43" s="5"/>
+      <c r="G43" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -26710,7 +26637,7 @@
         <v>53</v>
       </c>
       <c r="J43" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>53</v>
@@ -26737,13 +26664,13 @@
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <f t="shared" si="1"/>
-        <v>1071</v>
+        <v>1081</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C44" s="3">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>39</v>
@@ -26789,13 +26716,13 @@
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <f t="shared" si="1"/>
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C45" s="3">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>39</v>
@@ -26839,56 +26766,23 @@
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <f t="shared" si="1"/>
-        <v>1082</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C46" s="3">
-        <v>82</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J46" s="3">
-        <v>12</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L46" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="M46" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="N46" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="O46" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="P46" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q46" s="12" t="s">
-        <v>55</v>
-      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
@@ -30078,9 +29972,9 @@
       <c r="L214" s="14"/>
       <c r="M214" s="14"/>
       <c r="N214" s="14"/>
-      <c r="O214" s="15"/>
-      <c r="P214" s="15"/>
-      <c r="Q214" s="15"/>
+      <c r="O214" s="14"/>
+      <c r="P214" s="14"/>
+      <c r="Q214" s="14"/>
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
@@ -44883,43 +44777,24 @@
       <c r="P993" s="14"/>
       <c r="Q993" s="14"/>
     </row>
-    <row r="994" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A994" s="3"/>
-      <c r="B994" s="3"/>
-      <c r="C994" s="3"/>
-      <c r="D994" s="3"/>
-      <c r="E994" s="3"/>
-      <c r="F994" s="5"/>
-      <c r="G994" s="5"/>
-      <c r="H994" s="3"/>
-      <c r="I994" s="3"/>
-      <c r="J994" s="3"/>
-      <c r="K994" s="3"/>
-      <c r="L994" s="14"/>
-      <c r="M994" s="14"/>
-      <c r="N994" s="14"/>
-      <c r="O994" s="14"/>
-      <c r="P994" s="14"/>
-      <c r="Q994" s="14"/>
-    </row>
   </sheetData>
   <dataValidations count="6">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C39:C42 A2:A1048576" xr:uid="{B0B8DD5B-800F-4696-AA1D-3B2D767EBEBC}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Error" error="Currently, The implementation requires a derived from concept id, but the program is not planned to deal with TAKs that have more then 1 base concepts. Please focus on one at the time, or contact developers." sqref="C43:C1048576 C2:C38" xr:uid="{DA2D4637-4B2C-42C2-B4F2-4577059E5FB5}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:Q1048576" xr:uid="{EF3D4FAA-96BE-43A0-81DD-49BCE1F13631}">
       <formula1>"true, false"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{25F64F70-E844-451E-A092-027E82FEE113}">
       <formula1>"min, max"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576 K2:K1048576" xr:uid="{05752E7E-6681-422B-A153-73C89C26B8FC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576 I2:I1048576" xr:uid="{05752E7E-6681-422B-A153-73C89C26B8FC}">
       <formula1>"second, minute, hour, day, week, month, year"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C40:C43 A2:A1048576" xr:uid="{B0B8DD5B-800F-4696-AA1D-3B2D767EBEBC}">
-      <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{20449258-B494-4DFA-BB2C-AF6A953B91B2}">
       <formula1>"ordinal, numeric, boolean, nominal"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Error" error="Currently, The implementation requires a derived from concept id, but the program is not planned to deal with TAKs that have more then 1 base concepts. Please focus on one at the time, or contact developers." sqref="C2:C39 C44:C1048576" xr:uid="{DA2D4637-4B2C-42C2-B4F2-4577059E5FB5}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -44934,8 +44809,8 @@
   <dimension ref="A1:X1017"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10:C35"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -45006,7 +44881,7 @@
         <v>1104</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>31</v>
@@ -45039,7 +44914,7 @@
         <v>1105</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>17</v>
@@ -45073,13 +44948,13 @@
         <v>1170</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C4" s="3">
         <v>70</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>55</v>
@@ -45107,13 +44982,13 @@
         <v>1172</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C5" s="3">
         <v>72</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>55</v>
@@ -45141,13 +45016,13 @@
         <v>1173</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C6" s="3">
         <v>73</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>55</v>
@@ -45175,13 +45050,13 @@
         <v>1174</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C7" s="3">
         <v>74</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>55</v>
@@ -45209,13 +45084,13 @@
         <v>1175</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C8" s="3">
         <v>75</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>55</v>
@@ -45243,13 +45118,13 @@
         <v>1176</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C9" s="3">
         <v>76</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>55</v>
@@ -45277,13 +45152,13 @@
         <v>1177</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C10" s="3">
         <v>77</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>55</v>
@@ -45311,13 +45186,13 @@
         <v>1178</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C11" s="3">
         <v>78</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>55</v>
@@ -45345,13 +45220,13 @@
         <v>1179</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C12" s="3">
         <v>79</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>55</v>
@@ -45379,13 +45254,13 @@
         <v>1180</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C13" s="3">
         <v>80</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>55</v>
@@ -45413,13 +45288,13 @@
         <v>1183</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C14" s="3">
         <v>83</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>55</v>
@@ -45447,13 +45322,13 @@
         <v>1184</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C15" s="3">
         <v>84</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>55</v>
@@ -45481,13 +45356,13 @@
         <v>1185</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C16" s="3">
         <v>85</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>55</v>
@@ -45515,13 +45390,13 @@
         <v>1186</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C17" s="3">
         <v>86</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>55</v>
@@ -45549,13 +45424,13 @@
         <v>1187</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C18" s="3">
         <v>87</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>55</v>
@@ -45583,13 +45458,13 @@
         <v>1111</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C19" s="3">
         <v>11</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>55</v>
@@ -45617,13 +45492,13 @@
         <v>1112</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C20" s="3">
         <v>12</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>55</v>
@@ -45651,13 +45526,13 @@
         <v>1110</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C21" s="3">
         <v>10</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>55</v>
@@ -45685,13 +45560,13 @@
         <v>1108</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C22" s="3">
         <v>8</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>55</v>
@@ -45719,13 +45594,13 @@
         <v>1109</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C23" s="3">
         <v>9</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>55</v>
@@ -45753,13 +45628,13 @@
         <v>1113</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C24" s="3">
         <v>13</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>55</v>
@@ -45787,13 +45662,13 @@
         <v>1114</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C25" s="3">
         <v>14</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>55</v>
@@ -45821,13 +45696,13 @@
         <v>1115</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C26" s="3">
         <v>15</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>55</v>
@@ -45855,13 +45730,13 @@
         <v>1116</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C27" s="3">
         <v>16</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>55</v>
@@ -45889,13 +45764,13 @@
         <v>1117</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C28" s="3">
         <v>17</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>55</v>
@@ -45923,13 +45798,13 @@
         <v>1118</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C29" s="3">
         <v>18</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>55</v>
@@ -45957,13 +45832,13 @@
         <v>1119</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C30" s="3">
         <v>19</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>55</v>
@@ -45991,13 +45866,13 @@
         <v>1120</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C31" s="3">
         <v>20</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E31" s="14" t="s">
         <v>55</v>
@@ -46025,13 +45900,13 @@
         <v>1121</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C32" s="3">
         <v>21</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>55</v>
@@ -46059,13 +45934,13 @@
         <v>1122</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C33" s="3">
         <v>22</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>55</v>
@@ -46093,13 +45968,13 @@
         <v>1123</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C34" s="3">
         <v>23</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>55</v>
@@ -46127,13 +46002,13 @@
         <v>1124</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C35" s="3">
         <v>24</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E35" s="14" t="s">
         <v>55</v>
@@ -58945,7 +58820,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C7"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -59053,13 +58928,13 @@
         <v>1203</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C2" s="19">
         <v>3</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>73</v>
@@ -59105,13 +58980,13 @@
         <v>1225</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C3" s="3">
         <v>25</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>73</v>
@@ -59149,13 +59024,13 @@
         <v>1226</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C4" s="23">
         <v>26</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>73</v>
@@ -59193,13 +59068,13 @@
         <v>1227</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C5" s="23">
         <v>27</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>73</v>
@@ -59237,13 +59112,13 @@
         <v>1228</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C6" s="23">
         <v>28</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>73</v>

--- a/taks.xlsx
+++ b/taks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\CodeProjects\TAKAutomator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13E9949-E4DF-4F03-BCAE-2D539EC958FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386BF0B5-F0FD-4833-BA19-37AD3E49A124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_concepts" sheetId="1" r:id="rId1"/>
@@ -416,9 +416,6 @@
   </si>
   <si>
     <t>ULCER</t>
-  </si>
-  <si>
-    <t>INFECTIONS</t>
   </si>
   <si>
     <t>MUSCULOSKELETAL_COMPLICATION</t>
@@ -880,9 +877,6 @@
     <t>ULCER_EVENT</t>
   </si>
   <si>
-    <t>INFECTIONS_EVENT</t>
-  </si>
-  <si>
     <t>MUSCULOSKELETAL_COMPLICATION_EVENT</t>
   </si>
   <si>
@@ -962,6 +956,12 @@
   </si>
   <si>
     <t>CALCIUM-GLUCONATE_BITZUA_EVENT</t>
+  </si>
+  <si>
+    <t>INFECTION</t>
+  </si>
+  <si>
+    <t>INFECTION_EVENT</t>
   </si>
 </sst>
 </file>
@@ -1434,9 +1434,9 @@
   </sheetPr>
   <dimension ref="A1:T907"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1630,7 +1630,7 @@
         <v>55</v>
       </c>
       <c r="T3" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1744,7 +1744,7 @@
         <v>55</v>
       </c>
       <c r="T5" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1752,7 +1752,7 @@
         <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>36</v>
@@ -1805,7 +1805,7 @@
         <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>36</v>
@@ -1858,7 +1858,7 @@
         <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>36</v>
@@ -1911,7 +1911,7 @@
         <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>36</v>
@@ -1964,7 +1964,7 @@
         <v>74</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>36</v>
@@ -2017,7 +2017,7 @@
         <v>75</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>36</v>
@@ -2070,7 +2070,7 @@
         <v>76</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>36</v>
@@ -2123,7 +2123,7 @@
         <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>36</v>
@@ -2176,7 +2176,7 @@
         <v>78</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>36</v>
@@ -2229,7 +2229,7 @@
         <v>79</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>36</v>
@@ -2282,7 +2282,7 @@
         <v>80</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>36</v>
@@ -2335,7 +2335,7 @@
         <v>81</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>36</v>
@@ -2388,7 +2388,7 @@
         <v>82</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>36</v>
@@ -2441,7 +2441,7 @@
         <v>83</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>36</v>
@@ -2494,7 +2494,7 @@
         <v>84</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>36</v>
@@ -2547,7 +2547,7 @@
         <v>85</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>36</v>
@@ -2600,7 +2600,7 @@
         <v>86</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>36</v>
@@ -2653,7 +2653,7 @@
         <v>87</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>36</v>
@@ -3448,7 +3448,7 @@
         <v>22</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>124</v>
+        <v>304</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>36</v>
@@ -3501,7 +3501,7 @@
         <v>23</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C39" s="27" t="s">
         <v>36</v>
@@ -3554,7 +3554,7 @@
         <v>24</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C40" s="27" t="s">
         <v>36</v>
@@ -3633,7 +3633,7 @@
         <v>1</v>
       </c>
       <c r="M41" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N41" s="33" t="s">
         <v>55</v>
@@ -3660,7 +3660,7 @@
         <v>25</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C42" s="32" t="s">
         <v>36</v>
@@ -3686,7 +3686,7 @@
         <v>1</v>
       </c>
       <c r="M42" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N42" s="33" t="s">
         <v>55</v>
@@ -3713,7 +3713,7 @@
         <v>26</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C43" s="32" t="s">
         <v>36</v>
@@ -3739,7 +3739,7 @@
         <v>1</v>
       </c>
       <c r="M43" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N43" s="33" t="s">
         <v>55</v>
@@ -3766,7 +3766,7 @@
         <v>27</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C44" s="32" t="s">
         <v>36</v>
@@ -3792,7 +3792,7 @@
         <v>1</v>
       </c>
       <c r="M44" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N44" s="33" t="s">
         <v>55</v>
@@ -3819,7 +3819,7 @@
         <v>28</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C45" s="32" t="s">
         <v>36</v>
@@ -3845,7 +3845,7 @@
         <v>1</v>
       </c>
       <c r="M45" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N45" s="33" t="s">
         <v>55</v>
@@ -4009,7 +4009,7 @@
         <v>18</v>
       </c>
       <c r="H48" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I48" s="36"/>
       <c r="J48" s="36">
@@ -4068,7 +4068,7 @@
         <v>18</v>
       </c>
       <c r="H49" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I49" s="36"/>
       <c r="J49" s="36">
@@ -4127,7 +4127,7 @@
         <v>18</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I50" s="36"/>
       <c r="J50" s="36">
@@ -4140,7 +4140,7 @@
         <v>2</v>
       </c>
       <c r="M50" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N50" s="39" t="s">
         <v>55</v>
@@ -4186,7 +4186,7 @@
         <v>18</v>
       </c>
       <c r="H51" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I51" s="36"/>
       <c r="J51" s="36">
@@ -4245,7 +4245,7 @@
         <v>18</v>
       </c>
       <c r="H52" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I52" s="36"/>
       <c r="J52" s="36">
@@ -4304,7 +4304,7 @@
         <v>18</v>
       </c>
       <c r="H53" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I53" s="36"/>
       <c r="J53" s="36">
@@ -4363,7 +4363,7 @@
         <v>18</v>
       </c>
       <c r="H54" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I54" s="36"/>
       <c r="J54" s="36">
@@ -4422,7 +4422,7 @@
         <v>18</v>
       </c>
       <c r="H55" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I55" s="36"/>
       <c r="J55" s="36">
@@ -4481,7 +4481,7 @@
         <v>18</v>
       </c>
       <c r="H56" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I56" s="36"/>
       <c r="J56" s="36">
@@ -4540,7 +4540,7 @@
         <v>18</v>
       </c>
       <c r="H57" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I57" s="36"/>
       <c r="J57" s="36">
@@ -4599,7 +4599,7 @@
         <v>18</v>
       </c>
       <c r="H58" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I58" s="36"/>
       <c r="J58" s="36">
@@ -4658,7 +4658,7 @@
         <v>18</v>
       </c>
       <c r="H59" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I59" s="36"/>
       <c r="J59" s="36">
@@ -4717,7 +4717,7 @@
         <v>18</v>
       </c>
       <c r="H60" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I60" s="36"/>
       <c r="J60" s="36">
@@ -4757,7 +4757,7 @@
         <v>43</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C61" s="37" t="s">
         <v>37</v>
@@ -4776,7 +4776,7 @@
         <v>18</v>
       </c>
       <c r="H61" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I61" s="36"/>
       <c r="J61" s="36">
@@ -4835,7 +4835,7 @@
         <v>18</v>
       </c>
       <c r="H62" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I62" s="36"/>
       <c r="J62" s="36">
@@ -4894,7 +4894,7 @@
         <v>18</v>
       </c>
       <c r="H63" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I63" s="36"/>
       <c r="J63" s="36">
@@ -4934,7 +4934,7 @@
         <v>46</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C64" s="37" t="s">
         <v>37</v>
@@ -4953,7 +4953,7 @@
         <v>18</v>
       </c>
       <c r="H64" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I64" s="36"/>
       <c r="J64" s="36">
@@ -5012,7 +5012,7 @@
         <v>18</v>
       </c>
       <c r="H65" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I65" s="36"/>
       <c r="J65" s="36">
@@ -5052,7 +5052,7 @@
         <v>48</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C66" s="37" t="s">
         <v>37</v>
@@ -5071,7 +5071,7 @@
         <v>18</v>
       </c>
       <c r="H66" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I66" s="36"/>
       <c r="J66" s="36">
@@ -5111,7 +5111,7 @@
         <v>49</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C67" s="37" t="s">
         <v>37</v>
@@ -5130,7 +5130,7 @@
         <v>18</v>
       </c>
       <c r="H67" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I67" s="36"/>
       <c r="J67" s="36">
@@ -5189,7 +5189,7 @@
         <v>18</v>
       </c>
       <c r="H68" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I68" s="36"/>
       <c r="J68" s="36">
@@ -5248,7 +5248,7 @@
         <v>18</v>
       </c>
       <c r="H69" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I69" s="36"/>
       <c r="J69" s="36">
@@ -5288,7 +5288,7 @@
         <v>52</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C70" s="37" t="s">
         <v>37</v>
@@ -5307,7 +5307,7 @@
         <v>18</v>
       </c>
       <c r="H70" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I70" s="36"/>
       <c r="J70" s="36">
@@ -5347,7 +5347,7 @@
         <v>53</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C71" s="37" t="s">
         <v>37</v>
@@ -5366,7 +5366,7 @@
         <v>18</v>
       </c>
       <c r="H71" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I71" s="36"/>
       <c r="J71" s="36">
@@ -5425,7 +5425,7 @@
         <v>18</v>
       </c>
       <c r="H72" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I72" s="36"/>
       <c r="J72" s="36">
@@ -5484,7 +5484,7 @@
         <v>18</v>
       </c>
       <c r="H73" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I73" s="36"/>
       <c r="J73" s="36">
@@ -5543,7 +5543,7 @@
         <v>18</v>
       </c>
       <c r="H74" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I74" s="36"/>
       <c r="J74" s="36">
@@ -5556,7 +5556,7 @@
         <v>2</v>
       </c>
       <c r="M74" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N74" s="39" t="s">
         <v>55</v>
@@ -5602,7 +5602,7 @@
         <v>18</v>
       </c>
       <c r="H75" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I75" s="36"/>
       <c r="J75" s="36">
@@ -5661,7 +5661,7 @@
         <v>18</v>
       </c>
       <c r="H76" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I76" s="36"/>
       <c r="J76" s="36">
@@ -5720,7 +5720,7 @@
         <v>18</v>
       </c>
       <c r="H77" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I77" s="36"/>
       <c r="J77" s="36">
@@ -5779,7 +5779,7 @@
         <v>18</v>
       </c>
       <c r="H78" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I78" s="36"/>
       <c r="J78" s="36">
@@ -5838,7 +5838,7 @@
         <v>18</v>
       </c>
       <c r="H79" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I79" s="36"/>
       <c r="J79" s="36">
@@ -5851,7 +5851,7 @@
         <v>1</v>
       </c>
       <c r="M79" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N79" s="39" t="s">
         <v>55</v>
@@ -5897,7 +5897,7 @@
         <v>18</v>
       </c>
       <c r="H80" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I80" s="36"/>
       <c r="J80" s="36">
@@ -5937,7 +5937,7 @@
         <v>64</v>
       </c>
       <c r="B81" s="36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C81" s="37" t="s">
         <v>37</v>
@@ -5956,7 +5956,7 @@
         <v>18</v>
       </c>
       <c r="H81" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I81" s="36"/>
       <c r="J81" s="36">
@@ -5996,7 +5996,7 @@
         <v>65</v>
       </c>
       <c r="B82" s="36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C82" s="37" t="s">
         <v>37</v>
@@ -6015,7 +6015,7 @@
         <v>18</v>
       </c>
       <c r="H82" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I82" s="36"/>
       <c r="J82" s="36">
@@ -6028,7 +6028,7 @@
         <v>1</v>
       </c>
       <c r="M82" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N82" s="39" t="s">
         <v>55</v>
@@ -6055,7 +6055,7 @@
         <v>66</v>
       </c>
       <c r="B83" s="36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C83" s="37" t="s">
         <v>37</v>
@@ -6074,7 +6074,7 @@
         <v>18</v>
       </c>
       <c r="H83" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I83" s="36"/>
       <c r="J83" s="36">
@@ -6114,7 +6114,7 @@
         <v>67</v>
       </c>
       <c r="B84" s="36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C84" s="37" t="s">
         <v>37</v>
@@ -6133,7 +6133,7 @@
         <v>18</v>
       </c>
       <c r="H84" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I84" s="36"/>
       <c r="J84" s="36">
@@ -24521,10 +24521,10 @@
         <v>23</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -24575,10 +24575,10 @@
         <v>23</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>252</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>253</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -24629,10 +24629,10 @@
         <v>23</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -24671,7 +24671,7 @@
         <v>1030</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C7" s="3">
         <v>30</v>
@@ -24683,10 +24683,10 @@
         <v>23</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -24725,7 +24725,7 @@
         <v>1031</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C8" s="3">
         <v>31</v>
@@ -24737,10 +24737,10 @@
         <v>23</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -24779,7 +24779,7 @@
         <v>1032</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C9" s="3">
         <v>32</v>
@@ -24791,10 +24791,10 @@
         <v>23</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>55</v>
@@ -24833,7 +24833,7 @@
         <v>1033</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C10" s="3">
         <v>33</v>
@@ -24845,10 +24845,10 @@
         <v>23</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -24860,7 +24860,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>55</v>
@@ -24887,7 +24887,7 @@
         <v>1034</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C11" s="3">
         <v>34</v>
@@ -24899,10 +24899,10 @@
         <v>23</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -24941,7 +24941,7 @@
         <v>1035</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C12" s="3">
         <v>35</v>
@@ -24953,10 +24953,10 @@
         <v>23</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -24995,7 +24995,7 @@
         <v>1036</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C13" s="3">
         <v>36</v>
@@ -25007,10 +25007,10 @@
         <v>23</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -25049,7 +25049,7 @@
         <v>1037</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C14" s="3">
         <v>37</v>
@@ -25061,10 +25061,10 @@
         <v>23</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -25103,7 +25103,7 @@
         <v>1038</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C15" s="3">
         <v>38</v>
@@ -25115,10 +25115,10 @@
         <v>23</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -25157,7 +25157,7 @@
         <v>1039</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C16" s="3">
         <v>39</v>
@@ -25169,10 +25169,10 @@
         <v>23</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -25211,7 +25211,7 @@
         <v>1040</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C17" s="3">
         <v>40</v>
@@ -25223,10 +25223,10 @@
         <v>23</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -25265,7 +25265,7 @@
         <v>1041</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C18" s="3">
         <v>41</v>
@@ -25277,10 +25277,10 @@
         <v>23</v>
       </c>
       <c r="F18" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -25319,7 +25319,7 @@
         <v>1042</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C19" s="3">
         <v>42</v>
@@ -25331,10 +25331,10 @@
         <v>23</v>
       </c>
       <c r="F19" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -25373,7 +25373,7 @@
         <v>1043</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" s="3">
         <v>43</v>
@@ -25385,10 +25385,10 @@
         <v>23</v>
       </c>
       <c r="F20" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -25427,7 +25427,7 @@
         <v>1044</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C21" s="3">
         <v>44</v>
@@ -25439,10 +25439,10 @@
         <v>23</v>
       </c>
       <c r="F21" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -25481,7 +25481,7 @@
         <v>1045</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="3">
         <v>45</v>
@@ -25493,10 +25493,10 @@
         <v>23</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>1046</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C23" s="3">
         <v>46</v>
@@ -25547,10 +25547,10 @@
         <v>23</v>
       </c>
       <c r="F23" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -25589,7 +25589,7 @@
         <v>1047</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C24" s="3">
         <v>47</v>
@@ -25601,10 +25601,10 @@
         <v>23</v>
       </c>
       <c r="F24" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>1048</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C25" s="3">
         <v>48</v>
@@ -25655,10 +25655,10 @@
         <v>23</v>
       </c>
       <c r="F25" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -25697,7 +25697,7 @@
         <v>1049</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C26" s="3">
         <v>49</v>
@@ -25709,10 +25709,10 @@
         <v>23</v>
       </c>
       <c r="F26" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -25751,7 +25751,7 @@
         <v>1050</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C27" s="3">
         <v>50</v>
@@ -25763,10 +25763,10 @@
         <v>23</v>
       </c>
       <c r="F27" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -25805,7 +25805,7 @@
         <v>1051</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C28" s="3">
         <v>51</v>
@@ -25817,10 +25817,10 @@
         <v>23</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -25859,7 +25859,7 @@
         <v>1052</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C29" s="3">
         <v>52</v>
@@ -25871,10 +25871,10 @@
         <v>23</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>1053</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C30" s="3">
         <v>53</v>
@@ -25925,10 +25925,10 @@
         <v>23</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H30" s="3">
         <v>0</v>
@@ -25967,7 +25967,7 @@
         <v>1054</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C31" s="3">
         <v>54</v>
@@ -25979,10 +25979,10 @@
         <v>23</v>
       </c>
       <c r="F31" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>204</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
@@ -26021,7 +26021,7 @@
         <v>1055</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C32" s="3">
         <v>55</v>
@@ -26033,10 +26033,10 @@
         <v>23</v>
       </c>
       <c r="F32" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -26075,7 +26075,7 @@
         <v>1057</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C33" s="3">
         <v>57</v>
@@ -26087,10 +26087,10 @@
         <v>23</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -26102,7 +26102,7 @@
         <v>2</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L33" s="12" t="s">
         <v>55</v>
@@ -26129,7 +26129,7 @@
         <v>1058</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C34" s="3">
         <v>58</v>
@@ -26141,10 +26141,10 @@
         <v>23</v>
       </c>
       <c r="F34" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
@@ -26183,7 +26183,7 @@
         <v>1059</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C35" s="3">
         <v>59</v>
@@ -26195,10 +26195,10 @@
         <v>23</v>
       </c>
       <c r="F35" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -26237,7 +26237,7 @@
         <v>1060</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C36" s="3">
         <v>60</v>
@@ -26249,10 +26249,10 @@
         <v>23</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H36" s="3">
         <v>0</v>
@@ -26291,7 +26291,7 @@
         <v>1061</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C37" s="3">
         <v>61</v>
@@ -26303,10 +26303,10 @@
         <v>23</v>
       </c>
       <c r="F37" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="H37" s="3">
         <v>0</v>
@@ -26345,7 +26345,7 @@
         <v>1062</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C38" s="3">
         <v>62</v>
@@ -26357,10 +26357,10 @@
         <v>23</v>
       </c>
       <c r="F38" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="H38" s="3">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L38" s="12" t="s">
         <v>55</v>
@@ -26399,7 +26399,7 @@
         <v>1064</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C39" s="3">
         <v>64</v>
@@ -26411,10 +26411,10 @@
         <v>23</v>
       </c>
       <c r="F39" s="43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
@@ -26453,7 +26453,7 @@
         <v>1065</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C40" s="3">
         <v>65</v>
@@ -26465,10 +26465,10 @@
         <v>23</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
@@ -26480,7 +26480,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>55</v>
@@ -26507,7 +26507,7 @@
         <v>1066</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C41" s="3">
         <v>66</v>
@@ -26519,10 +26519,10 @@
         <v>23</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -26561,7 +26561,7 @@
         <v>1067</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C42" s="3">
         <v>67</v>
@@ -26573,10 +26573,10 @@
         <v>23</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -26615,7 +26615,7 @@
         <v>1071</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C43" s="3">
         <v>71</v>
@@ -26667,7 +26667,7 @@
         <v>1081</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C44" s="3">
         <v>81</v>
@@ -26719,7 +26719,7 @@
         <v>1082</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C45" s="3">
         <v>82</v>
@@ -44808,9 +44808,9 @@
   </sheetPr>
   <dimension ref="A1:X1017"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -44881,7 +44881,7 @@
         <v>1104</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>31</v>
@@ -44914,7 +44914,7 @@
         <v>1105</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>17</v>
@@ -44948,13 +44948,13 @@
         <v>1170</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C4" s="3">
         <v>70</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>55</v>
@@ -44982,13 +44982,13 @@
         <v>1172</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C5" s="3">
         <v>72</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>55</v>
@@ -45016,13 +45016,13 @@
         <v>1173</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C6" s="3">
         <v>73</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>55</v>
@@ -45050,13 +45050,13 @@
         <v>1174</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C7" s="3">
         <v>74</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>55</v>
@@ -45084,13 +45084,13 @@
         <v>1175</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C8" s="3">
         <v>75</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>55</v>
@@ -45118,13 +45118,13 @@
         <v>1176</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C9" s="3">
         <v>76</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>55</v>
@@ -45152,13 +45152,13 @@
         <v>1177</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C10" s="3">
         <v>77</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>55</v>
@@ -45186,13 +45186,13 @@
         <v>1178</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C11" s="3">
         <v>78</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>55</v>
@@ -45220,13 +45220,13 @@
         <v>1179</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C12" s="3">
         <v>79</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>55</v>
@@ -45254,13 +45254,13 @@
         <v>1180</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C13" s="3">
         <v>80</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>55</v>
@@ -45288,13 +45288,13 @@
         <v>1183</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C14" s="3">
         <v>83</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>55</v>
@@ -45322,13 +45322,13 @@
         <v>1184</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C15" s="3">
         <v>84</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>55</v>
@@ -45356,13 +45356,13 @@
         <v>1185</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C16" s="3">
         <v>85</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>55</v>
@@ -45390,13 +45390,13 @@
         <v>1186</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C17" s="3">
         <v>86</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>55</v>
@@ -45424,13 +45424,13 @@
         <v>1187</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C18" s="3">
         <v>87</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>55</v>
@@ -45458,7 +45458,7 @@
         <v>1111</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C19" s="3">
         <v>11</v>
@@ -45492,7 +45492,7 @@
         <v>1112</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C20" s="3">
         <v>12</v>
@@ -45526,7 +45526,7 @@
         <v>1110</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C21" s="3">
         <v>10</v>
@@ -45560,7 +45560,7 @@
         <v>1108</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C22" s="3">
         <v>8</v>
@@ -45594,7 +45594,7 @@
         <v>1109</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C23" s="3">
         <v>9</v>
@@ -45628,7 +45628,7 @@
         <v>1113</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C24" s="3">
         <v>13</v>
@@ -45662,7 +45662,7 @@
         <v>1114</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C25" s="3">
         <v>14</v>
@@ -45696,7 +45696,7 @@
         <v>1115</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C26" s="3">
         <v>15</v>
@@ -45730,7 +45730,7 @@
         <v>1116</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C27" s="3">
         <v>16</v>
@@ -45764,7 +45764,7 @@
         <v>1117</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C28" s="3">
         <v>17</v>
@@ -45798,7 +45798,7 @@
         <v>1118</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C29" s="3">
         <v>18</v>
@@ -45832,7 +45832,7 @@
         <v>1119</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C30" s="3">
         <v>19</v>
@@ -45866,7 +45866,7 @@
         <v>1120</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C31" s="3">
         <v>20</v>
@@ -45900,7 +45900,7 @@
         <v>1121</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C32" s="3">
         <v>21</v>
@@ -45934,7 +45934,7 @@
         <v>1122</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="C33" s="3">
         <v>22</v>
@@ -45968,7 +45968,7 @@
         <v>1123</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C34" s="3">
         <v>23</v>
@@ -46002,7 +46002,7 @@
         <v>1124</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C35" s="3">
         <v>24</v>
@@ -58928,7 +58928,7 @@
         <v>1203</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C2" s="19">
         <v>3</v>
@@ -58980,7 +58980,7 @@
         <v>1225</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C3" s="3">
         <v>25</v>
@@ -59024,7 +59024,7 @@
         <v>1226</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C4" s="23">
         <v>26</v>
@@ -59068,7 +59068,7 @@
         <v>1227</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C5" s="23">
         <v>27</v>
@@ -59112,7 +59112,7 @@
         <v>1228</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C6" s="23">
         <v>28</v>

--- a/taks.xlsx
+++ b/taks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\CodeProjects\TAKAutomator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386BF0B5-F0FD-4833-BA19-37AD3E49A124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B3E0B5-46AB-4351-B520-5760B565AF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_concepts" sheetId="1" r:id="rId1"/>
@@ -1434,9 +1434,9 @@
   </sheetPr>
   <dimension ref="A1:T907"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -44808,7 +44808,7 @@
   </sheetPr>
   <dimension ref="A1:X1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>

--- a/taks.xlsx
+++ b/taks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\CodeProjects\TAKAutomator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B3E0B5-46AB-4351-B520-5760B565AF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC525DF5-4E37-46D2-8E1A-1E821C7AD4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_concepts" sheetId="1" r:id="rId1"/>
@@ -1434,9 +1434,9 @@
   </sheetPr>
   <dimension ref="A1:T907"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24294,7 +24294,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -24305,9 +24305,9 @@
   </sheetPr>
   <dimension ref="A1:AF993"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="A33:XFD33"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/taks.xlsx
+++ b/taks.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\CodeProjects\TAKAutomator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC525DF5-4E37-46D2-8E1A-1E821C7AD4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15E571F-03A0-41CB-8971-878BF50C7AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_concepts" sheetId="1" r:id="rId1"/>
     <sheet name="states" sheetId="2" r:id="rId2"/>
     <sheet name="events" sheetId="3" r:id="rId3"/>
     <sheet name="contexts" sheetId="5" r:id="rId4"/>
-    <sheet name="patterns" sheetId="4" r:id="rId5"/>
-    <sheet name="scenarios" sheetId="6" r:id="rId6"/>
+    <sheet name="trends" sheetId="7" r:id="rId5"/>
+    <sheet name="patterns" sheetId="4" r:id="rId6"/>
+    <sheet name="scenarios" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">raw_concepts!$A$1:$T$907</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="351">
   <si>
     <t>TYPE</t>
   </si>
@@ -963,6 +964,141 @@
   <si>
     <t>INFECTION_EVENT</t>
   </si>
+  <si>
+    <t>SIGNIFICANT_VARIATION</t>
+  </si>
+  <si>
+    <t>TIME_STEADY_VALUE</t>
+  </si>
+  <si>
+    <t>TIME_STEADY_UNIT</t>
+  </si>
+  <si>
+    <t>GLUCOSE_LEVEL_EVENT</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>Measurements</t>
+  </si>
+  <si>
+    <t>GLUCOSE_MEASURE_LAB_TREND</t>
+  </si>
+  <si>
+    <t>GLUCOSE_MEASURE_CAPILLARY_TREND</t>
+  </si>
+  <si>
+    <t>HEMOGLOBIN_MEASURE_TREND</t>
+  </si>
+  <si>
+    <t>HEMOGLOBIN_DISTRIBUTION_MEASURE_TREND</t>
+  </si>
+  <si>
+    <t>HEMOGLOBIN-A1C_MEASURE_TREND</t>
+  </si>
+  <si>
+    <t>HEMATOCRIT_MEASURE_TREND</t>
+  </si>
+  <si>
+    <t>MCV_MEASURE_TREND</t>
+  </si>
+  <si>
+    <t>MCH_MEASURE_TREND</t>
+  </si>
+  <si>
+    <t>LYMPHOCYTES_MEASURE_TREND</t>
+  </si>
+  <si>
+    <t>NEUTROPHILS_MEASURE_TREND</t>
+  </si>
+  <si>
+    <t>MONOCYTES_MEASURE_TREND</t>
+  </si>
+  <si>
+    <t>RDW_MEASURE_TREND</t>
+  </si>
+  <si>
+    <t>PLT_MEASURE_TREND</t>
+  </si>
+  <si>
+    <t>PLT_DISTRIBUTION_MEASURE_TREND</t>
+  </si>
+  <si>
+    <t>MPV_MEASURE_TREND</t>
+  </si>
+  <si>
+    <t>CREATININE_MEASURE_SERUM_TREND</t>
+  </si>
+  <si>
+    <t>CREATININE_MEASURE_URINE_TREND</t>
+  </si>
+  <si>
+    <t>UREA_MEASURE_TREND</t>
+  </si>
+  <si>
+    <t>ALBUMIN_MEASURE_SERUM_TREND</t>
+  </si>
+  <si>
+    <t>ALBUMIN_MEASURE_URINE_TREND</t>
+  </si>
+  <si>
+    <t>SODIUM_MEASURE_BLOOD_TREND</t>
+  </si>
+  <si>
+    <t>SODIUM_MEASURE_URINE_TREND</t>
+  </si>
+  <si>
+    <t>POTASSIUM_MEASURE_TREND</t>
+  </si>
+  <si>
+    <t>ASPARATE-AMINOTRANSFERASE_MEASURE_TREND</t>
+  </si>
+  <si>
+    <t>ALANINE-AMINOTRANSFERASE_SERUM_TREND</t>
+  </si>
+  <si>
+    <t>ALANINE-AMINOTRANSFERASE_BLOOD_TREND</t>
+  </si>
+  <si>
+    <t>PH_MEASURE_TREND</t>
+  </si>
+  <si>
+    <t>BICARBONATE_MEASURE_TREND</t>
+  </si>
+  <si>
+    <t>ALKALINE-PHOSPHATASE_MEASURE_TREND</t>
+  </si>
+  <si>
+    <t>BLOOD_PRESSURE_MEASURE_TREND</t>
+  </si>
+  <si>
+    <t>BLOOD_PRESSURE_SYSTOLIC_MEASURE_TREND</t>
+  </si>
+  <si>
+    <t>BLOOD_PRESSURE_DIASTOLIC_MEASURE_TREND</t>
+  </si>
+  <si>
+    <t>HEART_RATE_MEASURE_TREND</t>
+  </si>
+  <si>
+    <t>E-GFR_MEASURE_TREND</t>
+  </si>
+  <si>
+    <t>CREATINE-KINASE_MEASURE_TREND</t>
+  </si>
+  <si>
+    <t>CHOLESTEROL_MEASURE_TREND</t>
+  </si>
+  <si>
+    <t>TROPONIN_SERUM_MEASURE_TREND</t>
+  </si>
+  <si>
+    <t>TROPONIN_BLOOD_MEASURE_TREND</t>
+  </si>
+  <si>
+    <t>GLUCOSE_LEVEL_TREND</t>
+  </si>
 </sst>
 </file>
 
@@ -1046,7 +1182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1095,11 +1231,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1214,6 +1365,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1435,8 +1599,8 @@
   <dimension ref="A1:T907"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24305,9 +24469,9 @@
   </sheetPr>
   <dimension ref="A1:AF993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -44806,11 +44970,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X1017"/>
+  <dimension ref="A1:X1018"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -44825,7 +44989,7 @@
     <col min="8" max="8" width="15.44140625" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.109375" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44876,116 +45040,115 @@
       <c r="W1" s="8"/>
       <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:24" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45">
         <v>1104</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="45" t="s">
         <v>289</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="E2" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="45"/>
+    </row>
+    <row r="3" spans="1:24" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="45">
         <v>1105</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <f>1100+C4</f>
-        <v>1170</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C4" s="3">
-        <v>70</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" s="3"/>
+      <c r="E3" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="45"/>
+    </row>
+    <row r="4" spans="1:24" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45">
+        <v>1101</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="45"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <f t="shared" ref="A5:A35" si="0">1100+C5</f>
-        <v>1172</v>
+        <f>1100+C5</f>
+        <v>1170</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C5" s="3">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>235</v>
@@ -45012,14 +45175,14 @@
     </row>
     <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <f t="shared" si="0"/>
-        <v>1173</v>
+        <f t="shared" ref="A6:A36" si="0">1100+C6</f>
+        <v>1172</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C6" s="3">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>235</v>
@@ -45047,13 +45210,13 @@
     <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C7" s="3">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>235</v>
@@ -45081,13 +45244,13 @@
     <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C8" s="3">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>235</v>
@@ -45115,13 +45278,13 @@
     <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C9" s="3">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>235</v>
@@ -45149,13 +45312,13 @@
     <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C10" s="3">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>235</v>
@@ -45183,13 +45346,13 @@
     <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C11" s="3">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>235</v>
@@ -45217,13 +45380,13 @@
     <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C12" s="3">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>235</v>
@@ -45251,13 +45414,13 @@
     <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="C13" s="3">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>235</v>
@@ -45285,13 +45448,13 @@
     <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="C14" s="3">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>235</v>
@@ -45319,13 +45482,13 @@
     <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C15" s="3">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>235</v>
@@ -45353,13 +45516,13 @@
     <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C16" s="3">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>235</v>
@@ -45387,13 +45550,13 @@
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C17" s="3">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>235</v>
@@ -45421,13 +45584,13 @@
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C18" s="3">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>235</v>
@@ -45455,16 +45618,16 @@
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
-        <v>1111</v>
+        <v>1187</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C19" s="3">
-        <v>11</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>112</v>
+        <v>87</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>235</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>55</v>
@@ -45479,7 +45642,7 @@
         <v>55</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J19" s="14" t="s">
         <v>55</v>
@@ -45489,16 +45652,16 @@
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C20" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>55</v>
@@ -45523,16 +45686,16 @@
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C21" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>55</v>
@@ -45557,16 +45720,16 @@
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C22" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>55</v>
@@ -45591,13 +45754,13 @@
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C23" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>115</v>
@@ -45625,13 +45788,13 @@
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
-        <v>1113</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>268</v>
+        <v>1109</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="C24" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>115</v>
@@ -45659,13 +45822,13 @@
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
-        <v>1114</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>269</v>
+        <v>1113</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>268</v>
       </c>
       <c r="C25" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>115</v>
@@ -45693,13 +45856,13 @@
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C26" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>115</v>
@@ -45727,13 +45890,13 @@
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C27" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>115</v>
@@ -45761,13 +45924,13 @@
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C28" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>115</v>
@@ -45795,13 +45958,13 @@
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C29" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>115</v>
@@ -45829,13 +45992,13 @@
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C30" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>115</v>
@@ -45863,13 +46026,13 @@
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C31" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>115</v>
@@ -45897,13 +46060,13 @@
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C32" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>115</v>
@@ -45931,13 +46094,13 @@
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="C33" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>115</v>
@@ -45965,13 +46128,13 @@
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="C34" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>115</v>
@@ -45999,13 +46162,13 @@
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C35" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>115</v>
@@ -46031,16 +46194,37 @@
       <c r="K35" s="3"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
+      <c r="A36" s="3">
+        <f t="shared" si="0"/>
+        <v>1124</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C36" s="3">
+        <v>24</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="K36" s="3"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -58796,12 +58980,25 @@
       <c r="J1017" s="14"/>
       <c r="K1017" s="3"/>
     </row>
+    <row r="1018" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1018" s="3"/>
+      <c r="B1018" s="3"/>
+      <c r="C1018" s="3"/>
+      <c r="D1018" s="3"/>
+      <c r="E1018" s="14"/>
+      <c r="F1018" s="14"/>
+      <c r="G1018" s="14"/>
+      <c r="H1018" s="14"/>
+      <c r="I1018" s="14"/>
+      <c r="J1018" s="14"/>
+      <c r="K1018" s="3"/>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576 C14:C35" xr:uid="{98A4E0C0-623A-43B0-A1B2-0ACD9C28F3FC}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576 C15:C36" xr:uid="{98A4E0C0-623A-43B0-A1B2-0ACD9C28F3FC}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Error" error="Currently, The implementation requires a derived from concept id, but the program is not planned to deal with TAKs that have more then 1 base concepts. Please focus on one at the time, or contact developers." sqref="C4:C13" xr:uid="{60DADC71-9D75-41E9-8E91-4A0A84ACE9E1}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Error" error="Currently, The implementation requires a derived from concept id, but the program is not planned to deal with TAKs that have more then 1 base concepts. Please focus on one at the time, or contact developers." sqref="C5:C14" xr:uid="{60DADC71-9D75-41E9-8E91-4A0A84ACE9E1}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:J1048576" xr:uid="{BD14D827-2ED4-418B-B045-D2154EB50A63}">
       <formula1>"true, false"</formula1>
     </dataValidation>
@@ -58820,7 +59017,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -60179,6 +60376,885 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A161545-DA5F-4FD2-8279-D89A8EE73974}">
+  <dimension ref="A1:F40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <f t="shared" ref="A2" si="0">C2+1300</f>
+        <v>2401</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1101</v>
+      </c>
+      <c r="D2" s="23">
+        <v>30</v>
+      </c>
+      <c r="E2" s="23">
+        <v>24</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <f>C3+1300</f>
+        <v>1301</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23">
+        <v>40</v>
+      </c>
+      <c r="E3" s="23">
+        <v>24</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <f t="shared" ref="A4:A40" si="1">C4+1300</f>
+        <v>1302</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="23">
+        <v>30</v>
+      </c>
+      <c r="E4" s="23">
+        <v>24</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <f t="shared" si="1"/>
+        <v>1330</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5" s="3">
+        <v>30</v>
+      </c>
+      <c r="D5" s="23">
+        <v>5</v>
+      </c>
+      <c r="E5" s="23">
+        <v>24</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <f t="shared" si="1"/>
+        <v>1331</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" s="3">
+        <v>31</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="E6" s="23">
+        <v>24</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <f t="shared" si="1"/>
+        <v>1332</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" s="3">
+        <v>32</v>
+      </c>
+      <c r="D7" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="23">
+        <v>24</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <f t="shared" si="1"/>
+        <v>1333</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" s="3">
+        <v>33</v>
+      </c>
+      <c r="D8" s="23">
+        <v>5</v>
+      </c>
+      <c r="E8" s="23">
+        <v>24</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <f t="shared" si="1"/>
+        <v>1334</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C9" s="3">
+        <v>34</v>
+      </c>
+      <c r="D9" s="23">
+        <v>10</v>
+      </c>
+      <c r="E9" s="23">
+        <v>24</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <f t="shared" si="1"/>
+        <v>1335</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C10" s="3">
+        <v>35</v>
+      </c>
+      <c r="D10" s="23">
+        <v>5</v>
+      </c>
+      <c r="E10" s="23">
+        <v>24</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <f t="shared" si="1"/>
+        <v>1336</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C11" s="3">
+        <v>36</v>
+      </c>
+      <c r="D11" s="23">
+        <v>5</v>
+      </c>
+      <c r="E11" s="23">
+        <v>24</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <f t="shared" si="1"/>
+        <v>1337</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C12" s="3">
+        <v>37</v>
+      </c>
+      <c r="D12" s="23">
+        <v>5</v>
+      </c>
+      <c r="E12" s="23">
+        <v>24</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <f t="shared" si="1"/>
+        <v>1338</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C13" s="3">
+        <v>38</v>
+      </c>
+      <c r="D13" s="23">
+        <v>5</v>
+      </c>
+      <c r="E13" s="23">
+        <v>24</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <f t="shared" si="1"/>
+        <v>1339</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C14" s="3">
+        <v>39</v>
+      </c>
+      <c r="D14" s="23">
+        <v>5</v>
+      </c>
+      <c r="E14" s="23">
+        <v>24</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <f t="shared" si="1"/>
+        <v>1340</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C15" s="3">
+        <v>40</v>
+      </c>
+      <c r="D15" s="23">
+        <v>50</v>
+      </c>
+      <c r="E15" s="23">
+        <v>24</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <f t="shared" si="1"/>
+        <v>1341</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C16" s="3">
+        <v>41</v>
+      </c>
+      <c r="D16" s="23">
+        <v>5</v>
+      </c>
+      <c r="E16" s="23">
+        <v>24</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <f t="shared" si="1"/>
+        <v>1342</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C17" s="3">
+        <v>42</v>
+      </c>
+      <c r="D17" s="23">
+        <v>5</v>
+      </c>
+      <c r="E17" s="23">
+        <v>24</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <f t="shared" si="1"/>
+        <v>1343</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C18" s="3">
+        <v>43</v>
+      </c>
+      <c r="D18" s="23">
+        <v>5</v>
+      </c>
+      <c r="E18" s="23">
+        <v>24</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <f t="shared" si="1"/>
+        <v>1344</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44</v>
+      </c>
+      <c r="D19" s="23">
+        <v>2500</v>
+      </c>
+      <c r="E19" s="23">
+        <v>24</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <f t="shared" si="1"/>
+        <v>1345</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C20" s="3">
+        <v>45</v>
+      </c>
+      <c r="D20" s="23">
+        <v>10</v>
+      </c>
+      <c r="E20" s="23">
+        <v>24</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <f t="shared" si="1"/>
+        <v>1346</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C21" s="3">
+        <v>46</v>
+      </c>
+      <c r="D21" s="23">
+        <v>5</v>
+      </c>
+      <c r="E21" s="23">
+        <v>24</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <f t="shared" si="1"/>
+        <v>1347</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C22" s="3">
+        <v>47</v>
+      </c>
+      <c r="D22" s="23">
+        <v>500</v>
+      </c>
+      <c r="E22" s="23">
+        <v>24</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <f t="shared" si="1"/>
+        <v>1348</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C23" s="3">
+        <v>48</v>
+      </c>
+      <c r="D23" s="23">
+        <v>10</v>
+      </c>
+      <c r="E23" s="23">
+        <v>24</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <f t="shared" si="1"/>
+        <v>1349</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C24" s="3">
+        <v>49</v>
+      </c>
+      <c r="D24" s="23">
+        <v>50</v>
+      </c>
+      <c r="E24" s="23">
+        <v>24</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <f t="shared" si="1"/>
+        <v>1350</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C25" s="3">
+        <v>50</v>
+      </c>
+      <c r="D25" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="23">
+        <v>24</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <f t="shared" si="1"/>
+        <v>1351</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C26" s="3">
+        <v>51</v>
+      </c>
+      <c r="D26" s="23">
+        <v>50</v>
+      </c>
+      <c r="E26" s="23">
+        <v>24</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <f t="shared" si="1"/>
+        <v>1352</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C27" s="3">
+        <v>52</v>
+      </c>
+      <c r="D27" s="23">
+        <v>50</v>
+      </c>
+      <c r="E27" s="23">
+        <v>24</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f t="shared" si="1"/>
+        <v>1353</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C28" s="3">
+        <v>53</v>
+      </c>
+      <c r="D28" s="23">
+        <v>50</v>
+      </c>
+      <c r="E28" s="23">
+        <v>24</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f t="shared" si="1"/>
+        <v>1354</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C29" s="3">
+        <v>54</v>
+      </c>
+      <c r="D29" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="23">
+        <v>24</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f t="shared" si="1"/>
+        <v>1355</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C30" s="3">
+        <v>55</v>
+      </c>
+      <c r="D30" s="23">
+        <v>2.5</v>
+      </c>
+      <c r="E30" s="23">
+        <v>24</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f t="shared" si="1"/>
+        <v>1357</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C31" s="3">
+        <v>57</v>
+      </c>
+      <c r="D31" s="23">
+        <v>50</v>
+      </c>
+      <c r="E31" s="23">
+        <v>24</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <f t="shared" si="1"/>
+        <v>1358</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C32" s="3">
+        <v>58</v>
+      </c>
+      <c r="D32" s="23">
+        <v>15</v>
+      </c>
+      <c r="E32" s="23">
+        <v>24</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <f t="shared" si="1"/>
+        <v>1359</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C33" s="3">
+        <v>59</v>
+      </c>
+      <c r="D33" s="23">
+        <v>15</v>
+      </c>
+      <c r="E33" s="23">
+        <v>24</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <f t="shared" si="1"/>
+        <v>1360</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C34" s="3">
+        <v>60</v>
+      </c>
+      <c r="D34" s="23">
+        <v>10</v>
+      </c>
+      <c r="E34" s="23">
+        <v>24</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <f t="shared" si="1"/>
+        <v>1361</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C35" s="3">
+        <v>61</v>
+      </c>
+      <c r="D35" s="23">
+        <v>12.5</v>
+      </c>
+      <c r="E35" s="23">
+        <v>24</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <f t="shared" si="1"/>
+        <v>1362</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C36" s="3">
+        <v>62</v>
+      </c>
+      <c r="D36" s="23">
+        <v>10</v>
+      </c>
+      <c r="E36" s="23">
+        <v>24</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <f t="shared" si="1"/>
+        <v>1364</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C37" s="3">
+        <v>64</v>
+      </c>
+      <c r="D37" s="23">
+        <v>50000</v>
+      </c>
+      <c r="E37" s="23">
+        <v>24</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <f t="shared" si="1"/>
+        <v>1365</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C38" s="3">
+        <v>65</v>
+      </c>
+      <c r="D38" s="23">
+        <v>50</v>
+      </c>
+      <c r="E38" s="23">
+        <v>24</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <f t="shared" si="1"/>
+        <v>1366</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C39" s="3">
+        <v>66</v>
+      </c>
+      <c r="D39" s="23">
+        <v>5</v>
+      </c>
+      <c r="E39" s="23">
+        <v>24</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <f t="shared" si="1"/>
+        <v>1367</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C40" s="3">
+        <v>67</v>
+      </c>
+      <c r="D40" s="23">
+        <v>5</v>
+      </c>
+      <c r="E40" s="23">
+        <v>24</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Error" error="Currently, The implementation requires a derived from concept id, but the program is not planned to deal with TAKs that have more then 1 base concepts. Please focus on one at the time, or contact developers." sqref="C41:C1048576" xr:uid="{8ABBC965-E4AD-41DF-BBA6-1A0764036D82}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C40 A2:A1048576" xr:uid="{8FB02B24-4335-4796-A419-BD1D41E71A06}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D1048576 D2" xr:uid="{541E5BD0-9031-4A98-945D-A434CC5DE9D9}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{5ABE6B5A-333F-461C-9785-CAB0E7903CEF}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{0A768F11-6EE3-4A52-85B7-9AABF30B7B8F}">
+      <formula1>"second, minute, hour, day, week, month, year"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -61226,7 +62302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/taks.xlsx
+++ b/taks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\CodeProjects\TAKAutomator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AAF96E-4D46-4432-B03B-C4255D697EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDF793E-D52F-4593-9055-3063EAC4F6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_concepts" sheetId="1" r:id="rId1"/>
@@ -24,19 +24,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">raw_concepts!$A$1:$T$907</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="m83MNRr2xD5s28t3NAVNceEtqFMD8kPYDDFbaPOQWh4="/>
     </ext>
@@ -45,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="348">
   <si>
     <t>TYPE</t>
   </si>
@@ -731,19 +720,7 @@
     <t>HEMOGLOBIN_MEASURE_TREND</t>
   </si>
   <si>
-    <t>HEMOGLOBIN_DISTRIBUTION_MEASURE_TREND</t>
-  </si>
-  <si>
-    <t>HEMOGLOBIN-A1C_MEASURE_TREND</t>
-  </si>
-  <si>
     <t>HEMATOCRIT_MEASURE_TREND</t>
-  </si>
-  <si>
-    <t>MCV_MEASURE_TREND</t>
-  </si>
-  <si>
-    <t>MCH_MEASURE_TREND</t>
   </si>
   <si>
     <t>LYMPHOCYTES_MEASURE_TREND</t>
@@ -755,16 +732,7 @@
     <t>MONOCYTES_MEASURE_TREND</t>
   </si>
   <si>
-    <t>RDW_MEASURE_TREND</t>
-  </si>
-  <si>
     <t>PLT_MEASURE_TREND</t>
-  </si>
-  <si>
-    <t>PLT_DISTRIBUTION_MEASURE_TREND</t>
-  </si>
-  <si>
-    <t>MPV_MEASURE_TREND</t>
   </si>
   <si>
     <t>UREA_MEASURE_TREND</t>
@@ -801,9 +769,6 @@
   </si>
   <si>
     <t>CREATINE-KINASE_MEASURE_TREND</t>
-  </si>
-  <si>
-    <t>CHOLESTEROL_MEASURE_TREND</t>
   </si>
   <si>
     <t>TROPONIN_SERUM_MEASURE_TREND</t>
@@ -1109,9 +1074,6 @@
     <t>SODIUM_BLOOD_MEASURE_TREND</t>
   </si>
   <si>
-    <t>SODIUM_URINE_MEASURE_TREND</t>
-  </si>
-  <si>
     <t>ALANINE-AMINOTRANSFERASE_SERUM_MEASURE_TREND</t>
   </si>
   <si>
@@ -1268,7 +1230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1382,8 +1344,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1604,9 +1565,9 @@
   </sheetPr>
   <dimension ref="A1:T907"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B45"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1625,7 +1586,6 @@
     <col min="13" max="13" width="46.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="19" width="31.21875" style="16" customWidth="1"/>
     <col min="20" max="20" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="12.6640625" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
@@ -1695,7 +1655,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
@@ -1809,7 +1769,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>28</v>
@@ -4043,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C46" s="35" t="s">
         <v>28</v>
@@ -4102,7 +4062,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C47" s="35" t="s">
         <v>28</v>
@@ -4156,7 +4116,7 @@
       </c>
       <c r="T47" s="38"/>
     </row>
-    <row r="48" spans="1:20" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="34">
         <v>30</v>
       </c>
@@ -4215,7 +4175,7 @@
       </c>
       <c r="T48" s="38"/>
     </row>
-    <row r="49" spans="1:20" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="34">
         <v>31</v>
       </c>
@@ -4274,7 +4234,7 @@
       </c>
       <c r="T49" s="38"/>
     </row>
-    <row r="50" spans="1:20" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="34">
         <v>32</v>
       </c>
@@ -4333,7 +4293,7 @@
       </c>
       <c r="T50" s="38"/>
     </row>
-    <row r="51" spans="1:20" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="34">
         <v>33</v>
       </c>
@@ -4392,7 +4352,7 @@
       </c>
       <c r="T51" s="38"/>
     </row>
-    <row r="52" spans="1:20" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="34">
         <v>34</v>
       </c>
@@ -4451,7 +4411,7 @@
       </c>
       <c r="T52" s="38"/>
     </row>
-    <row r="53" spans="1:20" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="34">
         <v>35</v>
       </c>
@@ -4928,7 +4888,7 @@
         <v>43</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C61" s="35" t="s">
         <v>28</v>
@@ -4987,7 +4947,7 @@
         <v>44</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C62" s="35" t="s">
         <v>28</v>
@@ -5105,7 +5065,7 @@
         <v>46</v>
       </c>
       <c r="B64" s="34" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C64" s="35" t="s">
         <v>28</v>
@@ -5164,7 +5124,7 @@
         <v>47</v>
       </c>
       <c r="B65" s="34" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C65" s="35" t="s">
         <v>28</v>
@@ -5223,7 +5183,7 @@
         <v>48</v>
       </c>
       <c r="B66" s="34" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C66" s="35" t="s">
         <v>28</v>
@@ -5282,7 +5242,7 @@
         <v>49</v>
       </c>
       <c r="B67" s="34" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C67" s="35" t="s">
         <v>28</v>
@@ -5459,7 +5419,7 @@
         <v>52</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C70" s="35" t="s">
         <v>28</v>
@@ -5518,7 +5478,7 @@
         <v>53</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C71" s="35" t="s">
         <v>28</v>
@@ -6344,7 +6304,7 @@
         <v>68</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C85" s="35" t="s">
         <v>28</v>
@@ -6403,7 +6363,7 @@
         <v>69</v>
       </c>
       <c r="B86" s="34" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C86" s="35" t="s">
         <v>28</v>
@@ -24623,7 +24583,7 @@
         <v>1104</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>23</v>
@@ -24656,7 +24616,7 @@
         <v>1105</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -24689,7 +24649,7 @@
         <v>1101</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>225</v>
@@ -39960,9 +39920,9 @@
   </sheetPr>
   <dimension ref="A1:AF995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -40056,7 +40016,7 @@
         <v>1001</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -40112,7 +40072,7 @@
         <v>1002</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -40124,7 +40084,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>20</v>
@@ -40168,7 +40128,7 @@
         <v>1004</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C4" s="3">
         <v>4</v>
@@ -40180,7 +40140,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>173</v>
@@ -40224,7 +40184,7 @@
         <v>1005</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C5" s="3">
         <v>5</v>
@@ -40236,7 +40196,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>173</v>
@@ -40280,7 +40240,7 @@
         <v>1063</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C6" s="3">
         <v>63</v>
@@ -40336,7 +40296,7 @@
         <v>1030</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C7" s="3">
         <v>30</v>
@@ -40348,7 +40308,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>119</v>
@@ -40392,7 +40352,7 @@
         <v>1031</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C8" s="3">
         <v>31</v>
@@ -40448,7 +40408,7 @@
         <v>1032</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C9" s="3">
         <v>32</v>
@@ -40460,7 +40420,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>121</v>
@@ -40504,7 +40464,7 @@
         <v>1033</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C10" s="3">
         <v>33</v>
@@ -40516,7 +40476,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>122</v>
@@ -40560,7 +40520,7 @@
         <v>1034</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C11" s="3">
         <v>34</v>
@@ -40572,10 +40532,10 @@
         <v>15</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -40616,7 +40576,7 @@
         <v>1035</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C12" s="3">
         <v>35</v>
@@ -40628,7 +40588,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>122</v>
@@ -40672,7 +40632,7 @@
         <v>1036</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C13" s="3">
         <v>36</v>
@@ -40684,10 +40644,10 @@
         <v>15</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -40728,7 +40688,7 @@
         <v>1037</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C14" s="3">
         <v>37</v>
@@ -40784,7 +40744,7 @@
         <v>1038</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C15" s="3">
         <v>38</v>
@@ -40796,7 +40756,7 @@
         <v>15</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>125</v>
@@ -40840,7 +40800,7 @@
         <v>1039</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C16" s="3">
         <v>39</v>
@@ -40852,7 +40812,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>122</v>
@@ -40896,7 +40856,7 @@
         <v>1040</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C17" s="3">
         <v>40</v>
@@ -40908,7 +40868,7 @@
         <v>15</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>126</v>
@@ -40952,7 +40912,7 @@
         <v>1041</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C18" s="3">
         <v>41</v>
@@ -40964,7 +40924,7 @@
         <v>15</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>127</v>
@@ -41008,7 +40968,7 @@
         <v>1042</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C19" s="3">
         <v>42</v>
@@ -41020,7 +40980,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>128</v>
@@ -41064,7 +41024,7 @@
         <v>1043</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C20" s="3">
         <v>43</v>
@@ -41076,7 +41036,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>129</v>
@@ -41120,7 +41080,7 @@
         <v>1044</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C21" s="3">
         <v>44</v>
@@ -41132,7 +41092,7 @@
         <v>15</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>130</v>
@@ -41176,7 +41136,7 @@
         <v>1045</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C22" s="3">
         <v>45</v>
@@ -41188,7 +41148,7 @@
         <v>15</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>122</v>
@@ -41232,7 +41192,7 @@
         <v>1046</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C23" s="3">
         <v>46</v>
@@ -41244,7 +41204,7 @@
         <v>15</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>131</v>
@@ -41288,7 +41248,7 @@
         <v>1047</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C24" s="3">
         <v>47</v>
@@ -41300,7 +41260,7 @@
         <v>15</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>132</v>
@@ -41344,7 +41304,7 @@
         <v>1048</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C25" s="3">
         <v>48</v>
@@ -41400,7 +41360,7 @@
         <v>1049</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C26" s="3">
         <v>49</v>
@@ -41412,10 +41372,10 @@
         <v>15</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -41456,7 +41416,7 @@
         <v>1050</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C27" s="3">
         <v>50</v>
@@ -41512,7 +41472,7 @@
         <v>1051</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C28" s="3">
         <v>51</v>
@@ -41568,7 +41528,7 @@
         <v>1052</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C29" s="3">
         <v>52</v>
@@ -41624,7 +41584,7 @@
         <v>1053</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C30" s="3">
         <v>53</v>
@@ -41680,7 +41640,7 @@
         <v>1054</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C31" s="3">
         <v>54</v>
@@ -41736,7 +41696,7 @@
         <v>1055</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C32" s="3">
         <v>55</v>
@@ -41748,7 +41708,7 @@
         <v>15</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>143</v>
@@ -41792,7 +41752,7 @@
         <v>1057</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C33" s="3">
         <v>57</v>
@@ -41848,7 +41808,7 @@
         <v>1058</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C34" s="3">
         <v>58</v>
@@ -41860,7 +41820,7 @@
         <v>15</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>145</v>
@@ -41904,7 +41864,7 @@
         <v>1059</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C35" s="3">
         <v>59</v>
@@ -41916,7 +41876,7 @@
         <v>15</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>145</v>
@@ -41960,7 +41920,7 @@
         <v>1060</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C36" s="3">
         <v>60</v>
@@ -41972,7 +41932,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>145</v>
@@ -42016,7 +41976,7 @@
         <v>1061</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C37" s="3">
         <v>61</v>
@@ -42072,7 +42032,7 @@
         <v>1062</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C38" s="3">
         <v>62</v>
@@ -42140,7 +42100,7 @@
         <v>15</v>
       </c>
       <c r="F39" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>175</v>
@@ -42196,10 +42156,10 @@
         <v>15</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
@@ -42252,10 +42212,10 @@
         <v>15</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -42308,10 +42268,10 @@
         <v>15</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -42352,7 +42312,7 @@
         <v>1068</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C43" s="3">
         <v>68</v>
@@ -42364,10 +42324,10 @@
         <v>15</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -42408,7 +42368,7 @@
         <v>1069</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C44" s="3">
         <v>69</v>
@@ -42420,10 +42380,10 @@
         <v>15</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -60658,10 +60618,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A161545-DA5F-4FD2-8279-D89A8EE73974}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -60700,16 +60660,16 @@
         <v>2401</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C2" s="3">
         <v>1101</v>
       </c>
       <c r="D2" s="23">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E2" s="23">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>44</v>
@@ -60721,17 +60681,16 @@
         <v>1301</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="23">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E3" s="23">
-        <f>VLOOKUP($C3,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F3" s="19" t="str">
         <f>VLOOKUP($C3,raw_concepts!$A:$M,13,FALSE)</f>
@@ -60740,21 +60699,20 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <f t="shared" ref="A4:A40" si="1">C4+1300</f>
+        <f t="shared" ref="A4:A31" si="1">C4+1300</f>
         <v>1302</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
       </c>
       <c r="D4" s="23">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E4" s="23">
-        <f>VLOOKUP($C4,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F4" s="19" t="str">
         <f>VLOOKUP($C4,raw_concepts!$A:$M,13,FALSE)</f>
@@ -60773,11 +60731,10 @@
         <v>30</v>
       </c>
       <c r="D5" s="23">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E5" s="23">
-        <f>VLOOKUP($C5,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F5" s="19" t="str">
         <f>VLOOKUP($C5,raw_concepts!$A:$M,13,FALSE)</f>
@@ -60787,20 +60744,19 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f t="shared" si="1"/>
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>228</v>
       </c>
       <c r="C6" s="3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" s="23">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="E6" s="23">
-        <f>VLOOKUP($C6,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F6" s="19" t="str">
         <f>VLOOKUP($C6,raw_concepts!$A:$M,13,FALSE)</f>
@@ -60810,20 +60766,19 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f t="shared" si="1"/>
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>229</v>
       </c>
       <c r="C7" s="3">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D7" s="23">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="E7" s="23">
-        <f>VLOOKUP($C7,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F7" s="19" t="str">
         <f>VLOOKUP($C7,raw_concepts!$A:$M,13,FALSE)</f>
@@ -60833,20 +60788,19 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f t="shared" si="1"/>
-        <v>1333</v>
+        <v>1337</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>230</v>
       </c>
       <c r="C8" s="3">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D8" s="23">
         <v>5</v>
       </c>
       <c r="E8" s="23">
-        <f>VLOOKUP($C8,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F8" s="19" t="str">
         <f>VLOOKUP($C8,raw_concepts!$A:$M,13,FALSE)</f>
@@ -60856,20 +60810,19 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f t="shared" si="1"/>
-        <v>1334</v>
+        <v>1338</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>231</v>
       </c>
       <c r="C9" s="3">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D9" s="23">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="E9" s="23">
-        <f>VLOOKUP($C9,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F9" s="19" t="str">
         <f>VLOOKUP($C9,raw_concepts!$A:$M,13,FALSE)</f>
@@ -60879,20 +60832,19 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f t="shared" si="1"/>
-        <v>1335</v>
+        <v>1340</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>232</v>
       </c>
       <c r="C10" s="3">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D10" s="23">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E10" s="23">
-        <f>VLOOKUP($C10,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F10" s="19" t="str">
         <f>VLOOKUP($C10,raw_concepts!$A:$M,13,FALSE)</f>
@@ -60902,20 +60854,19 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f t="shared" si="1"/>
-        <v>1336</v>
+        <v>1343</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>233</v>
+        <v>341</v>
       </c>
       <c r="C11" s="3">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D11" s="23">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E11" s="23">
-        <f>VLOOKUP($C11,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F11" s="19" t="str">
         <f>VLOOKUP($C11,raw_concepts!$A:$M,13,FALSE)</f>
@@ -60925,20 +60876,19 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f t="shared" si="1"/>
-        <v>1337</v>
+        <v>1344</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>234</v>
+        <v>342</v>
       </c>
       <c r="C12" s="3">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D12" s="23">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="E12" s="23">
-        <f>VLOOKUP($C12,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F12" s="19" t="str">
         <f>VLOOKUP($C12,raw_concepts!$A:$M,13,FALSE)</f>
@@ -60948,16 +60898,16 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f t="shared" si="1"/>
-        <v>1338</v>
+        <v>1345</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C13" s="3">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D13" s="23">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="E13" s="23">
         <f>VLOOKUP($C13,raw_concepts!$A:$M,12,FALSE)</f>
@@ -60971,16 +60921,16 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f t="shared" si="1"/>
-        <v>1339</v>
+        <v>1346</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>236</v>
+        <v>343</v>
       </c>
       <c r="C14" s="3">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D14" s="23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E14" s="23">
         <f>VLOOKUP($C14,raw_concepts!$A:$M,12,FALSE)</f>
@@ -60994,16 +60944,16 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f t="shared" si="1"/>
-        <v>1340</v>
+        <v>1347</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>237</v>
+        <v>344</v>
       </c>
       <c r="C15" s="3">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D15" s="23">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E15" s="23">
         <f>VLOOKUP($C15,raw_concepts!$A:$M,12,FALSE)</f>
@@ -61017,20 +60967,19 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f t="shared" si="1"/>
-        <v>1341</v>
+        <v>1348</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>238</v>
+        <v>345</v>
       </c>
       <c r="C16" s="3">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D16" s="23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16" s="23">
-        <f>VLOOKUP($C16,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="F16" s="19" t="str">
         <f>VLOOKUP($C16,raw_concepts!$A:$M,13,FALSE)</f>
@@ -61040,20 +60989,19 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <f t="shared" si="1"/>
-        <v>1342</v>
+        <v>1350</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C17" s="3">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D17" s="23">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E17" s="23">
-        <f>VLOOKUP($C17,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="F17" s="19" t="str">
         <f>VLOOKUP($C17,raw_concepts!$A:$M,13,FALSE)</f>
@@ -61063,20 +61011,19 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <f t="shared" si="1"/>
-        <v>1343</v>
+        <v>1351</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>349</v>
+        <v>235</v>
       </c>
       <c r="C18" s="3">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D18" s="23">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="E18" s="23">
-        <f>VLOOKUP($C18,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F18" s="19" t="str">
         <f>VLOOKUP($C18,raw_concepts!$A:$M,13,FALSE)</f>
@@ -61086,20 +61033,19 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <f t="shared" si="1"/>
-        <v>1344</v>
+        <v>1352</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C19" s="3">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D19" s="23">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="E19" s="23">
-        <f>VLOOKUP($C19,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F19" s="19" t="str">
         <f>VLOOKUP($C19,raw_concepts!$A:$M,13,FALSE)</f>
@@ -61109,20 +61055,19 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <f t="shared" si="1"/>
-        <v>1345</v>
+        <v>1353</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>240</v>
+        <v>347</v>
       </c>
       <c r="C20" s="3">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D20" s="23">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E20" s="23">
-        <f>VLOOKUP($C20,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F20" s="19" t="str">
         <f>VLOOKUP($C20,raw_concepts!$A:$M,13,FALSE)</f>
@@ -61132,20 +61077,19 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <f t="shared" si="1"/>
-        <v>1346</v>
+        <v>1354</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>351</v>
+        <v>236</v>
       </c>
       <c r="C21" s="3">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D21" s="23">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="E21" s="23">
-        <f>VLOOKUP($C21,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="F21" s="19" t="str">
         <f>VLOOKUP($C21,raw_concepts!$A:$M,13,FALSE)</f>
@@ -61155,20 +61099,19 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <f t="shared" si="1"/>
-        <v>1347</v>
+        <v>1355</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>352</v>
+        <v>237</v>
       </c>
       <c r="C22" s="3">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D22" s="23">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E22" s="23">
-        <f>VLOOKUP($C22,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="F22" s="19" t="str">
         <f>VLOOKUP($C22,raw_concepts!$A:$M,13,FALSE)</f>
@@ -61178,20 +61121,19 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <f t="shared" si="1"/>
-        <v>1348</v>
+        <v>1357</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>353</v>
+        <v>238</v>
       </c>
       <c r="C23" s="3">
+        <v>57</v>
+      </c>
+      <c r="D23" s="23">
+        <v>35</v>
+      </c>
+      <c r="E23" s="23">
         <v>48</v>
-      </c>
-      <c r="D23" s="23">
-        <v>10</v>
-      </c>
-      <c r="E23" s="23">
-        <f>VLOOKUP($C23,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>72</v>
       </c>
       <c r="F23" s="19" t="str">
         <f>VLOOKUP($C23,raw_concepts!$A:$M,13,FALSE)</f>
@@ -61201,20 +61143,19 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <f t="shared" si="1"/>
-        <v>1349</v>
+        <v>1358</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>354</v>
+        <v>239</v>
       </c>
       <c r="C24" s="3">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D24" s="23">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E24" s="23">
-        <f>VLOOKUP($C24,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="F24" s="19" t="str">
         <f>VLOOKUP($C24,raw_concepts!$A:$M,13,FALSE)</f>
@@ -61224,20 +61165,19 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <f t="shared" si="1"/>
-        <v>1350</v>
+        <v>1359</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C25" s="3">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D25" s="23">
-        <v>0.5</v>
+        <v>15</v>
       </c>
       <c r="E25" s="23">
-        <f>VLOOKUP($C25,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="F25" s="19" t="str">
         <f>VLOOKUP($C25,raw_concepts!$A:$M,13,FALSE)</f>
@@ -61247,20 +61187,19 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <f t="shared" si="1"/>
-        <v>1351</v>
+        <v>1360</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C26" s="3">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D26" s="23">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E26" s="23">
-        <f>VLOOKUP($C26,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="F26" s="19" t="str">
         <f>VLOOKUP($C26,raw_concepts!$A:$M,13,FALSE)</f>
@@ -61270,20 +61209,19 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <f t="shared" si="1"/>
-        <v>1352</v>
+        <v>1361</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>355</v>
+        <v>242</v>
       </c>
       <c r="C27" s="3">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D27" s="23">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="E27" s="23">
-        <f>VLOOKUP($C27,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F27" s="19" t="str">
         <f>VLOOKUP($C27,raw_concepts!$A:$M,13,FALSE)</f>
@@ -61293,20 +61231,20 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <f t="shared" si="1"/>
-        <v>1353</v>
+        <v>1362</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>356</v>
+        <v>243</v>
       </c>
       <c r="C28" s="3">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D28" s="23">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E28" s="23">
         <f>VLOOKUP($C28,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="F28" s="19" t="str">
         <f>VLOOKUP($C28,raw_concepts!$A:$M,13,FALSE)</f>
@@ -61316,20 +61254,19 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <f t="shared" si="1"/>
-        <v>1354</v>
+        <v>1364</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C29" s="3">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D29" s="23">
-        <v>0.1</v>
+        <v>300</v>
       </c>
       <c r="E29" s="23">
-        <f>VLOOKUP($C29,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F29" s="19" t="str">
         <f>VLOOKUP($C29,raw_concepts!$A:$M,13,FALSE)</f>
@@ -61339,20 +61276,19 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <f t="shared" si="1"/>
-        <v>1355</v>
+        <v>1366</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C30" s="3">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D30" s="23">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E30" s="23">
-        <f>VLOOKUP($C30,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="F30" s="19" t="str">
         <f>VLOOKUP($C30,raw_concepts!$A:$M,13,FALSE)</f>
@@ -61362,242 +61298,34 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <f t="shared" si="1"/>
-        <v>1357</v>
+        <v>1367</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C31" s="3">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D31" s="23">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E31" s="23">
-        <f>VLOOKUP($C31,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="F31" s="19" t="str">
         <f>VLOOKUP($C31,raw_concepts!$A:$M,13,FALSE)</f>
         <v>hour</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <f t="shared" si="1"/>
-        <v>1358</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C32" s="3">
-        <v>58</v>
-      </c>
-      <c r="D32" s="23">
-        <v>15</v>
-      </c>
-      <c r="E32" s="23">
-        <f>VLOOKUP($C32,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>12</v>
-      </c>
-      <c r="F32" s="19" t="str">
-        <f>VLOOKUP($C32,raw_concepts!$A:$M,13,FALSE)</f>
-        <v>hour</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <f t="shared" si="1"/>
-        <v>1359</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C33" s="3">
-        <v>59</v>
-      </c>
-      <c r="D33" s="23">
-        <v>15</v>
-      </c>
-      <c r="E33" s="23">
-        <f>VLOOKUP($C33,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>12</v>
-      </c>
-      <c r="F33" s="19" t="str">
-        <f>VLOOKUP($C33,raw_concepts!$A:$M,13,FALSE)</f>
-        <v>hour</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <f t="shared" si="1"/>
-        <v>1360</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C34" s="3">
-        <v>60</v>
-      </c>
-      <c r="D34" s="23">
-        <v>10</v>
-      </c>
-      <c r="E34" s="23">
-        <f>VLOOKUP($C34,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>12</v>
-      </c>
-      <c r="F34" s="19" t="str">
-        <f>VLOOKUP($C34,raw_concepts!$A:$M,13,FALSE)</f>
-        <v>hour</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <f t="shared" si="1"/>
-        <v>1361</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C35" s="3">
-        <v>61</v>
-      </c>
-      <c r="D35" s="23">
-        <v>12.5</v>
-      </c>
-      <c r="E35" s="23">
-        <f>VLOOKUP($C35,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>24</v>
-      </c>
-      <c r="F35" s="19" t="str">
-        <f>VLOOKUP($C35,raw_concepts!$A:$M,13,FALSE)</f>
-        <v>hour</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <f t="shared" si="1"/>
-        <v>1362</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C36" s="3">
-        <v>62</v>
-      </c>
-      <c r="D36" s="23">
-        <v>10</v>
-      </c>
-      <c r="E36" s="23">
-        <f>VLOOKUP($C36,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>72</v>
-      </c>
-      <c r="F36" s="19" t="str">
-        <f>VLOOKUP($C36,raw_concepts!$A:$M,13,FALSE)</f>
-        <v>hour</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <f t="shared" si="1"/>
-        <v>1364</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C37" s="3">
-        <v>64</v>
-      </c>
-      <c r="D37" s="23">
-        <v>100</v>
-      </c>
-      <c r="E37" s="23">
-        <f>VLOOKUP($C37,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>72</v>
-      </c>
-      <c r="F37" s="19" t="str">
-        <f>VLOOKUP($C37,raw_concepts!$A:$M,13,FALSE)</f>
-        <v>hour</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <f t="shared" si="1"/>
-        <v>1365</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C38" s="3">
-        <v>65</v>
-      </c>
-      <c r="D38" s="23">
-        <v>50</v>
-      </c>
-      <c r="E38" s="23">
-        <f>VLOOKUP($C38,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>12</v>
-      </c>
-      <c r="F38" s="19" t="str">
-        <f>VLOOKUP($C38,raw_concepts!$A:$M,13,FALSE)</f>
-        <v>hour</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <f t="shared" si="1"/>
-        <v>1366</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C39" s="3">
-        <v>66</v>
-      </c>
-      <c r="D39" s="23">
-        <v>20</v>
-      </c>
-      <c r="E39" s="23">
-        <f>VLOOKUP($C39,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>72</v>
-      </c>
-      <c r="F39" s="19" t="str">
-        <f>VLOOKUP($C39,raw_concepts!$A:$M,13,FALSE)</f>
-        <v>hour</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <f t="shared" si="1"/>
-        <v>1367</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C40" s="3">
-        <v>67</v>
-      </c>
-      <c r="D40" s="23">
-        <v>20</v>
-      </c>
-      <c r="E40" s="23">
-        <f>VLOOKUP($C40,raw_concepts!$A:$M,12,FALSE)</f>
-        <v>72</v>
-      </c>
-      <c r="F40" s="19" t="str">
-        <f>VLOOKUP($C40,raw_concepts!$A:$M,13,FALSE)</f>
-        <v>hour</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Error" error="Currently, The implementation requires a derived from concept id, but the program is not planned to deal with TAKs that have more then 1 base concepts. Please focus on one at the time, or contact developers." sqref="C41:C1048576" xr:uid="{8ABBC965-E4AD-41DF-BBA6-1A0764036D82}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Error" error="Currently, The implementation requires a derived from concept id, but the program is not planned to deal with TAKs that have more then 1 base concepts. Please focus on one at the time, or contact developers." sqref="C32:C1048576" xr:uid="{8ABBC965-E4AD-41DF-BBA6-1A0764036D82}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C40 A2:A1048576" xr:uid="{8FB02B24-4335-4796-A419-BD1D41E71A06}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576 C3:C31" xr:uid="{8FB02B24-4335-4796-A419-BD1D41E71A06}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D4:D1048576" xr:uid="{541E5BD0-9031-4A98-945D-A434CC5DE9D9}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{541E5BD0-9031-4A98-945D-A434CC5DE9D9}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{5ABE6B5A-333F-461C-9785-CAB0E7903CEF}">

--- a/taks.xlsx
+++ b/taks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\CodeProjects\TAKAutomator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDF793E-D52F-4593-9055-3063EAC4F6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C8A2D1-7F6A-4872-B127-C75DB0088B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_concepts" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="scenarios" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">raw_concepts!$A$1:$T$907</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">raw_concepts!$A$1:$T$909</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="352">
   <si>
     <t>TYPE</t>
   </si>
@@ -612,9 +612,6 @@
     <t>OTHER_COMPLICATION_EVENT</t>
   </si>
   <si>
-    <t>DEMENTIA_EVENT</t>
-  </si>
-  <si>
     <t>CARDIOVASCULAR_DISORDER_EVENT</t>
   </si>
   <si>
@@ -1078,6 +1075,21 @@
   </si>
   <si>
     <t>ALANINE-AMINOTRANSFERASE_BLOOD_MEASURE_TREND</t>
+  </si>
+  <si>
+    <t>DEMENTIA_CONTEXT</t>
+  </si>
+  <si>
+    <t>HYPERGLYCEMIA</t>
+  </si>
+  <si>
+    <t>HYPOGLYCEMIA_EVENT</t>
+  </si>
+  <si>
+    <t>HYPERGLYCEMIA_EVENT</t>
+  </si>
+  <si>
+    <t>HYPOGLYCEMIA</t>
   </si>
 </sst>
 </file>
@@ -1563,11 +1575,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T907"/>
+  <dimension ref="A1:T909"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1655,13 +1667,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="str">
-        <f t="shared" ref="D2:D48" si="0">LEFT(C2, FIND("-", C2)-1)</f>
+        <f t="shared" ref="D2:D50" si="0">LEFT(C2, FIND("-", C2)-1)</f>
         <v>numeric</v>
       </c>
       <c r="E2" s="2">
@@ -1769,7 +1781,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>28</v>
@@ -2201,7 +2213,7 @@
         <v>76</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>27</v>
@@ -3579,7 +3591,7 @@
         <v>22</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>27</v>
@@ -3734,123 +3746,123 @@
       <c r="T40" s="29"/>
     </row>
     <row r="41" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="30">
-        <v>3</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="31" t="s">
+      <c r="A41" s="25">
+        <v>88</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="C41" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="31" t="str">
-        <f t="shared" ref="D41" si="9">LEFT(C41, FIND("-", C41)-1)</f>
+      <c r="D41" s="27" t="str">
+        <f t="shared" ref="D41:D42" si="9">LEFT(C41, FIND("-", C41)-1)</f>
         <v>nominal</v>
       </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="30" t="s">
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J41" s="30">
+      <c r="J41" s="25">
         <v>0</v>
       </c>
-      <c r="K41" s="30" t="s">
+      <c r="K41" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="L41" s="30">
-        <v>6</v>
-      </c>
-      <c r="M41" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="N41" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="O41" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="P41" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q41" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="R41" s="32" t="s">
+      <c r="L41" s="25">
+        <v>0</v>
+      </c>
+      <c r="M41" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="N41" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O41" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="P41" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q41" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="R41" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="S41" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="T41" s="33"/>
+      <c r="S41" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="T41" s="29"/>
     </row>
     <row r="42" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="30">
-        <v>25</v>
-      </c>
-      <c r="B42" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" s="31" t="s">
+      <c r="A42" s="25">
+        <v>89</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="C42" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="31" t="str">
-        <f>LEFT(C42, FIND("-", C42)-1)</f>
+      <c r="D42" s="27" t="str">
+        <f t="shared" si="9"/>
         <v>nominal</v>
       </c>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="30" t="s">
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J42" s="30">
+      <c r="J42" s="25">
         <v>0</v>
       </c>
-      <c r="K42" s="30" t="s">
+      <c r="K42" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="L42" s="30">
-        <v>6</v>
-      </c>
-      <c r="M42" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="N42" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="O42" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="P42" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q42" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="R42" s="32" t="s">
+      <c r="L42" s="25">
+        <v>0</v>
+      </c>
+      <c r="M42" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="N42" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O42" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="P42" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q42" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="R42" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="S42" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="T42" s="33"/>
+      <c r="S42" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="T42" s="29"/>
     </row>
     <row r="43" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="C43" s="31" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="31" t="str">
-        <f>LEFT(C43, FIND("-", C43)-1)</f>
+        <f t="shared" ref="D43" si="10">LEFT(C43, FIND("-", C43)-1)</f>
         <v>nominal</v>
       </c>
       <c r="E43" s="31"/>
@@ -3894,10 +3906,10 @@
     </row>
     <row r="44" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C44" s="31" t="s">
         <v>27</v>
@@ -3947,10 +3959,10 @@
     </row>
     <row r="45" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="C45" s="31" t="s">
         <v>27</v>
@@ -3999,150 +4011,138 @@
       <c r="T45" s="33"/>
     </row>
     <row r="46" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="34">
+      <c r="A46" s="30">
+        <v>27</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="31" t="str">
+        <f>LEFT(C46, FIND("-", C46)-1)</f>
+        <v>nominal</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" s="30">
+        <v>0</v>
+      </c>
+      <c r="K46" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="L46" s="30">
+        <v>6</v>
+      </c>
+      <c r="M46" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N46" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="O46" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="P46" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q46" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="R46" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="S46" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="T46" s="33"/>
+    </row>
+    <row r="47" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="30">
+        <v>28</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="31" t="str">
+        <f>LEFT(C47, FIND("-", C47)-1)</f>
+        <v>nominal</v>
+      </c>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" s="30">
+        <v>0</v>
+      </c>
+      <c r="K47" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="L47" s="30">
+        <v>6</v>
+      </c>
+      <c r="M47" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N47" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="O47" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="P47" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q47" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="R47" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="S47" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="T47" s="33"/>
+    </row>
+    <row r="48" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="34">
         <v>1</v>
       </c>
-      <c r="B46" s="35" t="s">
-        <v>292</v>
-      </c>
-      <c r="C46" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="35" t="str">
-        <f t="shared" ref="D46:D47" si="10">LEFT(C46, FIND("-", C46)-1)</f>
-        <v>numeric</v>
-      </c>
-      <c r="E46" s="35">
-        <v>0</v>
-      </c>
-      <c r="F46" s="36">
-        <v>800</v>
-      </c>
-      <c r="G46" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="35"/>
-      <c r="J46" s="34">
-        <v>0</v>
-      </c>
-      <c r="K46" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="L46" s="34">
-        <v>24</v>
-      </c>
-      <c r="M46" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="N46" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="O46" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="P46" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q46" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="R46" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="S46" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="T46" s="38"/>
-    </row>
-    <row r="47" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="34">
-        <v>2</v>
-      </c>
-      <c r="B47" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="C47" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="35" t="str">
-        <f t="shared" si="10"/>
-        <v>numeric</v>
-      </c>
-      <c r="E47" s="35">
-        <v>0</v>
-      </c>
-      <c r="F47" s="36">
-        <v>700</v>
-      </c>
-      <c r="G47" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35">
-        <v>0</v>
-      </c>
-      <c r="K47" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="L47" s="35">
-        <v>24</v>
-      </c>
-      <c r="M47" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="N47" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="O47" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="P47" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q47" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="R47" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="S47" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="T47" s="38"/>
-    </row>
-    <row r="48" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="34">
-        <v>30</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>69</v>
+      <c r="B48" s="35" t="s">
+        <v>291</v>
       </c>
       <c r="C48" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D48" s="35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D48:D49" si="11">LEFT(C48, FIND("-", C48)-1)</f>
         <v>numeric</v>
       </c>
       <c r="E48" s="35">
         <v>0</v>
       </c>
-      <c r="F48" s="34">
-        <v>20</v>
-      </c>
-      <c r="G48" s="35" t="s">
+      <c r="F48" s="36">
+        <v>800</v>
+      </c>
+      <c r="G48" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H48" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="I48" s="34"/>
+      <c r="H48" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="35"/>
       <c r="J48" s="34">
         <v>0</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>44</v>
       </c>
       <c r="L48" s="34">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="M48" s="34" t="s">
         <v>44</v>
@@ -4175,41 +4175,41 @@
       </c>
       <c r="T48" s="38"/>
     </row>
-    <row r="49" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="34">
-        <v>31</v>
-      </c>
-      <c r="B49" s="34" t="s">
-        <v>70</v>
+        <v>2</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>292</v>
       </c>
       <c r="C49" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D49" s="35" t="str">
-        <f t="shared" ref="D49:D80" si="11">LEFT(C49, FIND("-", C49)-1)</f>
+        <f t="shared" si="11"/>
         <v>numeric</v>
       </c>
       <c r="E49" s="35">
         <v>0</v>
       </c>
-      <c r="F49" s="34">
-        <v>6</v>
-      </c>
-      <c r="G49" s="35" t="s">
+      <c r="F49" s="36">
+        <v>700</v>
+      </c>
+      <c r="G49" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H49" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34">
+      <c r="H49" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35">
         <v>0</v>
       </c>
       <c r="K49" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="L49" s="34">
-        <v>72</v>
+      <c r="L49" s="35">
+        <v>24</v>
       </c>
       <c r="M49" s="34" t="s">
         <v>44</v>
@@ -4236,16 +4236,16 @@
     </row>
     <row r="50" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="34">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D50" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="0"/>
         <v>numeric</v>
       </c>
       <c r="E50" s="35">
@@ -4295,23 +4295,23 @@
     </row>
     <row r="51" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="34">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B51" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D51" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="D51:D82" si="12">LEFT(C51, FIND("-", C51)-1)</f>
         <v>numeric</v>
       </c>
       <c r="E51" s="35">
         <v>0</v>
       </c>
       <c r="F51" s="34">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="G51" s="35" t="s">
         <v>10</v>
@@ -4354,23 +4354,23 @@
     </row>
     <row r="52" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="34">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C52" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D52" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>numeric</v>
       </c>
       <c r="E52" s="35">
         <v>0</v>
       </c>
       <c r="F52" s="34">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="G52" s="35" t="s">
         <v>10</v>
@@ -4413,23 +4413,23 @@
     </row>
     <row r="53" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="34">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D53" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>numeric</v>
       </c>
       <c r="E53" s="35">
         <v>0</v>
       </c>
       <c r="F53" s="34">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>10</v>
@@ -4470,27 +4470,27 @@
       </c>
       <c r="T53" s="38"/>
     </row>
-    <row r="54" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="34">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B54" s="34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D54" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>numeric</v>
       </c>
       <c r="E54" s="35">
         <v>0</v>
       </c>
       <c r="F54" s="34">
-        <v>10</v>
-      </c>
-      <c r="G54" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="G54" s="35" t="s">
         <v>10</v>
       </c>
       <c r="H54" s="34" t="s">
@@ -4529,27 +4529,27 @@
       </c>
       <c r="T54" s="38"/>
     </row>
-    <row r="55" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="34">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B55" s="34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C55" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D55" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>numeric</v>
       </c>
       <c r="E55" s="35">
         <v>0</v>
       </c>
       <c r="F55" s="34">
-        <v>100</v>
-      </c>
-      <c r="G55" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55" s="35" t="s">
         <v>10</v>
       </c>
       <c r="H55" s="34" t="s">
@@ -4590,23 +4590,23 @@
     </row>
     <row r="56" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="34">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B56" s="34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D56" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>numeric</v>
       </c>
       <c r="E56" s="35">
         <v>0</v>
       </c>
       <c r="F56" s="34">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G56" s="36" t="s">
         <v>10</v>
@@ -4649,23 +4649,23 @@
     </row>
     <row r="57" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="34">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D57" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>numeric</v>
       </c>
       <c r="E57" s="35">
         <v>0</v>
       </c>
       <c r="F57" s="34">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="G57" s="36" t="s">
         <v>10</v>
@@ -4708,23 +4708,23 @@
     </row>
     <row r="58" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="34">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D58" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>numeric</v>
       </c>
       <c r="E58" s="35">
         <v>0</v>
       </c>
       <c r="F58" s="34">
-        <v>1100</v>
+        <v>15</v>
       </c>
       <c r="G58" s="36" t="s">
         <v>10</v>
@@ -4767,23 +4767,23 @@
     </row>
     <row r="59" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="34">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C59" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D59" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>numeric</v>
       </c>
       <c r="E59" s="35">
         <v>0</v>
       </c>
       <c r="F59" s="34">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G59" s="36" t="s">
         <v>10</v>
@@ -4826,23 +4826,23 @@
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="34">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B60" s="34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C60" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D60" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>numeric</v>
       </c>
       <c r="E60" s="35">
         <v>0</v>
       </c>
       <c r="F60" s="34">
-        <v>20</v>
+        <v>1100</v>
       </c>
       <c r="G60" s="36" t="s">
         <v>10</v>
@@ -4885,23 +4885,23 @@
     </row>
     <row r="61" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="34">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="C61" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D61" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>numeric</v>
       </c>
       <c r="E61" s="35">
         <v>0</v>
       </c>
       <c r="F61" s="34">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G61" s="36" t="s">
         <v>10</v>
@@ -4944,23 +4944,23 @@
     </row>
     <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="34">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="C62" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D62" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>numeric</v>
       </c>
       <c r="E62" s="35">
         <v>0</v>
       </c>
       <c r="F62" s="34">
-        <v>40000</v>
+        <v>20</v>
       </c>
       <c r="G62" s="36" t="s">
         <v>10</v>
@@ -5003,23 +5003,23 @@
     </row>
     <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="34">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>82</v>
+        <v>290</v>
       </c>
       <c r="C63" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D63" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>numeric</v>
       </c>
       <c r="E63" s="35">
         <v>0</v>
       </c>
       <c r="F63" s="34">
-        <v>350</v>
+        <v>15</v>
       </c>
       <c r="G63" s="36" t="s">
         <v>10</v>
@@ -5062,7 +5062,7 @@
     </row>
     <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="34">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B64" s="34" t="s">
         <v>289</v>
@@ -5071,14 +5071,14 @@
         <v>28</v>
       </c>
       <c r="D64" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>numeric</v>
       </c>
       <c r="E64" s="35">
         <v>0</v>
       </c>
       <c r="F64" s="34">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="G64" s="36" t="s">
         <v>10</v>
@@ -5121,23 +5121,23 @@
     </row>
     <row r="65" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="34">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B65" s="34" t="s">
-        <v>288</v>
+        <v>82</v>
       </c>
       <c r="C65" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D65" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>numeric</v>
       </c>
       <c r="E65" s="35">
         <v>0</v>
       </c>
       <c r="F65" s="34">
-        <v>5000</v>
+        <v>350</v>
       </c>
       <c r="G65" s="36" t="s">
         <v>10</v>
@@ -5180,23 +5180,23 @@
     </row>
     <row r="66" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="34">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B66" s="34" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C66" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D66" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>numeric</v>
       </c>
       <c r="E66" s="35">
         <v>0</v>
       </c>
       <c r="F66" s="34">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G66" s="36" t="s">
         <v>10</v>
@@ -5239,23 +5239,23 @@
     </row>
     <row r="67" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="34">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B67" s="34" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C67" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D67" s="35" t="str">
-        <f t="shared" ref="D67" si="12">LEFT(C67, FIND("-", C67)-1)</f>
+        <f t="shared" si="12"/>
         <v>numeric</v>
       </c>
       <c r="E67" s="35">
         <v>0</v>
       </c>
       <c r="F67" s="34">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="G67" s="36" t="s">
         <v>10</v>
@@ -5298,23 +5298,23 @@
     </row>
     <row r="68" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="34">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B68" s="34" t="s">
-        <v>83</v>
+        <v>286</v>
       </c>
       <c r="C68" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D68" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>numeric</v>
       </c>
       <c r="E68" s="35">
         <v>0</v>
       </c>
       <c r="F68" s="34">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G68" s="36" t="s">
         <v>10</v>
@@ -5357,23 +5357,23 @@
     </row>
     <row r="69" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="34">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>84</v>
+        <v>285</v>
       </c>
       <c r="C69" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D69" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="D69" si="13">LEFT(C69, FIND("-", C69)-1)</f>
         <v>numeric</v>
       </c>
       <c r="E69" s="35">
         <v>0</v>
       </c>
       <c r="F69" s="34">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G69" s="36" t="s">
         <v>10</v>
@@ -5416,23 +5416,23 @@
     </row>
     <row r="70" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="34">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>284</v>
+        <v>83</v>
       </c>
       <c r="C70" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D70" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>numeric</v>
       </c>
       <c r="E70" s="35">
         <v>0</v>
       </c>
       <c r="F70" s="34">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="G70" s="36" t="s">
         <v>10</v>
@@ -5448,7 +5448,7 @@
         <v>44</v>
       </c>
       <c r="L70" s="34">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="M70" s="34" t="s">
         <v>44</v>
@@ -5475,16 +5475,16 @@
     </row>
     <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="34">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>285</v>
+        <v>84</v>
       </c>
       <c r="C71" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D71" s="35" t="str">
-        <f t="shared" ref="D71" si="13">LEFT(C71, FIND("-", C71)-1)</f>
+        <f t="shared" si="12"/>
         <v>numeric</v>
       </c>
       <c r="E71" s="35">
@@ -5507,7 +5507,7 @@
         <v>44</v>
       </c>
       <c r="L71" s="34">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="M71" s="34" t="s">
         <v>44</v>
@@ -5534,23 +5534,23 @@
     </row>
     <row r="72" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="34">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>85</v>
+        <v>283</v>
       </c>
       <c r="C72" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D72" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>numeric</v>
       </c>
       <c r="E72" s="35">
         <v>0</v>
       </c>
       <c r="F72" s="34">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="G72" s="36" t="s">
         <v>10</v>
@@ -5566,7 +5566,7 @@
         <v>44</v>
       </c>
       <c r="L72" s="34">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="M72" s="34" t="s">
         <v>44</v>
@@ -5593,23 +5593,23 @@
     </row>
     <row r="73" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="34">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B73" s="34" t="s">
-        <v>86</v>
+        <v>284</v>
       </c>
       <c r="C73" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D73" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="D73" si="14">LEFT(C73, FIND("-", C73)-1)</f>
         <v>numeric</v>
       </c>
       <c r="E73" s="35">
         <v>0</v>
       </c>
       <c r="F73" s="34">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="G73" s="36" t="s">
         <v>10</v>
@@ -5625,7 +5625,7 @@
         <v>44</v>
       </c>
       <c r="L73" s="34">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="M73" s="34" t="s">
         <v>44</v>
@@ -5652,23 +5652,23 @@
     </row>
     <row r="74" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="34">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C74" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D74" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>numeric</v>
       </c>
       <c r="E74" s="35">
         <v>0</v>
       </c>
       <c r="F74" s="34">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="G74" s="36" t="s">
         <v>10</v>
@@ -5711,23 +5711,23 @@
     </row>
     <row r="75" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="34">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C75" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D75" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>numeric</v>
       </c>
       <c r="E75" s="35">
         <v>0</v>
       </c>
       <c r="F75" s="34">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="G75" s="36" t="s">
         <v>10</v>
@@ -5743,7 +5743,7 @@
         <v>44</v>
       </c>
       <c r="L75" s="34">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="M75" s="34" t="s">
         <v>44</v>
@@ -5770,23 +5770,23 @@
     </row>
     <row r="76" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="34">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B76" s="34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C76" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D76" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>numeric</v>
       </c>
       <c r="E76" s="35">
         <v>0</v>
       </c>
       <c r="F76" s="34">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G76" s="36" t="s">
         <v>10</v>
@@ -5802,7 +5802,7 @@
         <v>44</v>
       </c>
       <c r="L76" s="34">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="M76" s="34" t="s">
         <v>44</v>
@@ -5829,23 +5829,23 @@
     </row>
     <row r="77" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="34">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B77" s="34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C77" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D77" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>numeric</v>
       </c>
       <c r="E77" s="35">
         <v>0</v>
       </c>
       <c r="F77" s="34">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G77" s="36" t="s">
         <v>10</v>
@@ -5888,16 +5888,16 @@
     </row>
     <row r="78" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="34">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B78" s="34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C78" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D78" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>numeric</v>
       </c>
       <c r="E78" s="35">
@@ -5920,7 +5920,7 @@
         <v>44</v>
       </c>
       <c r="L78" s="34">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M78" s="34" t="s">
         <v>44</v>
@@ -5947,23 +5947,23 @@
     </row>
     <row r="79" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="34">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C79" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D79" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>numeric</v>
       </c>
       <c r="E79" s="35">
         <v>0</v>
       </c>
       <c r="F79" s="34">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G79" s="36" t="s">
         <v>10</v>
@@ -5979,7 +5979,7 @@
         <v>44</v>
       </c>
       <c r="L79" s="34">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="M79" s="34" t="s">
         <v>44</v>
@@ -6006,23 +6006,23 @@
     </row>
     <row r="80" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="34">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C80" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D80" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>numeric</v>
       </c>
       <c r="E80" s="35">
         <v>0</v>
       </c>
       <c r="F80" s="34">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G80" s="36" t="s">
         <v>10</v>
@@ -6038,10 +6038,10 @@
         <v>44</v>
       </c>
       <c r="L80" s="34">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="M80" s="34" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="N80" s="37" t="s">
         <v>45</v>
@@ -6065,23 +6065,23 @@
     </row>
     <row r="81" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="34">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="C81" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="35" t="str">
-        <f t="shared" ref="D81:D82" si="14">LEFT(C81, FIND("-", C81)-1)</f>
+        <f t="shared" si="12"/>
         <v>numeric</v>
       </c>
       <c r="E81" s="35">
         <v>0</v>
       </c>
       <c r="F81" s="34">
-        <v>50000</v>
+        <v>200</v>
       </c>
       <c r="G81" s="36" t="s">
         <v>10</v>
@@ -6124,23 +6124,23 @@
     </row>
     <row r="82" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="34">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="C82" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D82" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>numeric</v>
       </c>
       <c r="E82" s="35">
         <v>0</v>
       </c>
       <c r="F82" s="34">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="G82" s="36" t="s">
         <v>10</v>
@@ -6156,10 +6156,10 @@
         <v>44</v>
       </c>
       <c r="L82" s="34">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M82" s="34" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="N82" s="37" t="s">
         <v>45</v>
@@ -6183,10 +6183,10 @@
     </row>
     <row r="83" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="34">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C83" s="35" t="s">
         <v>28</v>
@@ -6199,7 +6199,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="34">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="G83" s="36" t="s">
         <v>10</v>
@@ -6242,10 +6242,10 @@
     </row>
     <row r="84" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="34">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C84" s="35" t="s">
         <v>28</v>
@@ -6258,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="F84" s="34">
-        <v>10000</v>
+        <v>600</v>
       </c>
       <c r="G84" s="36" t="s">
         <v>10</v>
@@ -6274,7 +6274,7 @@
         <v>44</v>
       </c>
       <c r="L84" s="34">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="M84" s="34" t="s">
         <v>44</v>
@@ -6301,10 +6301,10 @@
     </row>
     <row r="85" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="34">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>278</v>
+        <v>170</v>
       </c>
       <c r="C85" s="35" t="s">
         <v>28</v>
@@ -6317,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="34">
-        <v>150</v>
+        <v>10000</v>
       </c>
       <c r="G85" s="36" t="s">
         <v>10</v>
@@ -6360,10 +6360,10 @@
     </row>
     <row r="86" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="34">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B86" s="34" t="s">
-        <v>279</v>
+        <v>171</v>
       </c>
       <c r="C86" s="35" t="s">
         <v>28</v>
@@ -6376,7 +6376,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="34">
-        <v>150</v>
+        <v>10000</v>
       </c>
       <c r="G86" s="36" t="s">
         <v>10</v>
@@ -6418,48 +6418,122 @@
       <c r="T86" s="38"/>
     </row>
     <row r="87" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
-      <c r="N87" s="14"/>
-      <c r="O87" s="14"/>
-      <c r="P87" s="14"/>
-      <c r="Q87" s="14"/>
-      <c r="R87" s="14"/>
-      <c r="S87" s="14"/>
-      <c r="T87" s="4"/>
+      <c r="A87" s="34">
+        <v>68</v>
+      </c>
+      <c r="B87" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C87" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" s="35" t="str">
+        <f t="shared" ref="D87:D88" si="17">LEFT(C87, FIND("-", C87)-1)</f>
+        <v>numeric</v>
+      </c>
+      <c r="E87" s="35">
+        <v>0</v>
+      </c>
+      <c r="F87" s="34">
+        <v>150</v>
+      </c>
+      <c r="G87" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H87" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="I87" s="34"/>
+      <c r="J87" s="34">
+        <v>0</v>
+      </c>
+      <c r="K87" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="L87" s="34">
+        <v>72</v>
+      </c>
+      <c r="M87" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="N87" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="O87" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="P87" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q87" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="R87" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="S87" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="T87" s="38"/>
     </row>
     <row r="88" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
-      <c r="N88" s="14"/>
-      <c r="O88" s="14"/>
-      <c r="P88" s="14"/>
-      <c r="Q88" s="14"/>
-      <c r="R88" s="14"/>
-      <c r="S88" s="14"/>
-      <c r="T88" s="4"/>
+      <c r="A88" s="34">
+        <v>69</v>
+      </c>
+      <c r="B88" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="C88" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" s="35" t="str">
+        <f t="shared" si="17"/>
+        <v>numeric</v>
+      </c>
+      <c r="E88" s="35">
+        <v>0</v>
+      </c>
+      <c r="F88" s="34">
+        <v>150</v>
+      </c>
+      <c r="G88" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="I88" s="34"/>
+      <c r="J88" s="34">
+        <v>0</v>
+      </c>
+      <c r="K88" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="L88" s="34">
+        <v>72</v>
+      </c>
+      <c r="M88" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="N88" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="O88" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="P88" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q88" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="R88" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="S88" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="T88" s="38"/>
     </row>
     <row r="89" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
@@ -9231,7 +9305,7 @@
       <c r="Q214" s="14"/>
       <c r="R214" s="14"/>
       <c r="S214" s="14"/>
-      <c r="T214" s="3"/>
+      <c r="T214" s="4"/>
     </row>
     <row r="215" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
@@ -9253,7 +9327,7 @@
       <c r="Q215" s="14"/>
       <c r="R215" s="14"/>
       <c r="S215" s="14"/>
-      <c r="T215" s="3"/>
+      <c r="T215" s="4"/>
     </row>
     <row r="216" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
@@ -24479,8 +24553,52 @@
       <c r="S907" s="14"/>
       <c r="T907" s="3"/>
     </row>
+    <row r="908" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A908" s="3"/>
+      <c r="B908" s="3"/>
+      <c r="C908" s="3"/>
+      <c r="D908" s="3"/>
+      <c r="E908" s="3"/>
+      <c r="F908" s="3"/>
+      <c r="G908" s="3"/>
+      <c r="H908" s="3"/>
+      <c r="I908" s="3"/>
+      <c r="J908" s="3"/>
+      <c r="K908" s="3"/>
+      <c r="L908" s="3"/>
+      <c r="M908" s="3"/>
+      <c r="N908" s="14"/>
+      <c r="O908" s="14"/>
+      <c r="P908" s="14"/>
+      <c r="Q908" s="14"/>
+      <c r="R908" s="14"/>
+      <c r="S908" s="14"/>
+      <c r="T908" s="3"/>
+    </row>
+    <row r="909" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A909" s="3"/>
+      <c r="B909" s="3"/>
+      <c r="C909" s="3"/>
+      <c r="D909" s="3"/>
+      <c r="E909" s="3"/>
+      <c r="F909" s="3"/>
+      <c r="G909" s="3"/>
+      <c r="H909" s="3"/>
+      <c r="I909" s="3"/>
+      <c r="J909" s="3"/>
+      <c r="K909" s="3"/>
+      <c r="L909" s="3"/>
+      <c r="M909" s="3"/>
+      <c r="N909" s="14"/>
+      <c r="O909" s="14"/>
+      <c r="P909" s="14"/>
+      <c r="Q909" s="14"/>
+      <c r="R909" s="14"/>
+      <c r="S909" s="14"/>
+      <c r="T909" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:T907" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T909" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="5">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{0BA62E2C-90D0-4A85-8B8A-6B7F0EEA38EF}">
       <formula1>0</formula1>
@@ -24508,11 +24626,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X1018"/>
+  <dimension ref="A1:X1017"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24583,7 +24701,7 @@
         <v>1104</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>23</v>
@@ -24616,7 +24734,7 @@
         <v>1105</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -24649,13 +24767,13 @@
         <v>1101</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>225</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>226</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>45</v>
@@ -24683,7 +24801,7 @@
         <v>1170</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C5" s="3">
         <v>70</v>
@@ -24713,11 +24831,11 @@
     </row>
     <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <f t="shared" ref="A6:A36" si="0">1100+C6</f>
+        <f t="shared" ref="A6:A35" si="0">1100+C6</f>
         <v>1172</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6" s="3">
         <v>72</v>
@@ -24751,7 +24869,7 @@
         <v>1173</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C7" s="3">
         <v>73</v>
@@ -24785,7 +24903,7 @@
         <v>1174</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C8" s="3">
         <v>74</v>
@@ -24819,7 +24937,7 @@
         <v>1175</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C9" s="3">
         <v>75</v>
@@ -24853,7 +24971,7 @@
         <v>1176</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="3">
         <v>76</v>
@@ -24887,7 +25005,7 @@
         <v>1177</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C11" s="3">
         <v>77</v>
@@ -24921,7 +25039,7 @@
         <v>1178</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C12" s="3">
         <v>78</v>
@@ -24955,7 +25073,7 @@
         <v>1179</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C13" s="3">
         <v>79</v>
@@ -24989,7 +25107,7 @@
         <v>1180</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="3">
         <v>80</v>
@@ -25564,13 +25682,13 @@
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>192</v>
       </c>
       <c r="C31" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>102</v>
@@ -25598,13 +25716,13 @@
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>193</v>
       </c>
       <c r="C32" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>102</v>
@@ -25632,13 +25750,13 @@
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="C33" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>102</v>
@@ -25666,13 +25784,13 @@
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="C34" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>102</v>
@@ -25700,13 +25818,13 @@
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C35" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>102</v>
@@ -25733,14 +25851,13 @@
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <f t="shared" si="0"/>
-        <v>1124</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>196</v>
+        <v>1188</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="C36" s="3">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>102</v>
@@ -25766,16 +25883,36 @@
       <c r="K36" s="3"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
+      <c r="A37" s="3">
+        <v>1189</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C37" s="3">
+        <v>89</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38518,25 +38655,12 @@
       <c r="J1017" s="14"/>
       <c r="K1017" s="3"/>
     </row>
-    <row r="1018" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1018" s="3"/>
-      <c r="B1018" s="3"/>
-      <c r="C1018" s="3"/>
-      <c r="D1018" s="3"/>
-      <c r="E1018" s="14"/>
-      <c r="F1018" s="14"/>
-      <c r="G1018" s="14"/>
-      <c r="H1018" s="14"/>
-      <c r="I1018" s="14"/>
-      <c r="J1018" s="14"/>
-      <c r="K1018" s="3"/>
-    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576 C15:C36" xr:uid="{98A4E0C0-623A-43B0-A1B2-0ACD9C28F3FC}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Error" error="Currently, The implementation requires a derived from concept id, but the program is not planned to deal with TAKs that have more then 1 base concepts. Please focus on one at the time, or contact developers." sqref="C5:C14" xr:uid="{60DADC71-9D75-41E9-8E91-4A0A84ACE9E1}"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C35 A2:A1048576" xr:uid="{98A4E0C0-623A-43B0-A1B2-0ACD9C28F3FC}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Error" error="Currently, The implementation requires a derived from concept id, but the program is not planned to deal with TAKs that have more then 1 base concepts. Please focus on one at the time, or contact developers." sqref="C5:C14" xr:uid="{60DADC71-9D75-41E9-8E91-4A0A84ACE9E1}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:J1048576" xr:uid="{BD14D827-2ED4-418B-B045-D2154EB50A63}">
       <formula1>"true, false"</formula1>
     </dataValidation>
@@ -38555,7 +38679,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38663,7 +38787,7 @@
         <v>1203</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" s="19">
         <v>3</v>
@@ -38715,7 +38839,7 @@
         <v>1225</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C3" s="3">
         <v>25</v>
@@ -38759,7 +38883,7 @@
         <v>1226</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C4" s="23">
         <v>26</v>
@@ -38803,7 +38927,7 @@
         <v>1227</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C5" s="23">
         <v>27</v>
@@ -38847,7 +38971,7 @@
         <v>1228</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" s="23">
         <v>28</v>
@@ -38886,7 +39010,50 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>1219</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C7" s="23">
+        <v>19</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39891,17 +40058,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{F7A19A48-EA19-43B2-96D8-8F3C8A8E029D}">
       <formula1>"equal, not-equal, bigger-equal, bigger, smaller-equal, smaller"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576 I2:I1048576 N2:N1048576" xr:uid="{1C156D25-1B38-4894-84AB-46AD25227753}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576 I2:I1048576 F2:F1048576" xr:uid="{1C156D25-1B38-4894-84AB-46AD25227753}">
       <formula1>"start, end"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{E865A148-F093-421F-AB63-585CEEC96279}">
       <formula1>-1000000000000</formula1>
       <formula2>1000000000000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576 K2:K1048576 P2:P1048576" xr:uid="{67414E21-2133-4E5E-B5D4-E1052B042939}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576 K2:K1048576 H2:H1048576" xr:uid="{67414E21-2133-4E5E-B5D4-E1052B042939}">
       <formula1>"second, minute, hour, day, week, month, year"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576 J2:J1048576" xr:uid="{E5AEA31F-71B0-477A-8372-81A09F350705}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576 O2:O1048576" xr:uid="{E5AEA31F-71B0-477A-8372-81A09F350705}">
       <formula1>-100000000000</formula1>
       <formula2>100000000000</formula2>
     </dataValidation>
@@ -40016,7 +40183,7 @@
         <v>1001</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -40072,7 +40239,7 @@
         <v>1002</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -40084,7 +40251,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>20</v>
@@ -40128,7 +40295,7 @@
         <v>1004</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C4" s="3">
         <v>4</v>
@@ -40140,7 +40307,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>173</v>
@@ -40184,7 +40351,7 @@
         <v>1005</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C5" s="3">
         <v>5</v>
@@ -40196,7 +40363,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>173</v>
@@ -40240,7 +40407,7 @@
         <v>1063</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C6" s="3">
         <v>63</v>
@@ -40296,7 +40463,7 @@
         <v>1030</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C7" s="3">
         <v>30</v>
@@ -40308,7 +40475,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>119</v>
@@ -40352,7 +40519,7 @@
         <v>1031</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C8" s="3">
         <v>31</v>
@@ -40408,7 +40575,7 @@
         <v>1032</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C9" s="3">
         <v>32</v>
@@ -40420,7 +40587,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>121</v>
@@ -40464,7 +40631,7 @@
         <v>1033</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C10" s="3">
         <v>33</v>
@@ -40476,7 +40643,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>122</v>
@@ -40520,7 +40687,7 @@
         <v>1034</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C11" s="3">
         <v>34</v>
@@ -40532,10 +40699,10 @@
         <v>15</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -40576,7 +40743,7 @@
         <v>1035</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C12" s="3">
         <v>35</v>
@@ -40588,7 +40755,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>122</v>
@@ -40632,7 +40799,7 @@
         <v>1036</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C13" s="3">
         <v>36</v>
@@ -40644,10 +40811,10 @@
         <v>15</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -40688,7 +40855,7 @@
         <v>1037</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C14" s="3">
         <v>37</v>
@@ -40744,7 +40911,7 @@
         <v>1038</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C15" s="3">
         <v>38</v>
@@ -40756,7 +40923,7 @@
         <v>15</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>125</v>
@@ -40800,7 +40967,7 @@
         <v>1039</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C16" s="3">
         <v>39</v>
@@ -40812,7 +40979,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>122</v>
@@ -40856,7 +41023,7 @@
         <v>1040</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C17" s="3">
         <v>40</v>
@@ -40868,7 +41035,7 @@
         <v>15</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>126</v>
@@ -40912,7 +41079,7 @@
         <v>1041</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C18" s="3">
         <v>41</v>
@@ -40924,7 +41091,7 @@
         <v>15</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>127</v>
@@ -40968,7 +41135,7 @@
         <v>1042</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C19" s="3">
         <v>42</v>
@@ -40980,7 +41147,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>128</v>
@@ -41024,7 +41191,7 @@
         <v>1043</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C20" s="3">
         <v>43</v>
@@ -41036,7 +41203,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>129</v>
@@ -41080,7 +41247,7 @@
         <v>1044</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C21" s="3">
         <v>44</v>
@@ -41092,7 +41259,7 @@
         <v>15</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>130</v>
@@ -41136,7 +41303,7 @@
         <v>1045</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C22" s="3">
         <v>45</v>
@@ -41148,7 +41315,7 @@
         <v>15</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>122</v>
@@ -41192,7 +41359,7 @@
         <v>1046</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C23" s="3">
         <v>46</v>
@@ -41204,7 +41371,7 @@
         <v>15</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>131</v>
@@ -41248,7 +41415,7 @@
         <v>1047</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C24" s="3">
         <v>47</v>
@@ -41260,7 +41427,7 @@
         <v>15</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>132</v>
@@ -41304,7 +41471,7 @@
         <v>1048</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C25" s="3">
         <v>48</v>
@@ -41360,7 +41527,7 @@
         <v>1049</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C26" s="3">
         <v>49</v>
@@ -41372,10 +41539,10 @@
         <v>15</v>
       </c>
       <c r="F26" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>273</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>274</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -41416,7 +41583,7 @@
         <v>1050</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C27" s="3">
         <v>50</v>
@@ -41472,7 +41639,7 @@
         <v>1051</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C28" s="3">
         <v>51</v>
@@ -41528,7 +41695,7 @@
         <v>1052</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C29" s="3">
         <v>52</v>
@@ -41584,7 +41751,7 @@
         <v>1053</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C30" s="3">
         <v>53</v>
@@ -41640,7 +41807,7 @@
         <v>1054</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C31" s="3">
         <v>54</v>
@@ -41696,7 +41863,7 @@
         <v>1055</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C32" s="3">
         <v>55</v>
@@ -41708,7 +41875,7 @@
         <v>15</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>143</v>
@@ -41752,7 +41919,7 @@
         <v>1057</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C33" s="3">
         <v>57</v>
@@ -41808,7 +41975,7 @@
         <v>1058</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C34" s="3">
         <v>58</v>
@@ -41820,7 +41987,7 @@
         <v>15</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>145</v>
@@ -41864,7 +42031,7 @@
         <v>1059</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C35" s="3">
         <v>59</v>
@@ -41876,7 +42043,7 @@
         <v>15</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>145</v>
@@ -41920,7 +42087,7 @@
         <v>1060</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C36" s="3">
         <v>60</v>
@@ -41932,7 +42099,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>145</v>
@@ -41976,7 +42143,7 @@
         <v>1061</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C37" s="3">
         <v>61</v>
@@ -42032,7 +42199,7 @@
         <v>1062</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C38" s="3">
         <v>62</v>
@@ -42088,7 +42255,7 @@
         <v>1064</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C39" s="3">
         <v>64</v>
@@ -42100,7 +42267,7 @@
         <v>15</v>
       </c>
       <c r="F39" s="39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>175</v>
@@ -42144,7 +42311,7 @@
         <v>1065</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C40" s="3">
         <v>65</v>
@@ -42156,10 +42323,10 @@
         <v>15</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
@@ -42200,7 +42367,7 @@
         <v>1066</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C41" s="3">
         <v>66</v>
@@ -42212,10 +42379,10 @@
         <v>15</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -42256,7 +42423,7 @@
         <v>1067</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C42" s="3">
         <v>67</v>
@@ -42268,10 +42435,10 @@
         <v>15</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -42312,7 +42479,7 @@
         <v>1068</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C43" s="3">
         <v>68</v>
@@ -42324,10 +42491,10 @@
         <v>15</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -42368,7 +42535,7 @@
         <v>1069</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C44" s="3">
         <v>69</v>
@@ -42380,10 +42547,10 @@
         <v>15</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -42424,7 +42591,7 @@
         <v>1071</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C45" s="3">
         <v>71</v>
@@ -42478,7 +42645,7 @@
         <v>1081</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C46" s="3">
         <v>81</v>
@@ -42532,7 +42699,7 @@
         <v>1082</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C47" s="3">
         <v>82</v>
@@ -60620,7 +60787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A161545-DA5F-4FD2-8279-D89A8EE73974}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -60645,13 +60812,13 @@
         <v>13</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>223</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -60660,7 +60827,7 @@
         <v>2401</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C2" s="3">
         <v>1101</v>
@@ -60681,7 +60848,7 @@
         <v>1301</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -60703,7 +60870,7 @@
         <v>1302</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -60725,7 +60892,7 @@
         <v>1330</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C5" s="3">
         <v>30</v>
@@ -60747,7 +60914,7 @@
         <v>1333</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C6" s="3">
         <v>33</v>
@@ -60769,7 +60936,7 @@
         <v>1336</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C7" s="3">
         <v>36</v>
@@ -60791,7 +60958,7 @@
         <v>1337</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C8" s="3">
         <v>37</v>
@@ -60813,7 +60980,7 @@
         <v>1338</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C9" s="3">
         <v>38</v>
@@ -60835,7 +61002,7 @@
         <v>1340</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C10" s="3">
         <v>40</v>
@@ -60857,7 +61024,7 @@
         <v>1343</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C11" s="3">
         <v>43</v>
@@ -60879,7 +61046,7 @@
         <v>1344</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C12" s="3">
         <v>44</v>
@@ -60901,7 +61068,7 @@
         <v>1345</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C13" s="3">
         <v>45</v>
@@ -60924,7 +61091,7 @@
         <v>1346</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C14" s="3">
         <v>46</v>
@@ -60947,7 +61114,7 @@
         <v>1347</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C15" s="3">
         <v>47</v>
@@ -60970,7 +61137,7 @@
         <v>1348</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C16" s="3">
         <v>48</v>
@@ -60992,7 +61159,7 @@
         <v>1350</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C17" s="3">
         <v>50</v>
@@ -61014,7 +61181,7 @@
         <v>1351</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C18" s="3">
         <v>51</v>
@@ -61036,7 +61203,7 @@
         <v>1352</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C19" s="3">
         <v>52</v>
@@ -61058,7 +61225,7 @@
         <v>1353</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C20" s="3">
         <v>53</v>
@@ -61080,7 +61247,7 @@
         <v>1354</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C21" s="3">
         <v>54</v>
@@ -61102,7 +61269,7 @@
         <v>1355</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C22" s="3">
         <v>55</v>
@@ -61124,7 +61291,7 @@
         <v>1357</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C23" s="3">
         <v>57</v>
@@ -61146,7 +61313,7 @@
         <v>1358</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C24" s="3">
         <v>58</v>
@@ -61168,7 +61335,7 @@
         <v>1359</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C25" s="3">
         <v>59</v>
@@ -61190,7 +61357,7 @@
         <v>1360</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C26" s="3">
         <v>60</v>
@@ -61212,7 +61379,7 @@
         <v>1361</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C27" s="3">
         <v>61</v>
@@ -61234,7 +61401,7 @@
         <v>1362</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C28" s="3">
         <v>62</v>
@@ -61257,7 +61424,7 @@
         <v>1364</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C29" s="3">
         <v>64</v>
@@ -61279,7 +61446,7 @@
         <v>1366</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C30" s="3">
         <v>66</v>
@@ -61301,7 +61468,7 @@
         <v>1367</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C31" s="3">
         <v>67</v>

--- a/taks.xlsx
+++ b/taks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\CodeProjects\TAKAutomator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C8A2D1-7F6A-4872-B127-C75DB0088B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EEDCC2-AB14-4A0D-AAEA-086A37CFA991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <sheet name="scenarios" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">raw_concepts!$A$1:$T$909</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">raw_concepts!$A$1:$T$920</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="376">
   <si>
     <t>TYPE</t>
   </si>
@@ -330,9 +330,6 @@
     <t>RELEASE</t>
   </si>
   <si>
-    <t>KIDNEY_DISORDER</t>
-  </si>
-  <si>
     <t>Hospitalization</t>
   </si>
   <si>
@@ -346,9 +343,6 @@
   </si>
   <si>
     <t>True</t>
-  </si>
-  <si>
-    <t>EYE_DISORDER</t>
   </si>
   <si>
     <t>NERVOUS_SYSTEM_DISORDER</t>
@@ -594,13 +588,7 @@
     <t>KETOACIDOSIS_EVENT</t>
   </si>
   <si>
-    <t>KIDNEY_DISORDER_EVENT</t>
-  </si>
-  <si>
     <t>COMA_EVENT</t>
-  </si>
-  <si>
-    <t>EYE_DISORDER_EVENT</t>
   </si>
   <si>
     <t>NERVOUS_SYSTEM_DISORDER_EVENT</t>
@@ -1091,6 +1079,90 @@
   <si>
     <t>HYPOGLYCEMIA</t>
   </si>
+  <si>
+    <t>CHRONIC_KIDNEY_CONDITION</t>
+  </si>
+  <si>
+    <t>CHRONIC_KIDNEY_CONDITION_CONTEXT</t>
+  </si>
+  <si>
+    <t>RETINOPATHY</t>
+  </si>
+  <si>
+    <t>RETINOPATHY_EVENT</t>
+  </si>
+  <si>
+    <t>This is a partial concept, meaning it feeds on the condition / observation table, but after abstraction is added with events derived from the state as well</t>
+  </si>
+  <si>
+    <t>KIDNEY_COMPLICATION</t>
+  </si>
+  <si>
+    <t>KIDNEY_COMPLICATION_EVENT</t>
+  </si>
+  <si>
+    <t>LIVER_DISEASE</t>
+  </si>
+  <si>
+    <t>LIVER_DISEASE_CONTEXT</t>
+  </si>
+  <si>
+    <t>ANEMIA</t>
+  </si>
+  <si>
+    <t>HIV</t>
+  </si>
+  <si>
+    <t>ANEMIA_CONTEXT</t>
+  </si>
+  <si>
+    <t>HIV_CONTEXT</t>
+  </si>
+  <si>
+    <t>DIALYSIS_CONTEXT</t>
+  </si>
+  <si>
+    <t>DIALYSIS</t>
+  </si>
+  <si>
+    <t>MALNUTRITION</t>
+  </si>
+  <si>
+    <t>MALNUTRITION_CONTEXT</t>
+  </si>
+  <si>
+    <t>RESPIRATORY_DISORDER</t>
+  </si>
+  <si>
+    <t>PEPTIC_ULCER</t>
+  </si>
+  <si>
+    <t>PEPTIC_ULCER_EVENT</t>
+  </si>
+  <si>
+    <t>RESPIRATORY_DISORDER_CONTEXT</t>
+  </si>
+  <si>
+    <t>HEMIPLEGIA_CONTEXT</t>
+  </si>
+  <si>
+    <t>HEMIPLEGIA</t>
+  </si>
+  <si>
+    <t>Very sparse, possibly redundant</t>
+  </si>
+  <si>
+    <t>CONNECTIVE_TISSUE_DISEASE</t>
+  </si>
+  <si>
+    <t>CONNECTIVE_TISSUE_DISEASE_CONTEXT</t>
+  </si>
+  <si>
+    <t>HYPEROSMOLALITY</t>
+  </si>
+  <si>
+    <t>HYPEROSMOLALITY_EVENT</t>
+  </si>
 </sst>
 </file>
 
@@ -1575,11 +1647,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T909"/>
+  <dimension ref="A1:T920"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1667,13 +1739,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="str">
-        <f t="shared" ref="D2:D50" si="0">LEFT(C2, FIND("-", C2)-1)</f>
+        <f t="shared" ref="D2:D61" si="0">LEFT(C2, FIND("-", C2)-1)</f>
         <v>numeric</v>
       </c>
       <c r="E2" s="2">
@@ -1773,7 +1845,7 @@
         <v>45</v>
       </c>
       <c r="T3" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1781,7 +1853,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>28</v>
@@ -1887,7 +1959,7 @@
         <v>45</v>
       </c>
       <c r="T5" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1895,7 +1967,7 @@
         <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -1948,7 +2020,7 @@
         <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
@@ -2001,7 +2073,7 @@
         <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
@@ -2054,7 +2126,7 @@
         <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
@@ -2107,7 +2179,7 @@
         <v>74</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
@@ -2160,7 +2232,7 @@
         <v>75</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>27</v>
@@ -2213,7 +2285,7 @@
         <v>76</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>27</v>
@@ -2266,7 +2338,7 @@
         <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>27</v>
@@ -2319,7 +2391,7 @@
         <v>78</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>27</v>
@@ -2372,7 +2444,7 @@
         <v>79</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>27</v>
@@ -2425,7 +2497,7 @@
         <v>80</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>27</v>
@@ -2478,7 +2550,7 @@
         <v>81</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>27</v>
@@ -2531,7 +2603,7 @@
         <v>82</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>27</v>
@@ -2584,7 +2656,7 @@
         <v>83</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>27</v>
@@ -2637,7 +2709,7 @@
         <v>84</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>27</v>
@@ -2690,7 +2762,7 @@
         <v>85</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>27</v>
@@ -2743,7 +2815,7 @@
         <v>86</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>27</v>
@@ -2796,7 +2868,7 @@
         <v>87</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>27</v>
@@ -3067,7 +3139,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="27" t="str">
-        <f t="shared" ref="D28:D40" si="8">LEFT(C28, FIND("-", C28)-1)</f>
+        <f t="shared" ref="D28:D41" si="8">LEFT(C28, FIND("-", C28)-1)</f>
         <v>nominal</v>
       </c>
       <c r="E28" s="27"/>
@@ -3114,7 +3186,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>98</v>
+        <v>353</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>27</v>
@@ -3220,7 +3292,7 @@
         <v>15</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>104</v>
+        <v>350</v>
       </c>
       <c r="C31" s="27" t="s">
         <v>27</v>
@@ -3273,7 +3345,7 @@
         <v>16</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>27</v>
@@ -3326,7 +3398,7 @@
         <v>17</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>27</v>
@@ -3379,7 +3451,7 @@
         <v>18</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>27</v>
@@ -3432,7 +3504,7 @@
         <v>19</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>27</v>
@@ -3485,7 +3557,7 @@
         <v>20</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>27</v>
@@ -3538,7 +3610,7 @@
         <v>21</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>27</v>
@@ -3588,16 +3660,16 @@
     </row>
     <row r="38" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>219</v>
+        <v>366</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="D38" si="9">LEFT(C38, FIND("-", C38)-1)</f>
         <v>nominal</v>
       </c>
       <c r="E38" s="27"/>
@@ -3641,10 +3713,10 @@
     </row>
     <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>111</v>
+        <v>215</v>
       </c>
       <c r="C39" s="27" t="s">
         <v>27</v>
@@ -3694,10 +3766,10 @@
     </row>
     <row r="40" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C40" s="27" t="s">
         <v>27</v>
@@ -3747,16 +3819,16 @@
     </row>
     <row r="41" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>351</v>
+        <v>110</v>
       </c>
       <c r="C41" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D41" s="27" t="str">
-        <f t="shared" ref="D41:D42" si="9">LEFT(C41, FIND("-", C41)-1)</f>
+        <f t="shared" si="8"/>
         <v>nominal</v>
       </c>
       <c r="E41" s="27"/>
@@ -3800,16 +3872,16 @@
     </row>
     <row r="42" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C42" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="27" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="D42:D43" si="10">LEFT(C42, FIND("-", C42)-1)</f>
         <v>nominal</v>
       </c>
       <c r="E42" s="27"/>
@@ -3849,126 +3921,130 @@
       <c r="S42" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="T42" s="29"/>
+      <c r="T42" s="29" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="43" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="30">
-        <v>3</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="31" t="s">
+      <c r="A43" s="25">
+        <v>89</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="C43" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="31" t="str">
-        <f t="shared" ref="D43" si="10">LEFT(C43, FIND("-", C43)-1)</f>
+      <c r="D43" s="27" t="str">
+        <f t="shared" si="10"/>
         <v>nominal</v>
       </c>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="30" t="s">
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J43" s="30">
+      <c r="J43" s="25">
         <v>0</v>
       </c>
-      <c r="K43" s="30" t="s">
+      <c r="K43" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="L43" s="30">
-        <v>6</v>
-      </c>
-      <c r="M43" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="N43" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="O43" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="P43" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q43" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="R43" s="32" t="s">
+      <c r="L43" s="25">
+        <v>0</v>
+      </c>
+      <c r="M43" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="N43" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O43" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="P43" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q43" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="R43" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="S43" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="T43" s="33"/>
+      <c r="S43" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="T43" s="29" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="44" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="30">
-        <v>25</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="C44" s="31" t="s">
+      <c r="A44" s="25">
+        <v>98</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="C44" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="31" t="str">
-        <f>LEFT(C44, FIND("-", C44)-1)</f>
+      <c r="D44" s="27" t="str">
+        <f t="shared" ref="D44" si="11">LEFT(C44, FIND("-", C44)-1)</f>
         <v>nominal</v>
       </c>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="30" t="s">
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J44" s="30">
+      <c r="J44" s="25">
         <v>0</v>
       </c>
-      <c r="K44" s="30" t="s">
+      <c r="K44" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="L44" s="30">
-        <v>6</v>
-      </c>
-      <c r="M44" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="N44" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="O44" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="P44" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q44" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="R44" s="32" t="s">
+      <c r="L44" s="25">
+        <v>0</v>
+      </c>
+      <c r="M44" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="N44" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O44" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="P44" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q44" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="R44" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="S44" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="T44" s="33"/>
+      <c r="S44" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="T44" s="29"/>
     </row>
     <row r="45" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="C45" s="31" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="31" t="str">
-        <f>LEFT(C45, FIND("-", C45)-1)</f>
+        <f t="shared" ref="D45" si="12">LEFT(C45, FIND("-", C45)-1)</f>
         <v>nominal</v>
       </c>
       <c r="E45" s="31"/>
@@ -3988,7 +4064,7 @@
         <v>6</v>
       </c>
       <c r="M45" s="30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N45" s="32" t="s">
         <v>45</v>
@@ -4012,10 +4088,10 @@
     </row>
     <row r="46" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="30">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C46" s="31" t="s">
         <v>27</v>
@@ -4041,7 +4117,7 @@
         <v>6</v>
       </c>
       <c r="M46" s="30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N46" s="32" t="s">
         <v>45</v>
@@ -4065,10 +4141,10 @@
     </row>
     <row r="47" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="30">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="C47" s="31" t="s">
         <v>27</v>
@@ -4094,7 +4170,7 @@
         <v>6</v>
       </c>
       <c r="M47" s="30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N47" s="32" t="s">
         <v>45</v>
@@ -4117,797 +4193,733 @@
       <c r="T47" s="33"/>
     </row>
     <row r="48" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="34">
+      <c r="A48" s="30">
+        <v>27</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="31" t="str">
+        <f>LEFT(C48, FIND("-", C48)-1)</f>
+        <v>nominal</v>
+      </c>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" s="30">
+        <v>0</v>
+      </c>
+      <c r="K48" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="L48" s="30">
+        <v>6</v>
+      </c>
+      <c r="M48" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="N48" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="O48" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="P48" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q48" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="R48" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="S48" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="T48" s="33"/>
+    </row>
+    <row r="49" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="30">
+        <v>28</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="31" t="str">
+        <f>LEFT(C49, FIND("-", C49)-1)</f>
+        <v>nominal</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49" s="30">
+        <v>0</v>
+      </c>
+      <c r="K49" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="L49" s="30">
+        <v>6</v>
+      </c>
+      <c r="M49" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="N49" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="O49" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="P49" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q49" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="R49" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="S49" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="T49" s="33"/>
+    </row>
+    <row r="50" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="30">
+        <v>29</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="31" t="str">
+        <f>LEFT(C50, FIND("-", C50)-1)</f>
+        <v>nominal</v>
+      </c>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" s="30">
+        <v>0</v>
+      </c>
+      <c r="K50" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="L50" s="30">
+        <v>6</v>
+      </c>
+      <c r="M50" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="N50" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="O50" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="P50" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q50" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="R50" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="S50" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="T50" s="33"/>
+    </row>
+    <row r="51" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="30">
+        <v>56</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="31" t="str">
+        <f>LEFT(C51, FIND("-", C51)-1)</f>
+        <v>nominal</v>
+      </c>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J51" s="30">
+        <v>0</v>
+      </c>
+      <c r="K51" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="L51" s="30">
+        <v>6</v>
+      </c>
+      <c r="M51" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="N51" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="O51" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="P51" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q51" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="R51" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="S51" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="T51" s="33"/>
+    </row>
+    <row r="52" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="30">
+        <v>90</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="31" t="str">
+        <f>LEFT(C52, FIND("-", C52)-1)</f>
+        <v>nominal</v>
+      </c>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52" s="30">
+        <v>0</v>
+      </c>
+      <c r="K52" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="L52" s="30">
+        <v>6</v>
+      </c>
+      <c r="M52" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="N52" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="O52" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="P52" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q52" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="R52" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="S52" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="T52" s="33"/>
+    </row>
+    <row r="53" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="30">
+        <v>91</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="31" t="str">
+        <f>LEFT(C53, FIND("-", C53)-1)</f>
+        <v>nominal</v>
+      </c>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J53" s="30">
+        <v>0</v>
+      </c>
+      <c r="K53" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="L53" s="30">
+        <v>6</v>
+      </c>
+      <c r="M53" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="N53" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="O53" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="P53" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q53" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="R53" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="S53" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="T53" s="33"/>
+    </row>
+    <row r="54" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="30">
+        <v>92</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="31" t="str">
+        <f>LEFT(C54, FIND("-", C54)-1)</f>
+        <v>nominal</v>
+      </c>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J54" s="30">
+        <v>0</v>
+      </c>
+      <c r="K54" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="L54" s="30">
+        <v>6</v>
+      </c>
+      <c r="M54" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="N54" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="O54" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="P54" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q54" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="R54" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="S54" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="T54" s="33"/>
+    </row>
+    <row r="55" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="30">
+        <v>93</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="31" t="str">
+        <f>LEFT(C55, FIND("-", C55)-1)</f>
+        <v>nominal</v>
+      </c>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J55" s="30">
+        <v>0</v>
+      </c>
+      <c r="K55" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="L55" s="30">
+        <v>6</v>
+      </c>
+      <c r="M55" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="N55" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="O55" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="P55" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q55" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="R55" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="S55" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="T55" s="33"/>
+    </row>
+    <row r="56" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="30">
+        <v>94</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="31" t="str">
+        <f>LEFT(C56, FIND("-", C56)-1)</f>
+        <v>nominal</v>
+      </c>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J56" s="30">
+        <v>0</v>
+      </c>
+      <c r="K56" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="L56" s="30">
+        <v>6</v>
+      </c>
+      <c r="M56" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="N56" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="O56" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="P56" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q56" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="R56" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="S56" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="T56" s="33"/>
+    </row>
+    <row r="57" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="30">
+        <v>96</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="31" t="str">
+        <f>LEFT(C57, FIND("-", C57)-1)</f>
+        <v>nominal</v>
+      </c>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J57" s="30">
+        <v>0</v>
+      </c>
+      <c r="K57" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="L57" s="30">
+        <v>6</v>
+      </c>
+      <c r="M57" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="N57" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="O57" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="P57" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q57" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="R57" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="S57" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="T57" s="33"/>
+    </row>
+    <row r="58" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="30">
+        <v>97</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="31" t="str">
+        <f>LEFT(C58, FIND("-", C58)-1)</f>
+        <v>nominal</v>
+      </c>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J58" s="30">
+        <v>0</v>
+      </c>
+      <c r="K58" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="L58" s="30">
+        <v>6</v>
+      </c>
+      <c r="M58" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="N58" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="O58" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="P58" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q58" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="R58" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="S58" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="T58" s="33" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="34">
         <v>1</v>
       </c>
-      <c r="B48" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="C48" s="35" t="s">
+      <c r="B59" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="C59" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="35" t="str">
-        <f t="shared" ref="D48:D49" si="11">LEFT(C48, FIND("-", C48)-1)</f>
+      <c r="D59" s="35" t="str">
+        <f t="shared" ref="D59:D60" si="13">LEFT(C59, FIND("-", C59)-1)</f>
         <v>numeric</v>
       </c>
-      <c r="E48" s="35">
+      <c r="E59" s="35">
         <v>0</v>
       </c>
-      <c r="F48" s="36">
+      <c r="F59" s="36">
         <v>800</v>
       </c>
-      <c r="G48" s="36" t="s">
+      <c r="G59" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H48" s="36" t="s">
+      <c r="H59" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I48" s="35"/>
-      <c r="J48" s="34">
+      <c r="I59" s="35"/>
+      <c r="J59" s="34">
         <v>0</v>
       </c>
-      <c r="K48" s="34" t="s">
+      <c r="K59" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="L48" s="34">
+      <c r="L59" s="34">
         <v>24</v>
       </c>
-      <c r="M48" s="34" t="s">
+      <c r="M59" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="N48" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="O48" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="P48" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q48" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="R48" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="S48" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="T48" s="38"/>
-    </row>
-    <row r="49" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="34">
+      <c r="N59" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="O59" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="P59" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q59" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="R59" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="S59" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="T59" s="38"/>
+    </row>
+    <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="34">
         <v>2</v>
       </c>
-      <c r="B49" s="35" t="s">
-        <v>292</v>
-      </c>
-      <c r="C49" s="35" t="s">
+      <c r="B60" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="C60" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="35" t="str">
-        <f t="shared" si="11"/>
+      <c r="D60" s="35" t="str">
+        <f t="shared" si="13"/>
         <v>numeric</v>
       </c>
-      <c r="E49" s="35">
+      <c r="E60" s="35">
         <v>0</v>
       </c>
-      <c r="F49" s="36">
+      <c r="F60" s="36">
         <v>700</v>
       </c>
-      <c r="G49" s="36" t="s">
+      <c r="G60" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H49" s="36" t="s">
+      <c r="H60" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35">
+      <c r="I60" s="35"/>
+      <c r="J60" s="35">
         <v>0</v>
       </c>
-      <c r="K49" s="34" t="s">
+      <c r="K60" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="L49" s="35">
+      <c r="L60" s="35">
         <v>24</v>
       </c>
-      <c r="M49" s="34" t="s">
+      <c r="M60" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="N49" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="O49" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="P49" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q49" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="R49" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="S49" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="T49" s="38"/>
-    </row>
-    <row r="50" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="34">
+      <c r="N60" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="O60" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="P60" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q60" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="R60" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="S60" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="T60" s="38"/>
+    </row>
+    <row r="61" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="34">
         <v>30</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B61" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C61" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D50" s="35" t="str">
+      <c r="D61" s="35" t="str">
         <f t="shared" si="0"/>
         <v>numeric</v>
       </c>
-      <c r="E50" s="35">
-        <v>0</v>
-      </c>
-      <c r="F50" s="34">
-        <v>20</v>
-      </c>
-      <c r="G50" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34">
-        <v>0</v>
-      </c>
-      <c r="K50" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="L50" s="34">
-        <v>72</v>
-      </c>
-      <c r="M50" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="N50" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="O50" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="P50" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q50" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="R50" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="S50" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="T50" s="38"/>
-    </row>
-    <row r="51" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="34">
-        <v>31</v>
-      </c>
-      <c r="B51" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" s="35" t="str">
-        <f t="shared" ref="D51:D82" si="12">LEFT(C51, FIND("-", C51)-1)</f>
-        <v>numeric</v>
-      </c>
-      <c r="E51" s="35">
-        <v>0</v>
-      </c>
-      <c r="F51" s="34">
-        <v>6</v>
-      </c>
-      <c r="G51" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="H51" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34">
-        <v>0</v>
-      </c>
-      <c r="K51" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="L51" s="34">
-        <v>72</v>
-      </c>
-      <c r="M51" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="N51" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="O51" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="P51" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q51" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="R51" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="S51" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="T51" s="38"/>
-    </row>
-    <row r="52" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="34">
-        <v>32</v>
-      </c>
-      <c r="B52" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D52" s="35" t="str">
-        <f t="shared" si="12"/>
-        <v>numeric</v>
-      </c>
-      <c r="E52" s="35">
-        <v>0</v>
-      </c>
-      <c r="F52" s="34">
-        <v>20</v>
-      </c>
-      <c r="G52" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34">
-        <v>0</v>
-      </c>
-      <c r="K52" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="L52" s="34">
-        <v>72</v>
-      </c>
-      <c r="M52" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="N52" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="O52" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="P52" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q52" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="R52" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="S52" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="T52" s="38"/>
-    </row>
-    <row r="53" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="34">
-        <v>33</v>
-      </c>
-      <c r="B53" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D53" s="35" t="str">
-        <f t="shared" si="12"/>
-        <v>numeric</v>
-      </c>
-      <c r="E53" s="35">
-        <v>0</v>
-      </c>
-      <c r="F53" s="34">
-        <v>80</v>
-      </c>
-      <c r="G53" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="H53" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34">
-        <v>0</v>
-      </c>
-      <c r="K53" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="L53" s="34">
-        <v>72</v>
-      </c>
-      <c r="M53" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="N53" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="O53" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="P53" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q53" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="R53" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="S53" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="T53" s="38"/>
-    </row>
-    <row r="54" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="34">
-        <v>34</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C54" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D54" s="35" t="str">
-        <f t="shared" si="12"/>
-        <v>numeric</v>
-      </c>
-      <c r="E54" s="35">
-        <v>0</v>
-      </c>
-      <c r="F54" s="34">
-        <v>140</v>
-      </c>
-      <c r="G54" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="H54" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34">
-        <v>0</v>
-      </c>
-      <c r="K54" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="L54" s="34">
-        <v>72</v>
-      </c>
-      <c r="M54" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="N54" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="O54" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="P54" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q54" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="R54" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="S54" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="T54" s="38"/>
-    </row>
-    <row r="55" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="34">
-        <v>35</v>
-      </c>
-      <c r="B55" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D55" s="35" t="str">
-        <f t="shared" si="12"/>
-        <v>numeric</v>
-      </c>
-      <c r="E55" s="35">
-        <v>0</v>
-      </c>
-      <c r="F55" s="34">
-        <v>45</v>
-      </c>
-      <c r="G55" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="H55" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34">
-        <v>0</v>
-      </c>
-      <c r="K55" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="L55" s="34">
-        <v>72</v>
-      </c>
-      <c r="M55" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="N55" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="O55" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="P55" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q55" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="R55" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="S55" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="T55" s="38"/>
-    </row>
-    <row r="56" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="34">
-        <v>36</v>
-      </c>
-      <c r="B56" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C56" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D56" s="35" t="str">
-        <f t="shared" si="12"/>
-        <v>numeric</v>
-      </c>
-      <c r="E56" s="35">
-        <v>0</v>
-      </c>
-      <c r="F56" s="34">
-        <v>10</v>
-      </c>
-      <c r="G56" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="H56" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="I56" s="34"/>
-      <c r="J56" s="34">
-        <v>0</v>
-      </c>
-      <c r="K56" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="L56" s="34">
-        <v>72</v>
-      </c>
-      <c r="M56" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="N56" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="O56" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="P56" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q56" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="R56" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="S56" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="T56" s="38"/>
-    </row>
-    <row r="57" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="34">
-        <v>37</v>
-      </c>
-      <c r="B57" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C57" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="35" t="str">
-        <f t="shared" si="12"/>
-        <v>numeric</v>
-      </c>
-      <c r="E57" s="35">
-        <v>0</v>
-      </c>
-      <c r="F57" s="34">
-        <v>100</v>
-      </c>
-      <c r="G57" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="H57" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="I57" s="34"/>
-      <c r="J57" s="34">
-        <v>0</v>
-      </c>
-      <c r="K57" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="L57" s="34">
-        <v>72</v>
-      </c>
-      <c r="M57" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="N57" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="O57" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="P57" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q57" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="R57" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="S57" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="T57" s="38"/>
-    </row>
-    <row r="58" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="34">
-        <v>38</v>
-      </c>
-      <c r="B58" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="35" t="str">
-        <f t="shared" si="12"/>
-        <v>numeric</v>
-      </c>
-      <c r="E58" s="35">
-        <v>0</v>
-      </c>
-      <c r="F58" s="34">
-        <v>15</v>
-      </c>
-      <c r="G58" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="H58" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34">
-        <v>0</v>
-      </c>
-      <c r="K58" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="L58" s="34">
-        <v>72</v>
-      </c>
-      <c r="M58" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="N58" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="O58" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="P58" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q58" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="R58" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="S58" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="T58" s="38"/>
-    </row>
-    <row r="59" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="34">
-        <v>39</v>
-      </c>
-      <c r="B59" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" s="35" t="str">
-        <f t="shared" si="12"/>
-        <v>numeric</v>
-      </c>
-      <c r="E59" s="35">
-        <v>0</v>
-      </c>
-      <c r="F59" s="34">
-        <v>35</v>
-      </c>
-      <c r="G59" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="H59" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="I59" s="34"/>
-      <c r="J59" s="34">
-        <v>0</v>
-      </c>
-      <c r="K59" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="L59" s="34">
-        <v>72</v>
-      </c>
-      <c r="M59" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="N59" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="O59" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="P59" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q59" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="R59" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="S59" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="T59" s="38"/>
-    </row>
-    <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="34">
-        <v>40</v>
-      </c>
-      <c r="B60" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D60" s="35" t="str">
-        <f t="shared" si="12"/>
-        <v>numeric</v>
-      </c>
-      <c r="E60" s="35">
-        <v>0</v>
-      </c>
-      <c r="F60" s="34">
-        <v>1100</v>
-      </c>
-      <c r="G60" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="H60" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34">
-        <v>0</v>
-      </c>
-      <c r="K60" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="L60" s="34">
-        <v>72</v>
-      </c>
-      <c r="M60" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="N60" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="O60" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="P60" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q60" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="R60" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="S60" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="T60" s="38"/>
-    </row>
-    <row r="61" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="34">
-        <v>41</v>
-      </c>
-      <c r="B61" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="C61" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="35" t="str">
-        <f t="shared" si="12"/>
-        <v>numeric</v>
-      </c>
       <c r="E61" s="35">
         <v>0</v>
       </c>
       <c r="F61" s="34">
-        <v>25</v>
-      </c>
-      <c r="G61" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="35" t="s">
         <v>10</v>
       </c>
       <c r="H61" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I61" s="34"/>
       <c r="J61" s="34">
@@ -4942,31 +4954,31 @@
       </c>
       <c r="T61" s="38"/>
     </row>
-    <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="34">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C62" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D62" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="D62:D93" si="14">LEFT(C62, FIND("-", C62)-1)</f>
         <v>numeric</v>
       </c>
       <c r="E62" s="35">
         <v>0</v>
       </c>
       <c r="F62" s="34">
-        <v>20</v>
-      </c>
-      <c r="G62" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="35" t="s">
         <v>10</v>
       </c>
       <c r="H62" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I62" s="34"/>
       <c r="J62" s="34">
@@ -5001,31 +5013,31 @@
       </c>
       <c r="T62" s="38"/>
     </row>
-    <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="34">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>290</v>
+        <v>71</v>
       </c>
       <c r="C63" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D63" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>numeric</v>
       </c>
       <c r="E63" s="35">
         <v>0</v>
       </c>
       <c r="F63" s="34">
-        <v>15</v>
-      </c>
-      <c r="G63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" s="35" t="s">
         <v>10</v>
       </c>
       <c r="H63" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I63" s="34"/>
       <c r="J63" s="34">
@@ -5060,31 +5072,31 @@
       </c>
       <c r="T63" s="38"/>
     </row>
-    <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="34">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B64" s="34" t="s">
-        <v>289</v>
+        <v>72</v>
       </c>
       <c r="C64" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D64" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>numeric</v>
       </c>
       <c r="E64" s="35">
         <v>0</v>
       </c>
       <c r="F64" s="34">
-        <v>40000</v>
-      </c>
-      <c r="G64" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="G64" s="35" t="s">
         <v>10</v>
       </c>
       <c r="H64" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I64" s="34"/>
       <c r="J64" s="34">
@@ -5119,31 +5131,31 @@
       </c>
       <c r="T64" s="38"/>
     </row>
-    <row r="65" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="34">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B65" s="34" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C65" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D65" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>numeric</v>
       </c>
       <c r="E65" s="35">
         <v>0</v>
       </c>
       <c r="F65" s="34">
-        <v>350</v>
-      </c>
-      <c r="G65" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="G65" s="35" t="s">
         <v>10</v>
       </c>
       <c r="H65" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I65" s="34"/>
       <c r="J65" s="34">
@@ -5178,31 +5190,31 @@
       </c>
       <c r="T65" s="38"/>
     </row>
-    <row r="66" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="34">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B66" s="34" t="s">
-        <v>288</v>
+        <v>74</v>
       </c>
       <c r="C66" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D66" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>numeric</v>
       </c>
       <c r="E66" s="35">
         <v>0</v>
       </c>
       <c r="F66" s="34">
-        <v>100</v>
-      </c>
-      <c r="G66" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="G66" s="35" t="s">
         <v>10</v>
       </c>
       <c r="H66" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I66" s="34"/>
       <c r="J66" s="34">
@@ -5239,29 +5251,29 @@
     </row>
     <row r="67" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="34">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B67" s="34" t="s">
-        <v>287</v>
+        <v>75</v>
       </c>
       <c r="C67" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D67" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>numeric</v>
       </c>
       <c r="E67" s="35">
         <v>0</v>
       </c>
       <c r="F67" s="34">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G67" s="36" t="s">
         <v>10</v>
       </c>
       <c r="H67" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I67" s="34"/>
       <c r="J67" s="34">
@@ -5298,29 +5310,29 @@
     </row>
     <row r="68" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="34">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B68" s="34" t="s">
-        <v>286</v>
+        <v>76</v>
       </c>
       <c r="C68" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D68" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>numeric</v>
       </c>
       <c r="E68" s="35">
         <v>0</v>
       </c>
       <c r="F68" s="34">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G68" s="36" t="s">
         <v>10</v>
       </c>
       <c r="H68" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I68" s="34"/>
       <c r="J68" s="34">
@@ -5357,29 +5369,29 @@
     </row>
     <row r="69" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="34">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>285</v>
+        <v>77</v>
       </c>
       <c r="C69" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D69" s="35" t="str">
-        <f t="shared" ref="D69" si="13">LEFT(C69, FIND("-", C69)-1)</f>
+        <f t="shared" si="14"/>
         <v>numeric</v>
       </c>
       <c r="E69" s="35">
         <v>0</v>
       </c>
       <c r="F69" s="34">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="G69" s="36" t="s">
         <v>10</v>
       </c>
       <c r="H69" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I69" s="34"/>
       <c r="J69" s="34">
@@ -5416,29 +5428,29 @@
     </row>
     <row r="70" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="34">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C70" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D70" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>numeric</v>
       </c>
       <c r="E70" s="35">
         <v>0</v>
       </c>
       <c r="F70" s="34">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G70" s="36" t="s">
         <v>10</v>
       </c>
       <c r="H70" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I70" s="34"/>
       <c r="J70" s="34">
@@ -5475,29 +5487,29 @@
     </row>
     <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="34">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C71" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D71" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>numeric</v>
       </c>
       <c r="E71" s="35">
         <v>0</v>
       </c>
       <c r="F71" s="34">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G71" s="36" t="s">
         <v>10</v>
       </c>
       <c r="H71" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I71" s="34"/>
       <c r="J71" s="34">
@@ -5534,29 +5546,29 @@
     </row>
     <row r="72" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="34">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="C72" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D72" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>numeric</v>
       </c>
       <c r="E72" s="35">
         <v>0</v>
       </c>
       <c r="F72" s="34">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="G72" s="36" t="s">
         <v>10</v>
       </c>
       <c r="H72" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I72" s="34"/>
       <c r="J72" s="34">
@@ -5566,7 +5578,7 @@
         <v>44</v>
       </c>
       <c r="L72" s="34">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="M72" s="34" t="s">
         <v>44</v>
@@ -5593,29 +5605,29 @@
     </row>
     <row r="73" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="34">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B73" s="34" t="s">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="C73" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D73" s="35" t="str">
-        <f t="shared" ref="D73" si="14">LEFT(C73, FIND("-", C73)-1)</f>
+        <f t="shared" si="14"/>
         <v>numeric</v>
       </c>
       <c r="E73" s="35">
         <v>0</v>
       </c>
       <c r="F73" s="34">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="G73" s="36" t="s">
         <v>10</v>
       </c>
       <c r="H73" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I73" s="34"/>
       <c r="J73" s="34">
@@ -5625,7 +5637,7 @@
         <v>44</v>
       </c>
       <c r="L73" s="34">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="M73" s="34" t="s">
         <v>44</v>
@@ -5652,29 +5664,29 @@
     </row>
     <row r="74" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="34">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>85</v>
+        <v>286</v>
       </c>
       <c r="C74" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D74" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>numeric</v>
       </c>
       <c r="E74" s="35">
         <v>0</v>
       </c>
       <c r="F74" s="34">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G74" s="36" t="s">
         <v>10</v>
       </c>
       <c r="H74" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I74" s="34"/>
       <c r="J74" s="34">
@@ -5711,29 +5723,29 @@
     </row>
     <row r="75" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="34">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>86</v>
+        <v>285</v>
       </c>
       <c r="C75" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D75" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>numeric</v>
       </c>
       <c r="E75" s="35">
         <v>0</v>
       </c>
       <c r="F75" s="34">
-        <v>60</v>
+        <v>40000</v>
       </c>
       <c r="G75" s="36" t="s">
         <v>10</v>
       </c>
       <c r="H75" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I75" s="34"/>
       <c r="J75" s="34">
@@ -5770,29 +5782,29 @@
     </row>
     <row r="76" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="34">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B76" s="34" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C76" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D76" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>numeric</v>
       </c>
       <c r="E76" s="35">
         <v>0</v>
       </c>
       <c r="F76" s="34">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="G76" s="36" t="s">
         <v>10</v>
       </c>
       <c r="H76" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I76" s="34"/>
       <c r="J76" s="34">
@@ -5829,29 +5841,29 @@
     </row>
     <row r="77" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="34">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B77" s="34" t="s">
-        <v>88</v>
+        <v>284</v>
       </c>
       <c r="C77" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D77" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>numeric</v>
       </c>
       <c r="E77" s="35">
         <v>0</v>
       </c>
       <c r="F77" s="34">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G77" s="36" t="s">
         <v>10</v>
       </c>
       <c r="H77" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I77" s="34"/>
       <c r="J77" s="34">
@@ -5861,7 +5873,7 @@
         <v>44</v>
       </c>
       <c r="L77" s="34">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="M77" s="34" t="s">
         <v>44</v>
@@ -5888,29 +5900,29 @@
     </row>
     <row r="78" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="34">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B78" s="34" t="s">
-        <v>89</v>
+        <v>283</v>
       </c>
       <c r="C78" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D78" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>numeric</v>
       </c>
       <c r="E78" s="35">
         <v>0</v>
       </c>
       <c r="F78" s="34">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="G78" s="36" t="s">
         <v>10</v>
       </c>
       <c r="H78" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I78" s="34"/>
       <c r="J78" s="34">
@@ -5920,7 +5932,7 @@
         <v>44</v>
       </c>
       <c r="L78" s="34">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="M78" s="34" t="s">
         <v>44</v>
@@ -5947,29 +5959,29 @@
     </row>
     <row r="79" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="34">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>90</v>
+        <v>282</v>
       </c>
       <c r="C79" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D79" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>numeric</v>
       </c>
       <c r="E79" s="35">
         <v>0</v>
       </c>
       <c r="F79" s="34">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G79" s="36" t="s">
         <v>10</v>
       </c>
       <c r="H79" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I79" s="34"/>
       <c r="J79" s="34">
@@ -5979,7 +5991,7 @@
         <v>44</v>
       </c>
       <c r="L79" s="34">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="M79" s="34" t="s">
         <v>44</v>
@@ -6006,16 +6018,16 @@
     </row>
     <row r="80" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="34">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>91</v>
+        <v>281</v>
       </c>
       <c r="C80" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D80" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="D80" si="15">LEFT(C80, FIND("-", C80)-1)</f>
         <v>numeric</v>
       </c>
       <c r="E80" s="35">
@@ -6028,7 +6040,7 @@
         <v>10</v>
       </c>
       <c r="H80" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I80" s="34"/>
       <c r="J80" s="34">
@@ -6038,7 +6050,7 @@
         <v>44</v>
       </c>
       <c r="L80" s="34">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="M80" s="34" t="s">
         <v>44</v>
@@ -6065,29 +6077,29 @@
     </row>
     <row r="81" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="34">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C81" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>numeric</v>
       </c>
       <c r="E81" s="35">
         <v>0</v>
       </c>
       <c r="F81" s="34">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="G81" s="36" t="s">
         <v>10</v>
       </c>
       <c r="H81" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I81" s="34"/>
       <c r="J81" s="34">
@@ -6124,29 +6136,29 @@
     </row>
     <row r="82" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="34">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C82" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D82" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>numeric</v>
       </c>
       <c r="E82" s="35">
         <v>0</v>
       </c>
       <c r="F82" s="34">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G82" s="36" t="s">
         <v>10</v>
       </c>
       <c r="H82" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I82" s="34"/>
       <c r="J82" s="34">
@@ -6156,10 +6168,10 @@
         <v>44</v>
       </c>
       <c r="L82" s="34">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="M82" s="34" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="N82" s="37" t="s">
         <v>45</v>
@@ -6183,29 +6195,29 @@
     </row>
     <row r="83" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="34">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>168</v>
+        <v>279</v>
       </c>
       <c r="C83" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D83" s="35" t="str">
-        <f t="shared" ref="D83:D84" si="15">LEFT(C83, FIND("-", C83)-1)</f>
+        <f t="shared" si="14"/>
         <v>numeric</v>
       </c>
       <c r="E83" s="35">
         <v>0</v>
       </c>
       <c r="F83" s="34">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="G83" s="36" t="s">
         <v>10</v>
       </c>
       <c r="H83" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I83" s="34"/>
       <c r="J83" s="34">
@@ -6215,7 +6227,7 @@
         <v>44</v>
       </c>
       <c r="L83" s="34">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="M83" s="34" t="s">
         <v>44</v>
@@ -6242,29 +6254,29 @@
     </row>
     <row r="84" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="34">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>169</v>
+        <v>280</v>
       </c>
       <c r="C84" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D84" s="35" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="D84" si="16">LEFT(C84, FIND("-", C84)-1)</f>
         <v>numeric</v>
       </c>
       <c r="E84" s="35">
         <v>0</v>
       </c>
       <c r="F84" s="34">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G84" s="36" t="s">
         <v>10</v>
       </c>
       <c r="H84" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I84" s="34"/>
       <c r="J84" s="34">
@@ -6274,7 +6286,7 @@
         <v>44</v>
       </c>
       <c r="L84" s="34">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M84" s="34" t="s">
         <v>44</v>
@@ -6301,29 +6313,29 @@
     </row>
     <row r="85" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="34">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="C85" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D85" s="35" t="str">
-        <f t="shared" ref="D85:D86" si="16">LEFT(C85, FIND("-", C85)-1)</f>
+        <f t="shared" si="14"/>
         <v>numeric</v>
       </c>
       <c r="E85" s="35">
         <v>0</v>
       </c>
       <c r="F85" s="34">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="G85" s="36" t="s">
         <v>10</v>
       </c>
       <c r="H85" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I85" s="34"/>
       <c r="J85" s="34">
@@ -6360,29 +6372,29 @@
     </row>
     <row r="86" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="34">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B86" s="34" t="s">
-        <v>171</v>
+        <v>86</v>
       </c>
       <c r="C86" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D86" s="35" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>numeric</v>
       </c>
       <c r="E86" s="35">
         <v>0</v>
       </c>
       <c r="F86" s="34">
-        <v>10000</v>
+        <v>60</v>
       </c>
       <c r="G86" s="36" t="s">
         <v>10</v>
       </c>
       <c r="H86" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I86" s="34"/>
       <c r="J86" s="34">
@@ -6419,29 +6431,29 @@
     </row>
     <row r="87" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="34">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B87" s="34" t="s">
-        <v>277</v>
+        <v>87</v>
       </c>
       <c r="C87" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D87" s="35" t="str">
-        <f t="shared" ref="D87:D88" si="17">LEFT(C87, FIND("-", C87)-1)</f>
+        <f t="shared" si="14"/>
         <v>numeric</v>
       </c>
       <c r="E87" s="35">
         <v>0</v>
       </c>
       <c r="F87" s="34">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="G87" s="36" t="s">
         <v>10</v>
       </c>
       <c r="H87" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I87" s="34"/>
       <c r="J87" s="34">
@@ -6478,29 +6490,29 @@
     </row>
     <row r="88" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="34">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B88" s="34" t="s">
-        <v>278</v>
+        <v>88</v>
       </c>
       <c r="C88" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D88" s="35" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>numeric</v>
       </c>
       <c r="E88" s="35">
         <v>0</v>
       </c>
       <c r="F88" s="34">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G88" s="36" t="s">
         <v>10</v>
       </c>
       <c r="H88" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I88" s="34"/>
       <c r="J88" s="34">
@@ -6510,7 +6522,7 @@
         <v>44</v>
       </c>
       <c r="L88" s="34">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="M88" s="34" t="s">
         <v>44</v>
@@ -6536,246 +6548,653 @@
       <c r="T88" s="38"/>
     </row>
     <row r="89" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-      <c r="M89" s="3"/>
-      <c r="N89" s="14"/>
-      <c r="O89" s="14"/>
-      <c r="P89" s="14"/>
-      <c r="Q89" s="14"/>
-      <c r="R89" s="14"/>
-      <c r="S89" s="14"/>
-      <c r="T89" s="4"/>
+      <c r="A89" s="34">
+        <v>59</v>
+      </c>
+      <c r="B89" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" s="35" t="str">
+        <f t="shared" si="14"/>
+        <v>numeric</v>
+      </c>
+      <c r="E89" s="35">
+        <v>0</v>
+      </c>
+      <c r="F89" s="34">
+        <v>250</v>
+      </c>
+      <c r="G89" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="I89" s="34"/>
+      <c r="J89" s="34">
+        <v>0</v>
+      </c>
+      <c r="K89" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="L89" s="34">
+        <v>12</v>
+      </c>
+      <c r="M89" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="N89" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="O89" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="P89" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q89" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="R89" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="S89" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="T89" s="38"/>
     </row>
     <row r="90" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
-      <c r="N90" s="14"/>
-      <c r="O90" s="14"/>
-      <c r="P90" s="14"/>
-      <c r="Q90" s="14"/>
-      <c r="R90" s="14"/>
-      <c r="S90" s="14"/>
-      <c r="T90" s="4"/>
+      <c r="A90" s="34">
+        <v>60</v>
+      </c>
+      <c r="B90" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90" s="35" t="str">
+        <f t="shared" si="14"/>
+        <v>numeric</v>
+      </c>
+      <c r="E90" s="35">
+        <v>0</v>
+      </c>
+      <c r="F90" s="34">
+        <v>150</v>
+      </c>
+      <c r="G90" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H90" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="I90" s="34"/>
+      <c r="J90" s="34">
+        <v>0</v>
+      </c>
+      <c r="K90" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="L90" s="34">
+        <v>12</v>
+      </c>
+      <c r="M90" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="N90" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="O90" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="P90" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q90" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="R90" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="S90" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="T90" s="38"/>
     </row>
     <row r="91" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="14"/>
-      <c r="O91" s="14"/>
-      <c r="P91" s="14"/>
-      <c r="Q91" s="14"/>
-      <c r="R91" s="14"/>
-      <c r="S91" s="14"/>
-      <c r="T91" s="4"/>
+      <c r="A91" s="34">
+        <v>61</v>
+      </c>
+      <c r="B91" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" s="35" t="str">
+        <f t="shared" si="14"/>
+        <v>numeric</v>
+      </c>
+      <c r="E91" s="35">
+        <v>0</v>
+      </c>
+      <c r="F91" s="34">
+        <v>250</v>
+      </c>
+      <c r="G91" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="I91" s="34"/>
+      <c r="J91" s="34">
+        <v>0</v>
+      </c>
+      <c r="K91" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="L91" s="34">
+        <v>24</v>
+      </c>
+      <c r="M91" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="N91" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="O91" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="P91" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q91" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="R91" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="S91" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="T91" s="38"/>
     </row>
     <row r="92" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
-      <c r="N92" s="14"/>
-      <c r="O92" s="14"/>
-      <c r="P92" s="14"/>
-      <c r="Q92" s="14"/>
-      <c r="R92" s="14"/>
-      <c r="S92" s="14"/>
-      <c r="T92" s="4"/>
+      <c r="A92" s="34">
+        <v>62</v>
+      </c>
+      <c r="B92" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" s="35" t="str">
+        <f t="shared" si="14"/>
+        <v>numeric</v>
+      </c>
+      <c r="E92" s="35">
+        <v>0</v>
+      </c>
+      <c r="F92" s="34">
+        <v>200</v>
+      </c>
+      <c r="G92" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="I92" s="34"/>
+      <c r="J92" s="34">
+        <v>0</v>
+      </c>
+      <c r="K92" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="L92" s="34">
+        <v>72</v>
+      </c>
+      <c r="M92" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="N92" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="O92" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="P92" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q92" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="R92" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="S92" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="T92" s="38"/>
     </row>
     <row r="93" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
-      <c r="M93" s="3"/>
-      <c r="N93" s="14"/>
-      <c r="O93" s="14"/>
-      <c r="P93" s="14"/>
-      <c r="Q93" s="14"/>
-      <c r="R93" s="14"/>
-      <c r="S93" s="14"/>
-      <c r="T93" s="4"/>
+      <c r="A93" s="34">
+        <v>63</v>
+      </c>
+      <c r="B93" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C93" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D93" s="35" t="str">
+        <f t="shared" si="14"/>
+        <v>numeric</v>
+      </c>
+      <c r="E93" s="35">
+        <v>0</v>
+      </c>
+      <c r="F93" s="34">
+        <v>100</v>
+      </c>
+      <c r="G93" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H93" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="I93" s="34"/>
+      <c r="J93" s="34">
+        <v>0</v>
+      </c>
+      <c r="K93" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="L93" s="34">
+        <v>7</v>
+      </c>
+      <c r="M93" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="N93" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="O93" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="P93" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q93" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="R93" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="S93" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="T93" s="38"/>
     </row>
     <row r="94" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
-      <c r="M94" s="3"/>
-      <c r="N94" s="14"/>
-      <c r="O94" s="14"/>
-      <c r="P94" s="14"/>
-      <c r="Q94" s="14"/>
-      <c r="R94" s="14"/>
-      <c r="S94" s="14"/>
-      <c r="T94" s="4"/>
+      <c r="A94" s="34">
+        <v>64</v>
+      </c>
+      <c r="B94" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C94" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" s="35" t="str">
+        <f t="shared" ref="D94:D95" si="17">LEFT(C94, FIND("-", C94)-1)</f>
+        <v>numeric</v>
+      </c>
+      <c r="E94" s="35">
+        <v>0</v>
+      </c>
+      <c r="F94" s="34">
+        <v>50000</v>
+      </c>
+      <c r="G94" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H94" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="I94" s="34"/>
+      <c r="J94" s="34">
+        <v>0</v>
+      </c>
+      <c r="K94" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="L94" s="34">
+        <v>72</v>
+      </c>
+      <c r="M94" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="N94" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="O94" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="P94" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q94" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="R94" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="S94" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="T94" s="38"/>
     </row>
     <row r="95" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
-      <c r="M95" s="3"/>
-      <c r="N95" s="14"/>
-      <c r="O95" s="14"/>
-      <c r="P95" s="14"/>
-      <c r="Q95" s="14"/>
-      <c r="R95" s="14"/>
-      <c r="S95" s="14"/>
-      <c r="T95" s="4"/>
+      <c r="A95" s="34">
+        <v>65</v>
+      </c>
+      <c r="B95" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="C95" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" s="35" t="str">
+        <f t="shared" si="17"/>
+        <v>numeric</v>
+      </c>
+      <c r="E95" s="35">
+        <v>0</v>
+      </c>
+      <c r="F95" s="34">
+        <v>600</v>
+      </c>
+      <c r="G95" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="I95" s="34"/>
+      <c r="J95" s="34">
+        <v>0</v>
+      </c>
+      <c r="K95" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="L95" s="34">
+        <v>12</v>
+      </c>
+      <c r="M95" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="N95" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="O95" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="P95" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q95" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="R95" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="S95" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="T95" s="38"/>
     </row>
     <row r="96" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-      <c r="M96" s="3"/>
-      <c r="N96" s="14"/>
-      <c r="O96" s="14"/>
-      <c r="P96" s="14"/>
-      <c r="Q96" s="14"/>
-      <c r="R96" s="14"/>
-      <c r="S96" s="14"/>
-      <c r="T96" s="4"/>
+      <c r="A96" s="34">
+        <v>66</v>
+      </c>
+      <c r="B96" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C96" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="35" t="str">
+        <f t="shared" ref="D96:D97" si="18">LEFT(C96, FIND("-", C96)-1)</f>
+        <v>numeric</v>
+      </c>
+      <c r="E96" s="35">
+        <v>0</v>
+      </c>
+      <c r="F96" s="34">
+        <v>10000</v>
+      </c>
+      <c r="G96" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H96" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="I96" s="34"/>
+      <c r="J96" s="34">
+        <v>0</v>
+      </c>
+      <c r="K96" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="L96" s="34">
+        <v>72</v>
+      </c>
+      <c r="M96" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="N96" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="O96" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="P96" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q96" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="R96" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="S96" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="T96" s="38"/>
     </row>
     <row r="97" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
-      <c r="M97" s="3"/>
-      <c r="N97" s="14"/>
-      <c r="O97" s="14"/>
-      <c r="P97" s="14"/>
-      <c r="Q97" s="14"/>
-      <c r="R97" s="14"/>
-      <c r="S97" s="14"/>
-      <c r="T97" s="4"/>
+      <c r="A97" s="34">
+        <v>67</v>
+      </c>
+      <c r="B97" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C97" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97" s="35" t="str">
+        <f t="shared" si="18"/>
+        <v>numeric</v>
+      </c>
+      <c r="E97" s="35">
+        <v>0</v>
+      </c>
+      <c r="F97" s="34">
+        <v>10000</v>
+      </c>
+      <c r="G97" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="I97" s="34"/>
+      <c r="J97" s="34">
+        <v>0</v>
+      </c>
+      <c r="K97" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="L97" s="34">
+        <v>72</v>
+      </c>
+      <c r="M97" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="N97" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="O97" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="P97" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q97" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="R97" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="S97" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="T97" s="38"/>
     </row>
     <row r="98" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
-      <c r="N98" s="14"/>
-      <c r="O98" s="14"/>
-      <c r="P98" s="14"/>
-      <c r="Q98" s="14"/>
-      <c r="R98" s="14"/>
-      <c r="S98" s="14"/>
-      <c r="T98" s="4"/>
+      <c r="A98" s="34">
+        <v>68</v>
+      </c>
+      <c r="B98" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="C98" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" s="35" t="str">
+        <f t="shared" ref="D98:D99" si="19">LEFT(C98, FIND("-", C98)-1)</f>
+        <v>numeric</v>
+      </c>
+      <c r="E98" s="35">
+        <v>0</v>
+      </c>
+      <c r="F98" s="34">
+        <v>150</v>
+      </c>
+      <c r="G98" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="I98" s="34"/>
+      <c r="J98" s="34">
+        <v>0</v>
+      </c>
+      <c r="K98" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="L98" s="34">
+        <v>72</v>
+      </c>
+      <c r="M98" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="N98" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="O98" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="P98" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q98" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="R98" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="S98" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="T98" s="38"/>
     </row>
     <row r="99" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="14"/>
-      <c r="O99" s="14"/>
-      <c r="P99" s="14"/>
-      <c r="Q99" s="14"/>
-      <c r="R99" s="14"/>
-      <c r="S99" s="14"/>
-      <c r="T99" s="4"/>
+      <c r="A99" s="34">
+        <v>69</v>
+      </c>
+      <c r="B99" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="C99" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" s="35" t="str">
+        <f t="shared" si="19"/>
+        <v>numeric</v>
+      </c>
+      <c r="E99" s="35">
+        <v>0</v>
+      </c>
+      <c r="F99" s="34">
+        <v>150</v>
+      </c>
+      <c r="G99" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="I99" s="34"/>
+      <c r="J99" s="34">
+        <v>0</v>
+      </c>
+      <c r="K99" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="L99" s="34">
+        <v>72</v>
+      </c>
+      <c r="M99" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="N99" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="O99" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="P99" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q99" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="R99" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="S99" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="T99" s="38"/>
     </row>
     <row r="100" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
@@ -9349,7 +9768,7 @@
       <c r="Q216" s="14"/>
       <c r="R216" s="14"/>
       <c r="S216" s="14"/>
-      <c r="T216" s="3"/>
+      <c r="T216" s="4"/>
     </row>
     <row r="217" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
@@ -9371,7 +9790,7 @@
       <c r="Q217" s="14"/>
       <c r="R217" s="14"/>
       <c r="S217" s="14"/>
-      <c r="T217" s="3"/>
+      <c r="T217" s="4"/>
     </row>
     <row r="218" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
@@ -9393,7 +9812,7 @@
       <c r="Q218" s="14"/>
       <c r="R218" s="14"/>
       <c r="S218" s="14"/>
-      <c r="T218" s="3"/>
+      <c r="T218" s="4"/>
     </row>
     <row r="219" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
@@ -9415,7 +9834,7 @@
       <c r="Q219" s="14"/>
       <c r="R219" s="14"/>
       <c r="S219" s="14"/>
-      <c r="T219" s="3"/>
+      <c r="T219" s="4"/>
     </row>
     <row r="220" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
@@ -9437,7 +9856,7 @@
       <c r="Q220" s="14"/>
       <c r="R220" s="14"/>
       <c r="S220" s="14"/>
-      <c r="T220" s="3"/>
+      <c r="T220" s="4"/>
     </row>
     <row r="221" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
@@ -9459,7 +9878,7 @@
       <c r="Q221" s="14"/>
       <c r="R221" s="14"/>
       <c r="S221" s="14"/>
-      <c r="T221" s="3"/>
+      <c r="T221" s="4"/>
     </row>
     <row r="222" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
@@ -9481,7 +9900,7 @@
       <c r="Q222" s="14"/>
       <c r="R222" s="14"/>
       <c r="S222" s="14"/>
-      <c r="T222" s="3"/>
+      <c r="T222" s="4"/>
     </row>
     <row r="223" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
@@ -9503,7 +9922,7 @@
       <c r="Q223" s="14"/>
       <c r="R223" s="14"/>
       <c r="S223" s="14"/>
-      <c r="T223" s="3"/>
+      <c r="T223" s="4"/>
     </row>
     <row r="224" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
@@ -9525,7 +9944,7 @@
       <c r="Q224" s="14"/>
       <c r="R224" s="14"/>
       <c r="S224" s="14"/>
-      <c r="T224" s="3"/>
+      <c r="T224" s="4"/>
     </row>
     <row r="225" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
@@ -9547,7 +9966,7 @@
       <c r="Q225" s="14"/>
       <c r="R225" s="14"/>
       <c r="S225" s="14"/>
-      <c r="T225" s="3"/>
+      <c r="T225" s="4"/>
     </row>
     <row r="226" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
@@ -9569,7 +9988,7 @@
       <c r="Q226" s="14"/>
       <c r="R226" s="14"/>
       <c r="S226" s="14"/>
-      <c r="T226" s="3"/>
+      <c r="T226" s="4"/>
     </row>
     <row r="227" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
@@ -24597,8 +25016,250 @@
       <c r="S909" s="14"/>
       <c r="T909" s="3"/>
     </row>
+    <row r="910" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A910" s="3"/>
+      <c r="B910" s="3"/>
+      <c r="C910" s="3"/>
+      <c r="D910" s="3"/>
+      <c r="E910" s="3"/>
+      <c r="F910" s="3"/>
+      <c r="G910" s="3"/>
+      <c r="H910" s="3"/>
+      <c r="I910" s="3"/>
+      <c r="J910" s="3"/>
+      <c r="K910" s="3"/>
+      <c r="L910" s="3"/>
+      <c r="M910" s="3"/>
+      <c r="N910" s="14"/>
+      <c r="O910" s="14"/>
+      <c r="P910" s="14"/>
+      <c r="Q910" s="14"/>
+      <c r="R910" s="14"/>
+      <c r="S910" s="14"/>
+      <c r="T910" s="3"/>
+    </row>
+    <row r="911" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A911" s="3"/>
+      <c r="B911" s="3"/>
+      <c r="C911" s="3"/>
+      <c r="D911" s="3"/>
+      <c r="E911" s="3"/>
+      <c r="F911" s="3"/>
+      <c r="G911" s="3"/>
+      <c r="H911" s="3"/>
+      <c r="I911" s="3"/>
+      <c r="J911" s="3"/>
+      <c r="K911" s="3"/>
+      <c r="L911" s="3"/>
+      <c r="M911" s="3"/>
+      <c r="N911" s="14"/>
+      <c r="O911" s="14"/>
+      <c r="P911" s="14"/>
+      <c r="Q911" s="14"/>
+      <c r="R911" s="14"/>
+      <c r="S911" s="14"/>
+      <c r="T911" s="3"/>
+    </row>
+    <row r="912" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A912" s="3"/>
+      <c r="B912" s="3"/>
+      <c r="C912" s="3"/>
+      <c r="D912" s="3"/>
+      <c r="E912" s="3"/>
+      <c r="F912" s="3"/>
+      <c r="G912" s="3"/>
+      <c r="H912" s="3"/>
+      <c r="I912" s="3"/>
+      <c r="J912" s="3"/>
+      <c r="K912" s="3"/>
+      <c r="L912" s="3"/>
+      <c r="M912" s="3"/>
+      <c r="N912" s="14"/>
+      <c r="O912" s="14"/>
+      <c r="P912" s="14"/>
+      <c r="Q912" s="14"/>
+      <c r="R912" s="14"/>
+      <c r="S912" s="14"/>
+      <c r="T912" s="3"/>
+    </row>
+    <row r="913" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A913" s="3"/>
+      <c r="B913" s="3"/>
+      <c r="C913" s="3"/>
+      <c r="D913" s="3"/>
+      <c r="E913" s="3"/>
+      <c r="F913" s="3"/>
+      <c r="G913" s="3"/>
+      <c r="H913" s="3"/>
+      <c r="I913" s="3"/>
+      <c r="J913" s="3"/>
+      <c r="K913" s="3"/>
+      <c r="L913" s="3"/>
+      <c r="M913" s="3"/>
+      <c r="N913" s="14"/>
+      <c r="O913" s="14"/>
+      <c r="P913" s="14"/>
+      <c r="Q913" s="14"/>
+      <c r="R913" s="14"/>
+      <c r="S913" s="14"/>
+      <c r="T913" s="3"/>
+    </row>
+    <row r="914" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A914" s="3"/>
+      <c r="B914" s="3"/>
+      <c r="C914" s="3"/>
+      <c r="D914" s="3"/>
+      <c r="E914" s="3"/>
+      <c r="F914" s="3"/>
+      <c r="G914" s="3"/>
+      <c r="H914" s="3"/>
+      <c r="I914" s="3"/>
+      <c r="J914" s="3"/>
+      <c r="K914" s="3"/>
+      <c r="L914" s="3"/>
+      <c r="M914" s="3"/>
+      <c r="N914" s="14"/>
+      <c r="O914" s="14"/>
+      <c r="P914" s="14"/>
+      <c r="Q914" s="14"/>
+      <c r="R914" s="14"/>
+      <c r="S914" s="14"/>
+      <c r="T914" s="3"/>
+    </row>
+    <row r="915" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A915" s="3"/>
+      <c r="B915" s="3"/>
+      <c r="C915" s="3"/>
+      <c r="D915" s="3"/>
+      <c r="E915" s="3"/>
+      <c r="F915" s="3"/>
+      <c r="G915" s="3"/>
+      <c r="H915" s="3"/>
+      <c r="I915" s="3"/>
+      <c r="J915" s="3"/>
+      <c r="K915" s="3"/>
+      <c r="L915" s="3"/>
+      <c r="M915" s="3"/>
+      <c r="N915" s="14"/>
+      <c r="O915" s="14"/>
+      <c r="P915" s="14"/>
+      <c r="Q915" s="14"/>
+      <c r="R915" s="14"/>
+      <c r="S915" s="14"/>
+      <c r="T915" s="3"/>
+    </row>
+    <row r="916" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A916" s="3"/>
+      <c r="B916" s="3"/>
+      <c r="C916" s="3"/>
+      <c r="D916" s="3"/>
+      <c r="E916" s="3"/>
+      <c r="F916" s="3"/>
+      <c r="G916" s="3"/>
+      <c r="H916" s="3"/>
+      <c r="I916" s="3"/>
+      <c r="J916" s="3"/>
+      <c r="K916" s="3"/>
+      <c r="L916" s="3"/>
+      <c r="M916" s="3"/>
+      <c r="N916" s="14"/>
+      <c r="O916" s="14"/>
+      <c r="P916" s="14"/>
+      <c r="Q916" s="14"/>
+      <c r="R916" s="14"/>
+      <c r="S916" s="14"/>
+      <c r="T916" s="3"/>
+    </row>
+    <row r="917" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A917" s="3"/>
+      <c r="B917" s="3"/>
+      <c r="C917" s="3"/>
+      <c r="D917" s="3"/>
+      <c r="E917" s="3"/>
+      <c r="F917" s="3"/>
+      <c r="G917" s="3"/>
+      <c r="H917" s="3"/>
+      <c r="I917" s="3"/>
+      <c r="J917" s="3"/>
+      <c r="K917" s="3"/>
+      <c r="L917" s="3"/>
+      <c r="M917" s="3"/>
+      <c r="N917" s="14"/>
+      <c r="O917" s="14"/>
+      <c r="P917" s="14"/>
+      <c r="Q917" s="14"/>
+      <c r="R917" s="14"/>
+      <c r="S917" s="14"/>
+      <c r="T917" s="3"/>
+    </row>
+    <row r="918" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A918" s="3"/>
+      <c r="B918" s="3"/>
+      <c r="C918" s="3"/>
+      <c r="D918" s="3"/>
+      <c r="E918" s="3"/>
+      <c r="F918" s="3"/>
+      <c r="G918" s="3"/>
+      <c r="H918" s="3"/>
+      <c r="I918" s="3"/>
+      <c r="J918" s="3"/>
+      <c r="K918" s="3"/>
+      <c r="L918" s="3"/>
+      <c r="M918" s="3"/>
+      <c r="N918" s="14"/>
+      <c r="O918" s="14"/>
+      <c r="P918" s="14"/>
+      <c r="Q918" s="14"/>
+      <c r="R918" s="14"/>
+      <c r="S918" s="14"/>
+      <c r="T918" s="3"/>
+    </row>
+    <row r="919" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A919" s="3"/>
+      <c r="B919" s="3"/>
+      <c r="C919" s="3"/>
+      <c r="D919" s="3"/>
+      <c r="E919" s="3"/>
+      <c r="F919" s="3"/>
+      <c r="G919" s="3"/>
+      <c r="H919" s="3"/>
+      <c r="I919" s="3"/>
+      <c r="J919" s="3"/>
+      <c r="K919" s="3"/>
+      <c r="L919" s="3"/>
+      <c r="M919" s="3"/>
+      <c r="N919" s="14"/>
+      <c r="O919" s="14"/>
+      <c r="P919" s="14"/>
+      <c r="Q919" s="14"/>
+      <c r="R919" s="14"/>
+      <c r="S919" s="14"/>
+      <c r="T919" s="3"/>
+    </row>
+    <row r="920" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A920" s="3"/>
+      <c r="B920" s="3"/>
+      <c r="C920" s="3"/>
+      <c r="D920" s="3"/>
+      <c r="E920" s="3"/>
+      <c r="F920" s="3"/>
+      <c r="G920" s="3"/>
+      <c r="H920" s="3"/>
+      <c r="I920" s="3"/>
+      <c r="J920" s="3"/>
+      <c r="K920" s="3"/>
+      <c r="L920" s="3"/>
+      <c r="M920" s="3"/>
+      <c r="N920" s="14"/>
+      <c r="O920" s="14"/>
+      <c r="P920" s="14"/>
+      <c r="Q920" s="14"/>
+      <c r="R920" s="14"/>
+      <c r="S920" s="14"/>
+      <c r="T920" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:T909" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T920" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="5">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{0BA62E2C-90D0-4A85-8B8A-6B7F0EEA38EF}">
       <formula1>0</formula1>
@@ -24626,11 +25287,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X1017"/>
+  <dimension ref="A1:X1018"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24701,7 +25362,7 @@
         <v>1104</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>23</v>
@@ -24734,7 +25395,7 @@
         <v>1105</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -24767,13 +25428,13 @@
         <v>1101</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>45</v>
@@ -24801,13 +25462,13 @@
         <v>1170</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C5" s="3">
         <v>70</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>45</v>
@@ -24831,17 +25492,17 @@
     </row>
     <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <f t="shared" ref="A6:A35" si="0">1100+C6</f>
+        <f t="shared" ref="A6:A39" si="0">1100+C6</f>
         <v>1172</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C6" s="3">
         <v>72</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>45</v>
@@ -24869,13 +25530,13 @@
         <v>1173</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C7" s="3">
         <v>73</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>45</v>
@@ -24903,13 +25564,13 @@
         <v>1174</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C8" s="3">
         <v>74</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>45</v>
@@ -24937,13 +25598,13 @@
         <v>1175</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C9" s="3">
         <v>75</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>45</v>
@@ -24971,13 +25632,13 @@
         <v>1176</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C10" s="3">
         <v>76</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>45</v>
@@ -25005,13 +25666,13 @@
         <v>1177</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C11" s="3">
         <v>77</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>45</v>
@@ -25039,13 +25700,13 @@
         <v>1178</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C12" s="3">
         <v>78</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>45</v>
@@ -25073,13 +25734,13 @@
         <v>1179</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C13" s="3">
         <v>79</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>45</v>
@@ -25107,13 +25768,13 @@
         <v>1180</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C14" s="3">
         <v>80</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>45</v>
@@ -25141,13 +25802,13 @@
         <v>1183</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C15" s="3">
         <v>83</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>45</v>
@@ -25175,13 +25836,13 @@
         <v>1184</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C16" s="3">
         <v>84</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>45</v>
@@ -25209,13 +25870,13 @@
         <v>1185</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C17" s="3">
         <v>85</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>45</v>
@@ -25243,13 +25904,13 @@
         <v>1186</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C18" s="3">
         <v>86</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>45</v>
@@ -25277,13 +25938,13 @@
         <v>1187</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C19" s="3">
         <v>87</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>45</v>
@@ -25311,13 +25972,13 @@
         <v>1111</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C20" s="3">
         <v>11</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>45</v>
@@ -25345,13 +26006,13 @@
         <v>1112</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C21" s="3">
         <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>45</v>
@@ -25379,13 +26040,13 @@
         <v>1110</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C22" s="3">
         <v>10</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>45</v>
@@ -25413,13 +26074,13 @@
         <v>1108</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C23" s="3">
         <v>8</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>45</v>
@@ -25447,13 +26108,13 @@
         <v>1109</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C24" s="3">
         <v>9</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>45</v>
@@ -25481,13 +26142,13 @@
         <v>1113</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>186</v>
+        <v>354</v>
       </c>
       <c r="C25" s="3">
         <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>45</v>
@@ -25515,13 +26176,13 @@
         <v>1114</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C26" s="3">
         <v>14</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>45</v>
@@ -25549,13 +26210,13 @@
         <v>1115</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>188</v>
+        <v>351</v>
       </c>
       <c r="C27" s="3">
         <v>15</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>45</v>
@@ -25583,13 +26244,13 @@
         <v>1116</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C28" s="3">
         <v>16</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>45</v>
@@ -25617,13 +26278,13 @@
         <v>1117</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C29" s="3">
         <v>17</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>45</v>
@@ -25651,13 +26312,13 @@
         <v>1118</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C30" s="3">
         <v>18</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>45</v>
@@ -25685,13 +26346,13 @@
         <v>1120</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C31" s="3">
         <v>20</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E31" s="14" t="s">
         <v>45</v>
@@ -25719,13 +26380,13 @@
         <v>1121</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C32" s="3">
         <v>21</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>45</v>
@@ -25750,16 +26411,16 @@
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
-        <v>1122</v>
+        <v>1195</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>220</v>
+        <v>367</v>
       </c>
       <c r="C33" s="3">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>45</v>
@@ -25784,16 +26445,16 @@
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="C34" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>45</v>
@@ -25818,16 +26479,16 @@
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C35" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E35" s="14" t="s">
         <v>45</v>
@@ -25851,16 +26512,17 @@
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>1188</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>349</v>
+        <f t="shared" si="0"/>
+        <v>1124</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C36" s="3">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>45</v>
@@ -25884,16 +26546,17 @@
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>1189</v>
+        <f t="shared" si="0"/>
+        <v>1188</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C37" s="3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>45</v>
@@ -25916,29 +26579,71 @@
       <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
+      <c r="A38" s="3">
+        <f t="shared" si="0"/>
+        <v>1189</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C38" s="3">
+        <v>89</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="K38" s="3"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
+      <c r="A39" s="3">
+        <f t="shared" si="0"/>
+        <v>1197</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C39" s="3">
+        <v>97</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J39" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38655,10 +39360,23 @@
       <c r="J1017" s="14"/>
       <c r="K1017" s="3"/>
     </row>
+    <row r="1018" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1018" s="3"/>
+      <c r="B1018" s="3"/>
+      <c r="C1018" s="3"/>
+      <c r="D1018" s="3"/>
+      <c r="E1018" s="14"/>
+      <c r="F1018" s="14"/>
+      <c r="G1018" s="14"/>
+      <c r="H1018" s="14"/>
+      <c r="I1018" s="14"/>
+      <c r="J1018" s="14"/>
+      <c r="K1018" s="3"/>
+    </row>
   </sheetData>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Error" error="Currently, The implementation requires a derived from concept id, but the program is not planned to deal with TAKs that have more then 1 base concepts. Please focus on one at the time, or contact developers." sqref="C5:C14" xr:uid="{60DADC71-9D75-41E9-8E91-4A0A84ACE9E1}"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C35 A2:A1048576" xr:uid="{98A4E0C0-623A-43B0-A1B2-0ACD9C28F3FC}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C36 A2:A1048576" xr:uid="{98A4E0C0-623A-43B0-A1B2-0ACD9C28F3FC}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:J1048576" xr:uid="{BD14D827-2ED4-418B-B045-D2154EB50A63}">
@@ -38679,13 +39397,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.21875" style="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5546875" style="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.88671875" style="23" bestFit="1" customWidth="1"/>
@@ -38787,13 +39505,13 @@
         <v>1203</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C2" s="19">
         <v>3</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>63</v>
@@ -38839,13 +39557,13 @@
         <v>1225</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C3" s="3">
         <v>25</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>63</v>
@@ -38883,13 +39601,13 @@
         <v>1226</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C4" s="23">
         <v>26</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>63</v>
@@ -38927,13 +39645,13 @@
         <v>1227</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C5" s="23">
         <v>27</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>63</v>
@@ -38971,13 +39689,13 @@
         <v>1228</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C6" s="23">
         <v>28</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>63</v>
@@ -39015,13 +39733,13 @@
         <v>1219</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C7" s="23">
         <v>19</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>63</v>
@@ -39054,15 +39772,402 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>1229</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" s="23">
+        <v>29</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>1256</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="C9" s="23">
+        <v>56</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>1290</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="C10" s="23">
+        <v>90</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>1291</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="C11" s="23">
+        <v>91</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="U11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="V11" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
+        <v>1292</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="C12" s="23">
+        <v>92</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="19">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="U12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="V12" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
+        <v>1293</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="C13" s="23">
+        <v>93</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="19">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="U13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="V13" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <v>1294</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="C14" s="23">
+        <v>94</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="19">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="T14" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="U14" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="V14" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
+        <v>1296</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="C15" s="23">
+        <v>96</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="19">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="T15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="U15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="V15" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
+        <v>1297</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="C16" s="23">
+        <v>97</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="S16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="T16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="U16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="V16" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40058,17 +41163,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{F7A19A48-EA19-43B2-96D8-8F3C8A8E029D}">
       <formula1>"equal, not-equal, bigger-equal, bigger, smaller-equal, smaller"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576 I2:I1048576 F2:F1048576" xr:uid="{1C156D25-1B38-4894-84AB-46AD25227753}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576 I2:I1048576 N2:N1048576" xr:uid="{1C156D25-1B38-4894-84AB-46AD25227753}">
       <formula1>"start, end"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{E865A148-F093-421F-AB63-585CEEC96279}">
       <formula1>-1000000000000</formula1>
       <formula2>1000000000000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576 K2:K1048576 H2:H1048576" xr:uid="{67414E21-2133-4E5E-B5D4-E1052B042939}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576 K2:K1048576 P2:P1048576" xr:uid="{67414E21-2133-4E5E-B5D4-E1052B042939}">
       <formula1>"second, minute, hour, day, week, month, year"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576 O2:O1048576" xr:uid="{E5AEA31F-71B0-477A-8372-81A09F350705}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576 J2:J1048576" xr:uid="{E5AEA31F-71B0-477A-8372-81A09F350705}">
       <formula1>-100000000000</formula1>
       <formula2>100000000000</formula2>
     </dataValidation>
@@ -40087,9 +41192,9 @@
   </sheetPr>
   <dimension ref="A1:AF995"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41:XFD42"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -40183,7 +41288,7 @@
         <v>1001</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -40239,7 +41344,7 @@
         <v>1002</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -40251,7 +41356,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>20</v>
@@ -40295,7 +41400,7 @@
         <v>1004</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C4" s="3">
         <v>4</v>
@@ -40307,10 +41412,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -40351,7 +41456,7 @@
         <v>1005</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C5" s="3">
         <v>5</v>
@@ -40363,10 +41468,10 @@
         <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -40407,7 +41512,7 @@
         <v>1063</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C6" s="3">
         <v>63</v>
@@ -40419,10 +41524,10 @@
         <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -40463,7 +41568,7 @@
         <v>1030</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C7" s="3">
         <v>30</v>
@@ -40475,10 +41580,10 @@
         <v>15</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -40519,7 +41624,7 @@
         <v>1031</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C8" s="3">
         <v>31</v>
@@ -40531,10 +41636,10 @@
         <v>15</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -40575,7 +41680,7 @@
         <v>1032</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C9" s="3">
         <v>32</v>
@@ -40587,10 +41692,10 @@
         <v>15</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -40631,7 +41736,7 @@
         <v>1033</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C10" s="3">
         <v>33</v>
@@ -40643,10 +41748,10 @@
         <v>15</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -40687,7 +41792,7 @@
         <v>1034</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C11" s="3">
         <v>34</v>
@@ -40699,10 +41804,10 @@
         <v>15</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -40743,7 +41848,7 @@
         <v>1035</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C12" s="3">
         <v>35</v>
@@ -40755,10 +41860,10 @@
         <v>15</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -40799,7 +41904,7 @@
         <v>1036</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C13" s="3">
         <v>36</v>
@@ -40811,10 +41916,10 @@
         <v>15</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -40855,7 +41960,7 @@
         <v>1037</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C14" s="3">
         <v>37</v>
@@ -40867,10 +41972,10 @@
         <v>15</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -40911,7 +42016,7 @@
         <v>1038</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C15" s="3">
         <v>38</v>
@@ -40923,10 +42028,10 @@
         <v>15</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -40967,7 +42072,7 @@
         <v>1039</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C16" s="3">
         <v>39</v>
@@ -40979,10 +42084,10 @@
         <v>15</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -41023,7 +42128,7 @@
         <v>1040</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C17" s="3">
         <v>40</v>
@@ -41035,10 +42140,10 @@
         <v>15</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -41079,7 +42184,7 @@
         <v>1041</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C18" s="3">
         <v>41</v>
@@ -41091,10 +42196,10 @@
         <v>15</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -41135,7 +42240,7 @@
         <v>1042</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C19" s="3">
         <v>42</v>
@@ -41147,10 +42252,10 @@
         <v>15</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -41191,7 +42296,7 @@
         <v>1043</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C20" s="3">
         <v>43</v>
@@ -41203,10 +42308,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -41247,7 +42352,7 @@
         <v>1044</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C21" s="3">
         <v>44</v>
@@ -41259,10 +42364,10 @@
         <v>15</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -41303,7 +42408,7 @@
         <v>1045</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C22" s="3">
         <v>45</v>
@@ -41315,10 +42420,10 @@
         <v>15</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -41359,7 +42464,7 @@
         <v>1046</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C23" s="3">
         <v>46</v>
@@ -41371,10 +42476,10 @@
         <v>15</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -41415,7 +42520,7 @@
         <v>1047</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C24" s="3">
         <v>47</v>
@@ -41427,10 +42532,10 @@
         <v>15</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -41471,7 +42576,7 @@
         <v>1048</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C25" s="3">
         <v>48</v>
@@ -41483,10 +42588,10 @@
         <v>15</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -41527,7 +42632,7 @@
         <v>1049</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C26" s="3">
         <v>49</v>
@@ -41539,10 +42644,10 @@
         <v>15</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -41583,7 +42688,7 @@
         <v>1050</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C27" s="3">
         <v>50</v>
@@ -41595,10 +42700,10 @@
         <v>15</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -41639,7 +42744,7 @@
         <v>1051</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C28" s="3">
         <v>51</v>
@@ -41651,10 +42756,10 @@
         <v>15</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -41695,7 +42800,7 @@
         <v>1052</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C29" s="3">
         <v>52</v>
@@ -41707,10 +42812,10 @@
         <v>15</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -41751,7 +42856,7 @@
         <v>1053</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C30" s="3">
         <v>53</v>
@@ -41763,10 +42868,10 @@
         <v>15</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H30" s="3">
         <v>0</v>
@@ -41807,7 +42912,7 @@
         <v>1054</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C31" s="3">
         <v>54</v>
@@ -41819,10 +42924,10 @@
         <v>15</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
@@ -41863,7 +42968,7 @@
         <v>1055</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C32" s="3">
         <v>55</v>
@@ -41875,10 +42980,10 @@
         <v>15</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -41919,7 +43024,7 @@
         <v>1057</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C33" s="3">
         <v>57</v>
@@ -41931,10 +43036,10 @@
         <v>15</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -41975,7 +43080,7 @@
         <v>1058</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C34" s="3">
         <v>58</v>
@@ -41987,10 +43092,10 @@
         <v>15</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
@@ -42031,7 +43136,7 @@
         <v>1059</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C35" s="3">
         <v>59</v>
@@ -42043,10 +43148,10 @@
         <v>15</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -42087,7 +43192,7 @@
         <v>1060</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C36" s="3">
         <v>60</v>
@@ -42099,10 +43204,10 @@
         <v>15</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H36" s="3">
         <v>0</v>
@@ -42143,7 +43248,7 @@
         <v>1061</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C37" s="3">
         <v>61</v>
@@ -42155,10 +43260,10 @@
         <v>15</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H37" s="3">
         <v>0</v>
@@ -42199,7 +43304,7 @@
         <v>1062</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C38" s="3">
         <v>62</v>
@@ -42211,10 +43316,10 @@
         <v>15</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H38" s="3">
         <v>0</v>
@@ -42255,7 +43360,7 @@
         <v>1064</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C39" s="3">
         <v>64</v>
@@ -42267,10 +43372,10 @@
         <v>15</v>
       </c>
       <c r="F39" s="39" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
@@ -42311,7 +43416,7 @@
         <v>1065</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C40" s="3">
         <v>65</v>
@@ -42323,10 +43428,10 @@
         <v>15</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
@@ -42367,7 +43472,7 @@
         <v>1066</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C41" s="3">
         <v>66</v>
@@ -42379,10 +43484,10 @@
         <v>15</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -42423,7 +43528,7 @@
         <v>1067</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C42" s="3">
         <v>67</v>
@@ -42435,10 +43540,10 @@
         <v>15</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -42479,7 +43584,7 @@
         <v>1068</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C43" s="3">
         <v>68</v>
@@ -42491,10 +43596,10 @@
         <v>15</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -42535,7 +43640,7 @@
         <v>1069</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C44" s="3">
         <v>69</v>
@@ -42547,10 +43652,10 @@
         <v>15</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -42591,7 +43696,7 @@
         <v>1071</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C45" s="3">
         <v>71</v>
@@ -42645,7 +43750,7 @@
         <v>1081</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C46" s="3">
         <v>81</v>
@@ -42699,7 +43804,7 @@
         <v>1082</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C47" s="3">
         <v>82</v>
@@ -60812,13 +61917,13 @@
         <v>13</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -60827,7 +61932,7 @@
         <v>2401</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C2" s="3">
         <v>1101</v>
@@ -60848,7 +61953,7 @@
         <v>1301</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -60870,7 +61975,7 @@
         <v>1302</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -60892,7 +61997,7 @@
         <v>1330</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C5" s="3">
         <v>30</v>
@@ -60914,7 +62019,7 @@
         <v>1333</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C6" s="3">
         <v>33</v>
@@ -60936,7 +62041,7 @@
         <v>1336</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C7" s="3">
         <v>36</v>
@@ -60958,7 +62063,7 @@
         <v>1337</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C8" s="3">
         <v>37</v>
@@ -60980,7 +62085,7 @@
         <v>1338</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C9" s="3">
         <v>38</v>
@@ -61002,7 +62107,7 @@
         <v>1340</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C10" s="3">
         <v>40</v>
@@ -61024,7 +62129,7 @@
         <v>1343</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C11" s="3">
         <v>43</v>
@@ -61046,7 +62151,7 @@
         <v>1344</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C12" s="3">
         <v>44</v>
@@ -61068,7 +62173,7 @@
         <v>1345</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C13" s="3">
         <v>45</v>
@@ -61091,7 +62196,7 @@
         <v>1346</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C14" s="3">
         <v>46</v>
@@ -61114,7 +62219,7 @@
         <v>1347</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C15" s="3">
         <v>47</v>
@@ -61137,7 +62242,7 @@
         <v>1348</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C16" s="3">
         <v>48</v>
@@ -61159,7 +62264,7 @@
         <v>1350</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C17" s="3">
         <v>50</v>
@@ -61181,7 +62286,7 @@
         <v>1351</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C18" s="3">
         <v>51</v>
@@ -61203,7 +62308,7 @@
         <v>1352</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C19" s="3">
         <v>52</v>
@@ -61225,7 +62330,7 @@
         <v>1353</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C20" s="3">
         <v>53</v>
@@ -61247,7 +62352,7 @@
         <v>1354</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C21" s="3">
         <v>54</v>
@@ -61269,7 +62374,7 @@
         <v>1355</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C22" s="3">
         <v>55</v>
@@ -61291,7 +62396,7 @@
         <v>1357</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C23" s="3">
         <v>57</v>
@@ -61313,7 +62418,7 @@
         <v>1358</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C24" s="3">
         <v>58</v>
@@ -61335,7 +62440,7 @@
         <v>1359</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C25" s="3">
         <v>59</v>
@@ -61357,7 +62462,7 @@
         <v>1360</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C26" s="3">
         <v>60</v>
@@ -61379,7 +62484,7 @@
         <v>1361</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C27" s="3">
         <v>61</v>
@@ -61401,7 +62506,7 @@
         <v>1362</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C28" s="3">
         <v>62</v>
@@ -61424,7 +62529,7 @@
         <v>1364</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C29" s="3">
         <v>64</v>
@@ -61446,7 +62551,7 @@
         <v>1366</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C30" s="3">
         <v>66</v>
@@ -61468,7 +62573,7 @@
         <v>1367</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C31" s="3">
         <v>67</v>

--- a/taks.xlsx
+++ b/taks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\CodeProjects\TAKAutomator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3993AF6-35A7-4256-B9C9-8AB1F40566DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC004DDD-B68D-46ED-A11F-D4A069960D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_concepts" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="287">
   <si>
     <t>TYPE</t>
   </si>
@@ -888,6 +888,9 @@
   <si>
     <t>HYPERTONIC_SALINE_BITZUA</t>
   </si>
+  <si>
+    <t>HYPERTONIC_SALINE_BITZUA_EVENT</t>
+  </si>
 </sst>
 </file>
 
@@ -1040,7 +1043,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1165,12 +1168,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1401,8 +1398,8 @@
   <dimension ref="A1:T915"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24705,9 +24702,9 @@
   </sheetPr>
   <dimension ref="A1:X1006"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24915,7 +24912,7 @@
         <v>1186</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C6" s="3">
         <v>86</v>
@@ -25626,13 +25623,13 @@
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>251</v>
       </c>
       <c r="C27" s="3">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>96</v>
@@ -59638,7 +59635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A161545-DA5F-4FD2-8279-D89A8EE73974}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -59921,19 +59918,19 @@
         <f t="shared" si="0"/>
         <v>1345</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="43">
         <v>45</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="47">
         <v>10</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="47">
         <v>48</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="46" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="22">

--- a/taks.xlsx
+++ b/taks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\CodeProjects\TAKAutomator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC004DDD-B68D-46ED-A11F-D4A069960D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C4652B-3D1D-416D-98EB-9C09C6BAD67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_concepts" sheetId="1" r:id="rId1"/>
@@ -24702,8 +24702,8 @@
   </sheetPr>
   <dimension ref="A1:X1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -38403,9 +38403,9 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/taks.xlsx
+++ b/taks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonat\CodeProjects\TAKAutomator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C4652B-3D1D-416D-98EB-9C09C6BAD67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696819AB-C891-4D76-9495-DECEF369670F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_concepts" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="285">
   <si>
     <t>TYPE</t>
   </si>
@@ -850,12 +850,6 @@
     <t>["Thrombocytopenia", "Normal", "Thrombocytosis"]</t>
   </si>
   <si>
-    <t>LOCAL_PERSISTENCE_GOOD_AFTER_UNIT</t>
-  </si>
-  <si>
-    <t>LOCAL_PERSISTENCE_GOOD_BEFORE_UNIT</t>
-  </si>
-  <si>
     <t>GLUCOSE_MEASURE</t>
   </si>
   <si>
@@ -2386,7 +2380,7 @@
         <v>86</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>24</v>
@@ -2439,7 +2433,7 @@
         <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>24</v>
@@ -4467,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C58" s="34" t="s">
         <v>25</v>
@@ -5796,7 +5790,7 @@
         <v>52</v>
       </c>
       <c r="B81" s="33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C81" s="34" t="s">
         <v>25</v>
@@ -6437,7 +6431,7 @@
         <v>66</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C92" s="34" t="s">
         <v>25</v>
@@ -24912,7 +24906,7 @@
         <v>1186</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C6" s="3">
         <v>86</v>
@@ -24946,7 +24940,7 @@
         <v>1187</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C7" s="3">
         <v>87</v>
@@ -38403,7 +38397,7 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
@@ -40215,9 +40209,9 @@
   </sheetPr>
   <dimension ref="A1:AF970"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD4"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -40312,7 +40306,7 @@
         <v>1001</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -40831,7 +40825,7 @@
         <v>1052</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C11" s="3">
         <v>52</v>
@@ -41237,7 +41231,7 @@
         <v>1066</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C18" s="3">
         <v>66</v>
@@ -59635,8 +59629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A161545-DA5F-4FD2-8279-D89A8EE73974}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -59648,7 +59642,7 @@
     <col min="5" max="5" width="24.5546875" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" customWidth="1"/>
     <col min="7" max="7" width="39.88671875" customWidth="1"/>
-    <col min="8" max="8" width="43.77734375" customWidth="1"/>
+    <col min="8" max="8" width="50.33203125" customWidth="1"/>
     <col min="9" max="9" width="42.33203125" customWidth="1"/>
     <col min="10" max="10" width="43.88671875" customWidth="1"/>
   </cols>
@@ -59676,13 +59670,13 @@
         <v>28</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>274</v>
+        <v>29</v>
       </c>
       <c r="I1" s="39" t="s">
         <v>31</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>273</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -60032,7 +60026,7 @@
         <v>1352</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C11" s="3">
         <v>52</v>
@@ -60298,7 +60292,7 @@
         <v>1366</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C18" s="3">
         <v>66</v>
